--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -2,25 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S02887\vokabeltrainer_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518C587-C3A9-44D5-BA59-2AACC04223C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FEDBFE-A11D-43BC-93D9-156B5E1716F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21000" yWindow="2475" windowWidth="16905" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="1798">
   <si>
     <t>Deutsch</t>
   </si>
@@ -5300,13 +5313,127 @@
   </si>
   <si>
     <t>incoming payment</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
+  </si>
+  <si>
+    <t>project plan</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>Meilenstein</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Zeitleiste</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>Ressourcenplanung</t>
+  </si>
+  <si>
+    <t>resource planning</t>
+  </si>
+  <si>
+    <t>Netzintegration</t>
+  </si>
+  <si>
+    <t>grid integration</t>
+  </si>
+  <si>
+    <t>Genehmigungsverfahren</t>
+  </si>
+  <si>
+    <t>approval process</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>Lieferkette</t>
+  </si>
+  <si>
+    <t>supply chain</t>
+  </si>
+  <si>
+    <t>Der Projektplan wurde in der Kick-off-Sitzung vorgestellt.</t>
+  </si>
+  <si>
+    <t>Die Risikoanalyse ergab mehrere kritische Punkte.</t>
+  </si>
+  <si>
+    <t>Die Netzintegration der neuen Windkraftanlage ist abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Der nächste Meilenstein ist die Fertigstellung des Netzanschlusses.</t>
+  </si>
+  <si>
+    <t>Das Budget für das Solarparkprojekt wurde um 10% überschritten.</t>
+  </si>
+  <si>
+    <t>Die Zeitleiste muss wegen Verzögerungen angepasst werden.</t>
+  </si>
+  <si>
+    <t>Die Ressourcenplanung berücksichtigt verfügbare Techniker.</t>
+  </si>
+  <si>
+    <t>Das Genehmigungsverfahren verzögert das Projekt um zwei Monate.</t>
+  </si>
+  <si>
+    <t>Alle Stakeholder wurden über den Projektfortschritt informiert.</t>
+  </si>
+  <si>
+    <t>Die unterbrochene Lieferkette führte zu Engpässen.</t>
+  </si>
+  <si>
+    <t>the project plan was presented during the kick-off meeting.</t>
+  </si>
+  <si>
+    <t>the next milestone is the completion of the grid connection.</t>
+  </si>
+  <si>
+    <t>the budget for the solar park project was exceeded by 10%.</t>
+  </si>
+  <si>
+    <t>the timeline needs to be adjusted due to delays.</t>
+  </si>
+  <si>
+    <t>the risk analysis revealed several critical issues.</t>
+  </si>
+  <si>
+    <t>the resource planning takes available technicians into account.</t>
+  </si>
+  <si>
+    <t>the grid integration of the new wind turbine is complete.</t>
+  </si>
+  <si>
+    <t>the approval process delays the project by two months.</t>
+  </si>
+  <si>
+    <t>all stakeholders were informed about the project progress.</t>
+  </si>
+  <si>
+    <t>the disrupted supply chain led to bottlenecks.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5318,6 +5445,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5355,11 +5490,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5662,13 +5798,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K510"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E124"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -21213,6 +21357,302 @@
         <v>1002</v>
       </c>
     </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I511" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J511" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K511" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I512" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J512" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K512" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I513" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J513" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K513" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I514" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J514" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K514" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G515" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H515" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I515" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J515" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K515" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I516" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J516" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K516" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I517" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J517" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K517" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I518" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K518" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H519" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I519" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J519" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K519" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I520" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J520" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K520" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="532" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I532" t="str">
+        <f t="shared" ref="I523:I533" si="0">LOWER(I521)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S02887\vokabeltrainer_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FEDBFE-A11D-43BC-93D9-156B5E1716F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BC92DE-C634-46A2-B0DC-90AF4A57076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="2139">
   <si>
     <t>Deutsch</t>
   </si>
@@ -5369,64 +5369,1087 @@
     <t>supply chain</t>
   </si>
   <si>
-    <t>Der Projektplan wurde in der Kick-off-Sitzung vorgestellt.</t>
-  </si>
-  <si>
-    <t>Die Risikoanalyse ergab mehrere kritische Punkte.</t>
-  </si>
-  <si>
-    <t>Die Netzintegration der neuen Windkraftanlage ist abgeschlossen.</t>
-  </si>
-  <si>
-    <t>Der nächste Meilenstein ist die Fertigstellung des Netzanschlusses.</t>
-  </si>
-  <si>
-    <t>Das Budget für das Solarparkprojekt wurde um 10% überschritten.</t>
-  </si>
-  <si>
-    <t>Die Zeitleiste muss wegen Verzögerungen angepasst werden.</t>
-  </si>
-  <si>
-    <t>Die Ressourcenplanung berücksichtigt verfügbare Techniker.</t>
-  </si>
-  <si>
-    <t>Das Genehmigungsverfahren verzögert das Projekt um zwei Monate.</t>
-  </si>
-  <si>
-    <t>Alle Stakeholder wurden über den Projektfortschritt informiert.</t>
-  </si>
-  <si>
-    <t>Die unterbrochene Lieferkette führte zu Engpässen.</t>
-  </si>
-  <si>
-    <t>the project plan was presented during the kick-off meeting.</t>
-  </si>
-  <si>
-    <t>the next milestone is the completion of the grid connection.</t>
-  </si>
-  <si>
-    <t>the budget for the solar park project was exceeded by 10%.</t>
-  </si>
-  <si>
-    <t>the timeline needs to be adjusted due to delays.</t>
-  </si>
-  <si>
-    <t>the risk analysis revealed several critical issues.</t>
-  </si>
-  <si>
-    <t>the resource planning takes available technicians into account.</t>
-  </si>
-  <si>
-    <t>the grid integration of the new wind turbine is complete.</t>
-  </si>
-  <si>
-    <t>the approval process delays the project by two months.</t>
-  </si>
-  <si>
-    <t>all stakeholders were informed about the project progress.</t>
-  </si>
-  <si>
-    <t>the disrupted supply chain led to bottlenecks.</t>
+    <t>Projektstrukturplan</t>
+  </si>
+  <si>
+    <t>work breakdown structure</t>
+  </si>
+  <si>
+    <t>Kostenabschätzung</t>
+  </si>
+  <si>
+    <t>cost estimation</t>
+  </si>
+  <si>
+    <t>Zeitmanagement</t>
+  </si>
+  <si>
+    <t>time management</t>
+  </si>
+  <si>
+    <t>Lastenheft</t>
+  </si>
+  <si>
+    <t>requirements specification</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>functional specification</t>
+  </si>
+  <si>
+    <t>Bauzeitplan</t>
+  </si>
+  <si>
+    <t>construction schedule</t>
+  </si>
+  <si>
+    <t>Vergabeprozess</t>
+  </si>
+  <si>
+    <t>tendering process</t>
+  </si>
+  <si>
+    <t>Nachtragsmanagement</t>
+  </si>
+  <si>
+    <t>change order management</t>
+  </si>
+  <si>
+    <t>Baufortschrittsbericht</t>
+  </si>
+  <si>
+    <t>construction progress report</t>
+  </si>
+  <si>
+    <t>Abnahme</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>Betriebsgenehmigung</t>
+  </si>
+  <si>
+    <t>operating license</t>
+  </si>
+  <si>
+    <t>Versorgungsleitung</t>
+  </si>
+  <si>
+    <t>supply line</t>
+  </si>
+  <si>
+    <t>Energieeffizienz</t>
+  </si>
+  <si>
+    <t>energy efficiency</t>
+  </si>
+  <si>
+    <t>Lastmanagement</t>
+  </si>
+  <si>
+    <t>load management</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme</t>
+  </si>
+  <si>
+    <t>commissioning</t>
+  </si>
+  <si>
+    <t>Instandhaltung</t>
+  </si>
+  <si>
+    <t>Stromspeicher</t>
+  </si>
+  <si>
+    <t>energy storage</t>
+  </si>
+  <si>
+    <t>Leistungsfähigkeit</t>
+  </si>
+  <si>
+    <t>performance capability</t>
+  </si>
+  <si>
+    <t>Emissionsminderung</t>
+  </si>
+  <si>
+    <t>emission reduction</t>
+  </si>
+  <si>
+    <t>Projektumfang</t>
+  </si>
+  <si>
+    <t>project scope</t>
+  </si>
+  <si>
+    <t>Kapazitätsgrenze</t>
+  </si>
+  <si>
+    <t>capacity limit</t>
+  </si>
+  <si>
+    <t>CO2-Bilanz</t>
+  </si>
+  <si>
+    <t>carbon footprint</t>
+  </si>
+  <si>
+    <t>Finanzierungsplan</t>
+  </si>
+  <si>
+    <t>financing plan</t>
+  </si>
+  <si>
+    <t>Projektteam</t>
+  </si>
+  <si>
+    <t>project team</t>
+  </si>
+  <si>
+    <t>Sicherheitskonzept</t>
+  </si>
+  <si>
+    <t>safety concept</t>
+  </si>
+  <si>
+    <t>Förderantrag</t>
+  </si>
+  <si>
+    <t>funding application</t>
+  </si>
+  <si>
+    <t>Umweltauflagen</t>
+  </si>
+  <si>
+    <t>environmental regulations</t>
+  </si>
+  <si>
+    <t>Baugenehmigung</t>
+  </si>
+  <si>
+    <t>building permit</t>
+  </si>
+  <si>
+    <t>Stakeholderanalyse</t>
+  </si>
+  <si>
+    <t>stakeholder analysis</t>
+  </si>
+  <si>
+    <t>Wirtschaftlichkeitsanalyse</t>
+  </si>
+  <si>
+    <t>cost-benefit analysis</t>
+  </si>
+  <si>
+    <t>Energiemarkt</t>
+  </si>
+  <si>
+    <t>energy market</t>
+  </si>
+  <si>
+    <t>Versorgungssicherheit</t>
+  </si>
+  <si>
+    <t>supply security</t>
+  </si>
+  <si>
+    <t>Projektleiter</t>
+  </si>
+  <si>
+    <t>project manager</t>
+  </si>
+  <si>
+    <t>Projektziel</t>
+  </si>
+  <si>
+    <t>project objective</t>
+  </si>
+  <si>
+    <t>Kapazitätsplanung</t>
+  </si>
+  <si>
+    <t>capacity planning</t>
+  </si>
+  <si>
+    <t>Projektstatus</t>
+  </si>
+  <si>
+    <t>project status</t>
+  </si>
+  <si>
+    <t>Terminplan</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>Projektrisiko</t>
+  </si>
+  <si>
+    <t>project risk</t>
+  </si>
+  <si>
+    <t>Abstimmungsprozess</t>
+  </si>
+  <si>
+    <t>coordination process</t>
+  </si>
+  <si>
+    <t>Verzögerung</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>Lieferverzug</t>
+  </si>
+  <si>
+    <t>delivery delay</t>
+  </si>
+  <si>
+    <t>Finanzierung</t>
+  </si>
+  <si>
+    <t>financing</t>
+  </si>
+  <si>
+    <t>Technologiewahl</t>
+  </si>
+  <si>
+    <t>technology selection</t>
+  </si>
+  <si>
+    <t>Zielkonflikt</t>
+  </si>
+  <si>
+    <t>conflict of objectives</t>
+  </si>
+  <si>
+    <t>Projektphase</t>
+  </si>
+  <si>
+    <t>project phase</t>
+  </si>
+  <si>
+    <t>Projektabschluss</t>
+  </si>
+  <si>
+    <t>project closure</t>
+  </si>
+  <si>
+    <t>Energieaudit</t>
+  </si>
+  <si>
+    <t>energy audit</t>
+  </si>
+  <si>
+    <t>Wartungsplan</t>
+  </si>
+  <si>
+    <t>maintenance schedule</t>
+  </si>
+  <si>
+    <t>Netzanschluss</t>
+  </si>
+  <si>
+    <t>grid connection</t>
+  </si>
+  <si>
+    <t>Wirkungsgrad</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>Projektbudget</t>
+  </si>
+  <si>
+    <t>project budget</t>
+  </si>
+  <si>
+    <t>Investitionsplan</t>
+  </si>
+  <si>
+    <t>investment plan</t>
+  </si>
+  <si>
+    <t>Kosten-Nutzen-Analyse</t>
+  </si>
+  <si>
+    <t>Kapazitätsausbau</t>
+  </si>
+  <si>
+    <t>capacity expansion</t>
+  </si>
+  <si>
+    <t>Projektlaufzeit</t>
+  </si>
+  <si>
+    <t>project duration</t>
+  </si>
+  <si>
+    <t>Terminüberwachung</t>
+  </si>
+  <si>
+    <t>schedule monitoring</t>
+  </si>
+  <si>
+    <t>Projektkommunikation</t>
+  </si>
+  <si>
+    <t>project communication</t>
+  </si>
+  <si>
+    <t>Projektdurchführung</t>
+  </si>
+  <si>
+    <t>project execution</t>
+  </si>
+  <si>
+    <t>Projektbewertung</t>
+  </si>
+  <si>
+    <t>project evaluation</t>
+  </si>
+  <si>
+    <t>Energiemonitoring</t>
+  </si>
+  <si>
+    <t>energy monitoring</t>
+  </si>
+  <si>
+    <t>Lieferbedingungen</t>
+  </si>
+  <si>
+    <t>delivery terms</t>
+  </si>
+  <si>
+    <t>Planabweichung</t>
+  </si>
+  <si>
+    <t>deviation from plan</t>
+  </si>
+  <si>
+    <t>Projektkalkulation</t>
+  </si>
+  <si>
+    <t>project costing</t>
+  </si>
+  <si>
+    <t>Stromnetz</t>
+  </si>
+  <si>
+    <t>power grid</t>
+  </si>
+  <si>
+    <t>Erzeugungskapazität</t>
+  </si>
+  <si>
+    <t>generation capacity</t>
+  </si>
+  <si>
+    <t>Projektkoordinator</t>
+  </si>
+  <si>
+    <t>project coordinator</t>
+  </si>
+  <si>
+    <t>Energiebilanz</t>
+  </si>
+  <si>
+    <t>energy balance</t>
+  </si>
+  <si>
+    <t>Lastspitze</t>
+  </si>
+  <si>
+    <t>Projektfinanzierung</t>
+  </si>
+  <si>
+    <t>project financing</t>
+  </si>
+  <si>
+    <t>Kostencontrolling</t>
+  </si>
+  <si>
+    <t>cost controlling</t>
+  </si>
+  <si>
+    <t>Budgetplanung</t>
+  </si>
+  <si>
+    <t>budget planning</t>
+  </si>
+  <si>
+    <t>Vertragsmanagement</t>
+  </si>
+  <si>
+    <t>contract management</t>
+  </si>
+  <si>
+    <t>Anforderungsmanagement</t>
+  </si>
+  <si>
+    <t>requirements management</t>
+  </si>
+  <si>
+    <t>Qualitätssicherung</t>
+  </si>
+  <si>
+    <t>quality assurance</t>
+  </si>
+  <si>
+    <t>Durchführbarkeitsstudie</t>
+  </si>
+  <si>
+    <t>feasibility study</t>
+  </si>
+  <si>
+    <t>Umweltauswirkung</t>
+  </si>
+  <si>
+    <t>environmental impact</t>
+  </si>
+  <si>
+    <t>Marktanalyse</t>
+  </si>
+  <si>
+    <t>market analysis</t>
+  </si>
+  <si>
+    <t>Stakeholder-Engagement</t>
+  </si>
+  <si>
+    <t>stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Power Purchase Agreement</t>
+  </si>
+  <si>
+    <t>power purchase agreement</t>
+  </si>
+  <si>
+    <t>Levelized Cost of Energy</t>
+  </si>
+  <si>
+    <t>levelized cost of energy</t>
+  </si>
+  <si>
+    <t>Renewable Energy Certificate</t>
+  </si>
+  <si>
+    <t>renewable energy certificate</t>
+  </si>
+  <si>
+    <t>Subventionsantrag</t>
+  </si>
+  <si>
+    <t>subsidy application</t>
+  </si>
+  <si>
+    <t>Der Projektplan wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Meilenstein gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Budget.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Zeitleiste unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Risikoanalyse bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Ressourcenplanung liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Netzintegration, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Genehmigungsverfahren ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Stakeholder für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Lieferkette kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Projektstrukturplan wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Kostenabschätzung gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Zeitmanagement.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Lastenheft unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Pflichtenheft bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Bauzeitplan liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Vergabeprozess, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Nachtragsmanagement ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Baufortschrittsbericht für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Abnahme kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Betriebsgenehmigung wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Versorgungsleitung gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Energieeffizienz.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Lastmanagement unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Einspeisung bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Netzbetreiber liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Inbetriebnahme, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Instandhaltung ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Stromspeicher für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Leistungsfähigkeit kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Emissionsminderung wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Projektumfang gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Kapazitätsgrenze.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist CO2-Bilanz unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Finanzierungsplan bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Projektteam liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Sicherheitskonzept, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Förderantrag ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Umweltauflagen für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Baugenehmigung kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Stakeholderanalyse wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Wirtschaftlichkeitsanalyse gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Energiemarkt.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Versorgungssicherheit unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Projektleiter bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Projektziel liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Kapazitätsplanung, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Projektstatus ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Terminplan für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Projektrisiko kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Abstimmungsprozess wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Verzögerung gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Lieferverzug.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Finanzierung unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Technologiewahl bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Zielkonflikt liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Projektphase, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Projektabschluss ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Energieaudit für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Wartungsplan kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Lastprofil wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Netzanschluss gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Wirkungsgrad.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Projektbudget unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Investitionsplan bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Kosten-Nutzen-Analyse liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Kapazitätsausbau, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Projektlaufzeit ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Terminüberwachung für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Projektkommunikation kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Projektdurchführung wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Projektbewertung gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Energiemonitoring.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Lieferbedingungen unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Planabweichung bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Projektkalkulation liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Stromnetz, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Erzeugungskapazität ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Projektkoordinator für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Energiebilanz kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Lastspitze wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Projektfinanzierung gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Kostencontrolling.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Budgetplanung unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Vertragsmanagement bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Anforderungsmanagement liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Qualitätssicherung, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Durchführbarkeitsstudie ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Umweltauswirkung für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Genehmigung kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>Der Marktanalyse wurde im letzten Meeting ausführlich diskutiert.</t>
+  </si>
+  <si>
+    <t>Wir haben den Prognose gestern mit dem Team abgestimmt.</t>
+  </si>
+  <si>
+    <t>Ein wichtiger Aspekt ist die Stakeholder-Engagement.</t>
+  </si>
+  <si>
+    <t>Für die erfolgreiche Umsetzung ist Risikomanagement unerlässlich.</t>
+  </si>
+  <si>
+    <t>Bitte aktualisiere den Compliance bis Ende der Woche.</t>
+  </si>
+  <si>
+    <t>Die aktuelle Version des Netzstabilität liegt im Projektordner.</t>
+  </si>
+  <si>
+    <t>Wir berücksichtigen die Power Purchase Agreement, um Risiken zu minimieren.</t>
+  </si>
+  <si>
+    <t>Der Fortschritt beim Levelized Cost of Energy ist zufriedenstellend.</t>
+  </si>
+  <si>
+    <t>Das Team bereitet den Renewable Energy Certificate für die Präsentation vor.</t>
+  </si>
+  <si>
+    <t>Ohne genaue Subventionsantrag kann das Projekt nicht fortgeführt werden.</t>
+  </si>
+  <si>
+    <t>The project plan was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the milestone with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the budget.</t>
+  </si>
+  <si>
+    <t>timeline is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the risk analysis by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the resource planning is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the grid integration to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the approval process is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the stakeholder for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise supply chain, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The work breakdown structure was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the cost estimation with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the time management.</t>
+  </si>
+  <si>
+    <t>requirements specification is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the functional specification by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the construction schedule is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the tendering process to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the change order management is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the construction progress report for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise acceptance, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The operating license was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the supply line with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the energy efficiency.</t>
+  </si>
+  <si>
+    <t>load management is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the feed-in by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the grid operator is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the commissioning to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the maintenance is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the energy storage for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise performance capability, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The emission reduction was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the project scope with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the capacity limit.</t>
+  </si>
+  <si>
+    <t>carbon footprint is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the financing plan by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the project team is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the safety concept to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the funding application is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the environmental regulations for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise building permit, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The stakeholder analysis was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the cost-benefit analysis with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the energy market.</t>
+  </si>
+  <si>
+    <t>supply security is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the project manager by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the project objective is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the capacity planning to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the project status is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the schedule for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise project risk, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The coordination process was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the delay with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the delivery delay.</t>
+  </si>
+  <si>
+    <t>financing is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the technology selection by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the conflict of objectives is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the project phase to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the project closure is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the energy audit for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise maintenance schedule, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The load profile was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the grid connection with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the efficiency.</t>
+  </si>
+  <si>
+    <t>project budget is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the investment plan by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the cost-benefit analysis is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the capacity expansion to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the project duration is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the schedule monitoring for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise project communication, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The project execution was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the project evaluation with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the energy monitoring.</t>
+  </si>
+  <si>
+    <t>delivery terms is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the deviation from plan by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the project costing is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the power grid to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the generation capacity is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the project coordinator for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise energy balance, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The peak load was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the project financing with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the cost controlling.</t>
+  </si>
+  <si>
+    <t>budget planning is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the contract management by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the requirements management is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the quality assurance to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the feasibility study is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the environmental impact for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise approval, the project cannot proceed.</t>
+  </si>
+  <si>
+    <t>The market analysis was discussed in detail during the last meeting.</t>
+  </si>
+  <si>
+    <t>We aligned the forecast with the team yesterday.</t>
+  </si>
+  <si>
+    <t>An important aspect is the stakeholder engagement.</t>
+  </si>
+  <si>
+    <t>risk management is indispensable for successful implementation.</t>
+  </si>
+  <si>
+    <t>Please update the compliance by the end of the week.</t>
+  </si>
+  <si>
+    <t>The current version of the grid stability is in the project folder.</t>
+  </si>
+  <si>
+    <t>We consider the power purchase agreement to minimize risks.</t>
+  </si>
+  <si>
+    <t>The progress on the levelized cost of energy is satisfactory.</t>
+  </si>
+  <si>
+    <t>The team is preparing the renewable energy certificate for the presentation.</t>
+  </si>
+  <si>
+    <t>Without precise subsidy application, the project cannot proceed.</t>
   </si>
 </sst>
 </file>
@@ -5799,17 +6822,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K532"/>
+  <dimension ref="A1:K610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522"/>
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F618" sqref="F618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -10164,6 +11187,12 @@
       <c r="C125" t="s">
         <v>969</v>
       </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
       <c r="F125" t="s">
         <v>1002</v>
       </c>
@@ -10193,6 +11222,12 @@
       <c r="C126" t="s">
         <v>969</v>
       </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
       <c r="F126" t="s">
         <v>1002</v>
       </c>
@@ -10222,6 +11257,12 @@
       <c r="C127" t="s">
         <v>969</v>
       </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
       <c r="F127" t="s">
         <v>1002</v>
       </c>
@@ -10251,6 +11292,12 @@
       <c r="C128" t="s">
         <v>969</v>
       </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
       <c r="F128" t="s">
         <v>1002</v>
       </c>
@@ -10280,6 +11327,12 @@
       <c r="C129" t="s">
         <v>969</v>
       </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
       <c r="F129" t="s">
         <v>1002</v>
       </c>
@@ -10309,6 +11362,12 @@
       <c r="C130" t="s">
         <v>969</v>
       </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
       <c r="F130" t="s">
         <v>1002</v>
       </c>
@@ -10338,6 +11397,12 @@
       <c r="C131" t="s">
         <v>969</v>
       </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
       <c r="F131" t="s">
         <v>1002</v>
       </c>
@@ -10367,6 +11432,12 @@
       <c r="C132" t="s">
         <v>969</v>
       </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
       <c r="F132" t="s">
         <v>1002</v>
       </c>
@@ -10396,6 +11467,12 @@
       <c r="C133" t="s">
         <v>969</v>
       </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
       <c r="F133" t="s">
         <v>1002</v>
       </c>
@@ -10425,6 +11502,12 @@
       <c r="C134" t="s">
         <v>969</v>
       </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
       <c r="F134" t="s">
         <v>1002</v>
       </c>
@@ -10454,6 +11537,12 @@
       <c r="C135" t="s">
         <v>969</v>
       </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
       <c r="F135" t="s">
         <v>1002</v>
       </c>
@@ -10483,6 +11572,12 @@
       <c r="C136" t="s">
         <v>1025</v>
       </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
       <c r="F136" t="s">
         <v>1002</v>
       </c>
@@ -10512,6 +11607,12 @@
       <c r="C137" t="s">
         <v>1025</v>
       </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
       <c r="F137" t="s">
         <v>1002</v>
       </c>
@@ -10541,6 +11642,12 @@
       <c r="C138" t="s">
         <v>1025</v>
       </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
       <c r="F138" t="s">
         <v>1002</v>
       </c>
@@ -10570,6 +11677,12 @@
       <c r="C139" t="s">
         <v>1025</v>
       </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
       <c r="F139" t="s">
         <v>1002</v>
       </c>
@@ -10599,6 +11712,12 @@
       <c r="C140" t="s">
         <v>1025</v>
       </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
       <c r="F140" t="s">
         <v>1002</v>
       </c>
@@ -10628,6 +11747,12 @@
       <c r="C141" t="s">
         <v>1025</v>
       </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
       <c r="F141" t="s">
         <v>1002</v>
       </c>
@@ -10657,6 +11782,12 @@
       <c r="C142" t="s">
         <v>1025</v>
       </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
       <c r="F142" t="s">
         <v>1002</v>
       </c>
@@ -10686,6 +11817,12 @@
       <c r="C143" t="s">
         <v>1025</v>
       </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
       <c r="F143" t="s">
         <v>1002</v>
       </c>
@@ -10715,6 +11852,12 @@
       <c r="C144" t="s">
         <v>1025</v>
       </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
       <c r="F144" t="s">
         <v>1002</v>
       </c>
@@ -10744,6 +11887,12 @@
       <c r="C145" t="s">
         <v>1025</v>
       </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
       <c r="F145" t="s">
         <v>1002</v>
       </c>
@@ -10773,6 +11922,12 @@
       <c r="C146" t="s">
         <v>1025</v>
       </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
       <c r="F146" t="s">
         <v>1002</v>
       </c>
@@ -10802,6 +11957,12 @@
       <c r="C147" t="s">
         <v>1025</v>
       </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
       <c r="F147" t="s">
         <v>1002</v>
       </c>
@@ -10831,6 +11992,12 @@
       <c r="C148" t="s">
         <v>1025</v>
       </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
       <c r="F148" t="s">
         <v>1002</v>
       </c>
@@ -10860,6 +12027,12 @@
       <c r="C149" t="s">
         <v>1025</v>
       </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
       <c r="F149" t="s">
         <v>1002</v>
       </c>
@@ -10889,6 +12062,12 @@
       <c r="C150" t="s">
         <v>1025</v>
       </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
       <c r="F150" t="s">
         <v>1002</v>
       </c>
@@ -10918,6 +12097,12 @@
       <c r="C151" t="s">
         <v>1055</v>
       </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
       <c r="F151" t="s">
         <v>1002</v>
       </c>
@@ -10947,6 +12132,12 @@
       <c r="C152" t="s">
         <v>1055</v>
       </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
       <c r="F152" t="s">
         <v>1002</v>
       </c>
@@ -10976,6 +12167,12 @@
       <c r="C153" t="s">
         <v>1055</v>
       </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
       <c r="F153" t="s">
         <v>1002</v>
       </c>
@@ -11005,6 +12202,12 @@
       <c r="C154" t="s">
         <v>1055</v>
       </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
       <c r="F154" t="s">
         <v>1002</v>
       </c>
@@ -11034,6 +12237,12 @@
       <c r="C155" t="s">
         <v>1055</v>
       </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
       <c r="F155" t="s">
         <v>1002</v>
       </c>
@@ -11063,6 +12272,12 @@
       <c r="C156" t="s">
         <v>1055</v>
       </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
       <c r="F156" t="s">
         <v>1002</v>
       </c>
@@ -11092,6 +12307,12 @@
       <c r="C157" t="s">
         <v>1055</v>
       </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
       <c r="F157" t="s">
         <v>1002</v>
       </c>
@@ -11121,6 +12342,12 @@
       <c r="C158" t="s">
         <v>1055</v>
       </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
       <c r="F158" t="s">
         <v>1002</v>
       </c>
@@ -11150,6 +12377,12 @@
       <c r="C159" t="s">
         <v>1055</v>
       </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
       <c r="F159" t="s">
         <v>1002</v>
       </c>
@@ -11179,6 +12412,12 @@
       <c r="C160" t="s">
         <v>1055</v>
       </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
       <c r="F160" t="s">
         <v>1002</v>
       </c>
@@ -11208,6 +12447,12 @@
       <c r="C161" t="s">
         <v>1055</v>
       </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
       <c r="F161" t="s">
         <v>1002</v>
       </c>
@@ -11237,6 +12482,12 @@
       <c r="C162" t="s">
         <v>1055</v>
       </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
       <c r="F162" t="s">
         <v>1002</v>
       </c>
@@ -11266,6 +12517,12 @@
       <c r="C163" t="s">
         <v>1055</v>
       </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
       <c r="F163" t="s">
         <v>1002</v>
       </c>
@@ -11295,6 +12552,12 @@
       <c r="C164" t="s">
         <v>1055</v>
       </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
       <c r="F164" t="s">
         <v>1002</v>
       </c>
@@ -11324,6 +12587,12 @@
       <c r="C165" t="s">
         <v>1055</v>
       </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
       <c r="F165" t="s">
         <v>1002</v>
       </c>
@@ -11353,6 +12622,12 @@
       <c r="C166" t="s">
         <v>1086</v>
       </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
       <c r="F166" t="s">
         <v>1002</v>
       </c>
@@ -11382,6 +12657,12 @@
       <c r="C167" t="s">
         <v>1086</v>
       </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
       <c r="F167" t="s">
         <v>1002</v>
       </c>
@@ -11411,6 +12692,12 @@
       <c r="C168" t="s">
         <v>1086</v>
       </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
       <c r="F168" t="s">
         <v>1002</v>
       </c>
@@ -11440,6 +12727,12 @@
       <c r="C169" t="s">
         <v>1086</v>
       </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
       <c r="F169" t="s">
         <v>1002</v>
       </c>
@@ -11469,6 +12762,12 @@
       <c r="C170" t="s">
         <v>1086</v>
       </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
       <c r="F170" t="s">
         <v>1002</v>
       </c>
@@ -11498,6 +12797,12 @@
       <c r="C171" t="s">
         <v>1086</v>
       </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
       <c r="F171" t="s">
         <v>1002</v>
       </c>
@@ -11527,6 +12832,12 @@
       <c r="C172" t="s">
         <v>1086</v>
       </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
       <c r="F172" t="s">
         <v>1002</v>
       </c>
@@ -11556,6 +12867,12 @@
       <c r="C173" t="s">
         <v>1086</v>
       </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
       <c r="F173" t="s">
         <v>1002</v>
       </c>
@@ -11585,6 +12902,12 @@
       <c r="C174" t="s">
         <v>1086</v>
       </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
       <c r="F174" t="s">
         <v>1002</v>
       </c>
@@ -11614,6 +12937,12 @@
       <c r="C175" t="s">
         <v>1086</v>
       </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
       <c r="F175" t="s">
         <v>1002</v>
       </c>
@@ -11643,6 +12972,12 @@
       <c r="C176" t="s">
         <v>1086</v>
       </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
       <c r="F176" t="s">
         <v>1002</v>
       </c>
@@ -11672,6 +13007,12 @@
       <c r="C177" t="s">
         <v>1086</v>
       </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
       <c r="F177" t="s">
         <v>1002</v>
       </c>
@@ -11701,6 +13042,12 @@
       <c r="C178" t="s">
         <v>1086</v>
       </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
       <c r="F178" t="s">
         <v>1002</v>
       </c>
@@ -11730,6 +13077,12 @@
       <c r="C179" t="s">
         <v>1086</v>
       </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
       <c r="F179" t="s">
         <v>1002</v>
       </c>
@@ -11759,6 +13112,12 @@
       <c r="C180" t="s">
         <v>1086</v>
       </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
       <c r="F180" t="s">
         <v>1002</v>
       </c>
@@ -11788,6 +13147,12 @@
       <c r="C181" t="s">
         <v>1117</v>
       </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
       <c r="F181" t="s">
         <v>1002</v>
       </c>
@@ -11817,6 +13182,12 @@
       <c r="C182" t="s">
         <v>1117</v>
       </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
       <c r="F182" t="s">
         <v>1002</v>
       </c>
@@ -11846,6 +13217,12 @@
       <c r="C183" t="s">
         <v>1117</v>
       </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
       <c r="F183" t="s">
         <v>1002</v>
       </c>
@@ -11875,6 +13252,12 @@
       <c r="C184" t="s">
         <v>1117</v>
       </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
       <c r="F184" t="s">
         <v>1002</v>
       </c>
@@ -11904,6 +13287,12 @@
       <c r="C185" t="s">
         <v>1117</v>
       </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
       <c r="F185" t="s">
         <v>1002</v>
       </c>
@@ -11933,6 +13322,12 @@
       <c r="C186" t="s">
         <v>1117</v>
       </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
       <c r="F186" t="s">
         <v>1002</v>
       </c>
@@ -11962,6 +13357,12 @@
       <c r="C187" t="s">
         <v>1117</v>
       </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
       <c r="F187" t="s">
         <v>1002</v>
       </c>
@@ -11991,6 +13392,12 @@
       <c r="C188" t="s">
         <v>1117</v>
       </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
       <c r="F188" t="s">
         <v>1002</v>
       </c>
@@ -12020,6 +13427,12 @@
       <c r="C189" t="s">
         <v>1117</v>
       </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
       <c r="F189" t="s">
         <v>1002</v>
       </c>
@@ -12049,6 +13462,12 @@
       <c r="C190" t="s">
         <v>1117</v>
       </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
       <c r="F190" t="s">
         <v>1002</v>
       </c>
@@ -12078,6 +13497,12 @@
       <c r="C191" t="s">
         <v>1117</v>
       </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
       <c r="F191" t="s">
         <v>1002</v>
       </c>
@@ -12107,6 +13532,12 @@
       <c r="C192" t="s">
         <v>1117</v>
       </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
       <c r="F192" t="s">
         <v>1002</v>
       </c>
@@ -12136,6 +13567,12 @@
       <c r="C193" t="s">
         <v>1117</v>
       </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
       <c r="F193" t="s">
         <v>1002</v>
       </c>
@@ -12165,6 +13602,12 @@
       <c r="C194" t="s">
         <v>1117</v>
       </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
       <c r="F194" t="s">
         <v>1002</v>
       </c>
@@ -12194,6 +13637,12 @@
       <c r="C195" t="s">
         <v>1117</v>
       </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
       <c r="F195" t="s">
         <v>1002</v>
       </c>
@@ -12223,6 +13672,12 @@
       <c r="C196" t="s">
         <v>1146</v>
       </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
       <c r="F196" t="s">
         <v>1002</v>
       </c>
@@ -12252,6 +13707,12 @@
       <c r="C197" t="s">
         <v>1146</v>
       </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
       <c r="F197" t="s">
         <v>1002</v>
       </c>
@@ -12281,6 +13742,12 @@
       <c r="C198" t="s">
         <v>1146</v>
       </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
       <c r="F198" t="s">
         <v>1002</v>
       </c>
@@ -12310,6 +13777,12 @@
       <c r="C199" t="s">
         <v>1146</v>
       </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
       <c r="F199" t="s">
         <v>1002</v>
       </c>
@@ -12339,6 +13812,12 @@
       <c r="C200" t="s">
         <v>1146</v>
       </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
       <c r="F200" t="s">
         <v>1002</v>
       </c>
@@ -12368,6 +13847,12 @@
       <c r="C201" t="s">
         <v>1146</v>
       </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
       <c r="F201" t="s">
         <v>1002</v>
       </c>
@@ -12397,6 +13882,12 @@
       <c r="C202" t="s">
         <v>1146</v>
       </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
       <c r="F202" t="s">
         <v>1002</v>
       </c>
@@ -12426,6 +13917,12 @@
       <c r="C203" t="s">
         <v>1146</v>
       </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
       <c r="F203" t="s">
         <v>1002</v>
       </c>
@@ -12455,6 +13952,12 @@
       <c r="C204" t="s">
         <v>1146</v>
       </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
       <c r="F204" t="s">
         <v>1002</v>
       </c>
@@ -12484,6 +13987,12 @@
       <c r="C205" t="s">
         <v>1146</v>
       </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
       <c r="F205" t="s">
         <v>1002</v>
       </c>
@@ -12513,6 +14022,12 @@
       <c r="C206" t="s">
         <v>1146</v>
       </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
       <c r="F206" t="s">
         <v>1002</v>
       </c>
@@ -12542,6 +14057,12 @@
       <c r="C207" t="s">
         <v>1146</v>
       </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
       <c r="F207" t="s">
         <v>1002</v>
       </c>
@@ -12571,6 +14092,12 @@
       <c r="C208" t="s">
         <v>1146</v>
       </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
       <c r="F208" t="s">
         <v>1002</v>
       </c>
@@ -12600,6 +14127,12 @@
       <c r="C209" t="s">
         <v>1146</v>
       </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
       <c r="F209" t="s">
         <v>1002</v>
       </c>
@@ -12632,6 +14165,9 @@
       <c r="D210">
         <v>1</v>
       </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
       <c r="F210" t="s">
         <v>1002</v>
       </c>
@@ -12661,6 +14197,12 @@
       <c r="C211" t="s">
         <v>1174</v>
       </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
       <c r="F211" t="s">
         <v>1002</v>
       </c>
@@ -12690,6 +14232,12 @@
       <c r="C212" t="s">
         <v>1174</v>
       </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
       <c r="F212" t="s">
         <v>1002</v>
       </c>
@@ -12719,6 +14267,12 @@
       <c r="C213" t="s">
         <v>1174</v>
       </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
       <c r="F213" t="s">
         <v>1002</v>
       </c>
@@ -12748,6 +14302,12 @@
       <c r="C214" t="s">
         <v>1174</v>
       </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
       <c r="F214" t="s">
         <v>1002</v>
       </c>
@@ -12777,6 +14337,12 @@
       <c r="C215" t="s">
         <v>1174</v>
       </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
       <c r="F215" t="s">
         <v>1002</v>
       </c>
@@ -12806,6 +14372,12 @@
       <c r="C216" t="s">
         <v>1174</v>
       </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
       <c r="F216" t="s">
         <v>1002</v>
       </c>
@@ -12835,6 +14407,12 @@
       <c r="C217" t="s">
         <v>1174</v>
       </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
       <c r="F217" t="s">
         <v>1002</v>
       </c>
@@ -12864,6 +14442,12 @@
       <c r="C218" t="s">
         <v>1174</v>
       </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
       <c r="F218" t="s">
         <v>1002</v>
       </c>
@@ -12893,6 +14477,12 @@
       <c r="C219" t="s">
         <v>1174</v>
       </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
       <c r="F219" t="s">
         <v>1002</v>
       </c>
@@ -12925,6 +14515,9 @@
       <c r="D220">
         <v>1</v>
       </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
       <c r="F220" t="s">
         <v>1002</v>
       </c>
@@ -12954,6 +14547,12 @@
       <c r="C221" t="s">
         <v>1174</v>
       </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
       <c r="F221" t="s">
         <v>1002</v>
       </c>
@@ -12983,6 +14582,12 @@
       <c r="C222" t="s">
         <v>1174</v>
       </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
       <c r="F222" t="s">
         <v>1002</v>
       </c>
@@ -13012,6 +14617,12 @@
       <c r="C223" t="s">
         <v>1174</v>
       </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
       <c r="F223" t="s">
         <v>1002</v>
       </c>
@@ -13041,6 +14652,12 @@
       <c r="C224" t="s">
         <v>1174</v>
       </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
       <c r="F224" t="s">
         <v>1002</v>
       </c>
@@ -13070,6 +14687,12 @@
       <c r="C225" t="s">
         <v>1174</v>
       </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
       <c r="F225" t="s">
         <v>1002</v>
       </c>
@@ -13099,6 +14722,12 @@
       <c r="C226" t="s">
         <v>1204</v>
       </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
       <c r="F226" t="s">
         <v>1002</v>
       </c>
@@ -13128,6 +14757,12 @@
       <c r="C227" t="s">
         <v>1204</v>
       </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
       <c r="F227" t="s">
         <v>1002</v>
       </c>
@@ -13157,6 +14792,12 @@
       <c r="C228" t="s">
         <v>1204</v>
       </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
       <c r="F228" t="s">
         <v>1002</v>
       </c>
@@ -13186,6 +14827,12 @@
       <c r="C229" t="s">
         <v>1204</v>
       </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
       <c r="F229" t="s">
         <v>1002</v>
       </c>
@@ -13215,6 +14862,12 @@
       <c r="C230" t="s">
         <v>1204</v>
       </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
       <c r="F230" t="s">
         <v>1002</v>
       </c>
@@ -13244,6 +14897,12 @@
       <c r="C231" t="s">
         <v>1204</v>
       </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
       <c r="F231" t="s">
         <v>1002</v>
       </c>
@@ -13273,6 +14932,12 @@
       <c r="C232" t="s">
         <v>1204</v>
       </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
       <c r="F232" t="s">
         <v>1002</v>
       </c>
@@ -13302,6 +14967,12 @@
       <c r="C233" t="s">
         <v>1204</v>
       </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
       <c r="F233" t="s">
         <v>1002</v>
       </c>
@@ -13331,6 +15002,12 @@
       <c r="C234" t="s">
         <v>1204</v>
       </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
       <c r="F234" t="s">
         <v>1002</v>
       </c>
@@ -13360,6 +15037,12 @@
       <c r="C235" t="s">
         <v>1204</v>
       </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
       <c r="F235" t="s">
         <v>1002</v>
       </c>
@@ -13389,6 +15072,12 @@
       <c r="C236" t="s">
         <v>1204</v>
       </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
       <c r="F236" t="s">
         <v>1002</v>
       </c>
@@ -13418,6 +15107,12 @@
       <c r="C237" t="s">
         <v>1204</v>
       </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
       <c r="F237" t="s">
         <v>1002</v>
       </c>
@@ -13447,6 +15142,12 @@
       <c r="C238" t="s">
         <v>1204</v>
       </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
       <c r="F238" t="s">
         <v>1002</v>
       </c>
@@ -13476,6 +15177,12 @@
       <c r="C239" t="s">
         <v>1204</v>
       </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
       <c r="F239" t="s">
         <v>1002</v>
       </c>
@@ -13505,6 +15212,12 @@
       <c r="C240" t="s">
         <v>1229</v>
       </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
       <c r="F240" t="s">
         <v>1002</v>
       </c>
@@ -13534,6 +15247,12 @@
       <c r="C241" t="s">
         <v>1229</v>
       </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
       <c r="F241" t="s">
         <v>1002</v>
       </c>
@@ -13563,6 +15282,12 @@
       <c r="C242" t="s">
         <v>1229</v>
       </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
       <c r="F242" t="s">
         <v>1002</v>
       </c>
@@ -13592,6 +15317,12 @@
       <c r="C243" t="s">
         <v>1229</v>
       </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
       <c r="F243" t="s">
         <v>1002</v>
       </c>
@@ -13621,6 +15352,12 @@
       <c r="C244" t="s">
         <v>1229</v>
       </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
       <c r="F244" t="s">
         <v>1002</v>
       </c>
@@ -13650,6 +15387,12 @@
       <c r="C245" t="s">
         <v>1229</v>
       </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
       <c r="F245" t="s">
         <v>1002</v>
       </c>
@@ -13679,6 +15422,12 @@
       <c r="C246" t="s">
         <v>1229</v>
       </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
       <c r="F246" t="s">
         <v>1002</v>
       </c>
@@ -13708,6 +15457,12 @@
       <c r="C247" t="s">
         <v>1229</v>
       </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
       <c r="F247" t="s">
         <v>1002</v>
       </c>
@@ -13737,6 +15492,12 @@
       <c r="C248" t="s">
         <v>1229</v>
       </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
       <c r="F248" t="s">
         <v>1002</v>
       </c>
@@ -13766,6 +15527,12 @@
       <c r="C249" t="s">
         <v>1229</v>
       </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
       <c r="F249" t="s">
         <v>1002</v>
       </c>
@@ -13795,6 +15562,12 @@
       <c r="C250" t="s">
         <v>1229</v>
       </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
       <c r="F250" t="s">
         <v>1002</v>
       </c>
@@ -13824,6 +15597,12 @@
       <c r="C251" t="s">
         <v>1229</v>
       </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
       <c r="F251" t="s">
         <v>1002</v>
       </c>
@@ -13853,6 +15632,12 @@
       <c r="C252" t="s">
         <v>1229</v>
       </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
       <c r="F252" t="s">
         <v>1002</v>
       </c>
@@ -13882,6 +15667,12 @@
       <c r="C253" t="s">
         <v>1229</v>
       </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
       <c r="F253" t="s">
         <v>1002</v>
       </c>
@@ -13911,6 +15702,12 @@
       <c r="C254" t="s">
         <v>1229</v>
       </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
       <c r="F254" t="s">
         <v>1002</v>
       </c>
@@ -13940,6 +15737,12 @@
       <c r="C255" t="s">
         <v>1260</v>
       </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
       <c r="F255" t="s">
         <v>1002</v>
       </c>
@@ -13969,6 +15772,12 @@
       <c r="C256" t="s">
         <v>1260</v>
       </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
       <c r="F256" t="s">
         <v>1002</v>
       </c>
@@ -13998,6 +15807,12 @@
       <c r="C257" t="s">
         <v>1260</v>
       </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
       <c r="F257" t="s">
         <v>1002</v>
       </c>
@@ -14027,6 +15842,12 @@
       <c r="C258" t="s">
         <v>1260</v>
       </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
       <c r="F258" t="s">
         <v>1002</v>
       </c>
@@ -14056,6 +15877,12 @@
       <c r="C259" t="s">
         <v>1260</v>
       </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
       <c r="F259" t="s">
         <v>1002</v>
       </c>
@@ -14085,6 +15912,12 @@
       <c r="C260" t="s">
         <v>1260</v>
       </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
       <c r="F260" t="s">
         <v>1002</v>
       </c>
@@ -14114,6 +15947,12 @@
       <c r="C261" t="s">
         <v>1260</v>
       </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
       <c r="F261" t="s">
         <v>1002</v>
       </c>
@@ -14143,6 +15982,12 @@
       <c r="C262" t="s">
         <v>1260</v>
       </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
       <c r="F262" t="s">
         <v>1002</v>
       </c>
@@ -14172,6 +16017,12 @@
       <c r="C263" t="s">
         <v>1260</v>
       </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
       <c r="F263" t="s">
         <v>1002</v>
       </c>
@@ -14201,6 +16052,12 @@
       <c r="C264" t="s">
         <v>1260</v>
       </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
       <c r="F264" t="s">
         <v>1002</v>
       </c>
@@ -14230,6 +16087,12 @@
       <c r="C265" t="s">
         <v>1260</v>
       </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
       <c r="F265" t="s">
         <v>1002</v>
       </c>
@@ -14259,6 +16122,12 @@
       <c r="C266" t="s">
         <v>1260</v>
       </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
       <c r="F266" t="s">
         <v>1002</v>
       </c>
@@ -14288,6 +16157,12 @@
       <c r="C267" t="s">
         <v>1260</v>
       </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
       <c r="F267" t="s">
         <v>1002</v>
       </c>
@@ -14317,6 +16192,12 @@
       <c r="C268" t="s">
         <v>1260</v>
       </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
       <c r="F268" t="s">
         <v>1002</v>
       </c>
@@ -14346,6 +16227,12 @@
       <c r="C269" t="s">
         <v>1260</v>
       </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
       <c r="F269" t="s">
         <v>1002</v>
       </c>
@@ -14375,6 +16262,12 @@
       <c r="C270" t="s">
         <v>1291</v>
       </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
       <c r="F270" t="s">
         <v>1002</v>
       </c>
@@ -14404,6 +16297,12 @@
       <c r="C271" t="s">
         <v>1291</v>
       </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
       <c r="F271" t="s">
         <v>1002</v>
       </c>
@@ -14433,6 +16332,12 @@
       <c r="C272" t="s">
         <v>1291</v>
       </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
       <c r="F272" t="s">
         <v>1002</v>
       </c>
@@ -14462,6 +16367,12 @@
       <c r="C273" t="s">
         <v>1291</v>
       </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
       <c r="F273" t="s">
         <v>1002</v>
       </c>
@@ -14491,6 +16402,12 @@
       <c r="C274" t="s">
         <v>1291</v>
       </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
       <c r="F274" t="s">
         <v>1002</v>
       </c>
@@ -14520,6 +16437,12 @@
       <c r="C275" t="s">
         <v>1291</v>
       </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
       <c r="F275" t="s">
         <v>1002</v>
       </c>
@@ -14549,6 +16472,12 @@
       <c r="C276" t="s">
         <v>1291</v>
       </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
       <c r="F276" t="s">
         <v>1002</v>
       </c>
@@ -14578,6 +16507,12 @@
       <c r="C277" t="s">
         <v>1291</v>
       </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
       <c r="F277" t="s">
         <v>1002</v>
       </c>
@@ -14607,6 +16542,12 @@
       <c r="C278" t="s">
         <v>1291</v>
       </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
       <c r="F278" t="s">
         <v>1002</v>
       </c>
@@ -14636,6 +16577,12 @@
       <c r="C279" t="s">
         <v>1291</v>
       </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
       <c r="F279" t="s">
         <v>1002</v>
       </c>
@@ -14665,6 +16612,12 @@
       <c r="C280" t="s">
         <v>1291</v>
       </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
       <c r="F280" t="s">
         <v>1002</v>
       </c>
@@ -14694,6 +16647,12 @@
       <c r="C281" t="s">
         <v>1291</v>
       </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
       <c r="F281" t="s">
         <v>1002</v>
       </c>
@@ -14723,6 +16682,12 @@
       <c r="C282" t="s">
         <v>1291</v>
       </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
       <c r="F282" t="s">
         <v>1002</v>
       </c>
@@ -14752,6 +16717,12 @@
       <c r="C283" t="s">
         <v>1291</v>
       </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
       <c r="F283" t="s">
         <v>1002</v>
       </c>
@@ -14781,6 +16752,12 @@
       <c r="C284" t="s">
         <v>1291</v>
       </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
       <c r="F284" t="s">
         <v>1002</v>
       </c>
@@ -14810,6 +16787,12 @@
       <c r="C285" t="s">
         <v>1322</v>
       </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
       <c r="F285" t="s">
         <v>1002</v>
       </c>
@@ -14839,6 +16822,12 @@
       <c r="C286" t="s">
         <v>1322</v>
       </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
       <c r="F286" t="s">
         <v>1002</v>
       </c>
@@ -14868,6 +16857,12 @@
       <c r="C287" t="s">
         <v>1322</v>
       </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
       <c r="F287" t="s">
         <v>1002</v>
       </c>
@@ -14897,6 +16892,12 @@
       <c r="C288" t="s">
         <v>1322</v>
       </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
       <c r="F288" t="s">
         <v>1002</v>
       </c>
@@ -14926,6 +16927,12 @@
       <c r="C289" t="s">
         <v>1322</v>
       </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
       <c r="F289" t="s">
         <v>1002</v>
       </c>
@@ -14955,6 +16962,12 @@
       <c r="C290" t="s">
         <v>1322</v>
       </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
       <c r="F290" t="s">
         <v>1002</v>
       </c>
@@ -14984,6 +16997,12 @@
       <c r="C291" t="s">
         <v>1322</v>
       </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
       <c r="F291" t="s">
         <v>1002</v>
       </c>
@@ -15013,6 +17032,12 @@
       <c r="C292" t="s">
         <v>1322</v>
       </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
       <c r="F292" t="s">
         <v>1002</v>
       </c>
@@ -15042,6 +17067,12 @@
       <c r="C293" t="s">
         <v>1322</v>
       </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
       <c r="F293" t="s">
         <v>1002</v>
       </c>
@@ -15071,6 +17102,12 @@
       <c r="C294" t="s">
         <v>1322</v>
       </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
       <c r="F294" t="s">
         <v>1002</v>
       </c>
@@ -15100,6 +17137,12 @@
       <c r="C295" t="s">
         <v>1322</v>
       </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
       <c r="F295" t="s">
         <v>1002</v>
       </c>
@@ -15129,6 +17172,12 @@
       <c r="C296" t="s">
         <v>1322</v>
       </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
       <c r="F296" t="s">
         <v>1002</v>
       </c>
@@ -15158,6 +17207,12 @@
       <c r="C297" t="s">
         <v>1322</v>
       </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
       <c r="F297" t="s">
         <v>1002</v>
       </c>
@@ -15187,6 +17242,12 @@
       <c r="C298" t="s">
         <v>1322</v>
       </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
       <c r="F298" t="s">
         <v>1002</v>
       </c>
@@ -15216,6 +17277,12 @@
       <c r="C299" t="s">
         <v>1322</v>
       </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
       <c r="F299" t="s">
         <v>1002</v>
       </c>
@@ -15245,6 +17312,12 @@
       <c r="C300" t="s">
         <v>1353</v>
       </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
       <c r="F300" t="s">
         <v>1002</v>
       </c>
@@ -15274,6 +17347,12 @@
       <c r="C301" t="s">
         <v>1353</v>
       </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
       <c r="F301" t="s">
         <v>1002</v>
       </c>
@@ -15303,6 +17382,12 @@
       <c r="C302" t="s">
         <v>1353</v>
       </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
       <c r="F302" t="s">
         <v>1002</v>
       </c>
@@ -15332,6 +17417,12 @@
       <c r="C303" t="s">
         <v>1353</v>
       </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
       <c r="F303" t="s">
         <v>1002</v>
       </c>
@@ -15361,6 +17452,12 @@
       <c r="C304" t="s">
         <v>1353</v>
       </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
       <c r="F304" t="s">
         <v>1002</v>
       </c>
@@ -15390,6 +17487,12 @@
       <c r="C305" t="s">
         <v>1353</v>
       </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
       <c r="F305" t="s">
         <v>1002</v>
       </c>
@@ -15419,6 +17522,12 @@
       <c r="C306" t="s">
         <v>1353</v>
       </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
       <c r="F306" t="s">
         <v>1002</v>
       </c>
@@ -15448,6 +17557,12 @@
       <c r="C307" t="s">
         <v>1353</v>
       </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
       <c r="F307" t="s">
         <v>1002</v>
       </c>
@@ -15477,6 +17592,12 @@
       <c r="C308" t="s">
         <v>1353</v>
       </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
       <c r="F308" t="s">
         <v>1002</v>
       </c>
@@ -15506,6 +17627,12 @@
       <c r="C309" t="s">
         <v>1353</v>
       </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
       <c r="F309" t="s">
         <v>1002</v>
       </c>
@@ -15535,6 +17662,12 @@
       <c r="C310" t="s">
         <v>1353</v>
       </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
       <c r="F310" t="s">
         <v>1002</v>
       </c>
@@ -15564,6 +17697,12 @@
       <c r="C311" t="s">
         <v>1353</v>
       </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
       <c r="F311" t="s">
         <v>1002</v>
       </c>
@@ -15593,6 +17732,12 @@
       <c r="C312" t="s">
         <v>1353</v>
       </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
       <c r="F312" t="s">
         <v>1002</v>
       </c>
@@ -15622,6 +17767,12 @@
       <c r="C313" t="s">
         <v>1353</v>
       </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
       <c r="F313" t="s">
         <v>1002</v>
       </c>
@@ -15651,6 +17802,12 @@
       <c r="C314" t="s">
         <v>1353</v>
       </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
       <c r="F314" t="s">
         <v>1002</v>
       </c>
@@ -15680,6 +17837,12 @@
       <c r="C315" t="s">
         <v>1384</v>
       </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
       <c r="F315" t="s">
         <v>1002</v>
       </c>
@@ -15709,6 +17872,12 @@
       <c r="C316" t="s">
         <v>1384</v>
       </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
       <c r="F316" t="s">
         <v>1002</v>
       </c>
@@ -15738,6 +17907,12 @@
       <c r="C317" t="s">
         <v>1384</v>
       </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
       <c r="F317" t="s">
         <v>1002</v>
       </c>
@@ -15767,6 +17942,12 @@
       <c r="C318" t="s">
         <v>1384</v>
       </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
       <c r="F318" t="s">
         <v>1002</v>
       </c>
@@ -15796,6 +17977,12 @@
       <c r="C319" t="s">
         <v>1384</v>
       </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
       <c r="F319" t="s">
         <v>1002</v>
       </c>
@@ -15825,6 +18012,12 @@
       <c r="C320" t="s">
         <v>1384</v>
       </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
       <c r="F320" t="s">
         <v>1002</v>
       </c>
@@ -15854,6 +18047,12 @@
       <c r="C321" t="s">
         <v>1384</v>
       </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
       <c r="F321" t="s">
         <v>1002</v>
       </c>
@@ -15883,6 +18082,12 @@
       <c r="C322" t="s">
         <v>1384</v>
       </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
       <c r="F322" t="s">
         <v>1002</v>
       </c>
@@ -15912,6 +18117,12 @@
       <c r="C323" t="s">
         <v>1384</v>
       </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
       <c r="F323" t="s">
         <v>1002</v>
       </c>
@@ -15941,6 +18152,12 @@
       <c r="C324" t="s">
         <v>1384</v>
       </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
       <c r="F324" t="s">
         <v>1002</v>
       </c>
@@ -15970,6 +18187,12 @@
       <c r="C325" t="s">
         <v>1384</v>
       </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
       <c r="F325" t="s">
         <v>1002</v>
       </c>
@@ -15999,6 +18222,12 @@
       <c r="C326" t="s">
         <v>1384</v>
       </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
       <c r="F326" t="s">
         <v>1002</v>
       </c>
@@ -16028,6 +18257,12 @@
       <c r="C327" t="s">
         <v>1384</v>
       </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
       <c r="F327" t="s">
         <v>1002</v>
       </c>
@@ -16057,6 +18292,12 @@
       <c r="C328" t="s">
         <v>1384</v>
       </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
       <c r="F328" t="s">
         <v>1002</v>
       </c>
@@ -16086,6 +18327,12 @@
       <c r="C329" t="s">
         <v>1384</v>
       </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
       <c r="F329" t="s">
         <v>1002</v>
       </c>
@@ -16115,6 +18362,12 @@
       <c r="C330" t="s">
         <v>1415</v>
       </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
       <c r="F330" t="s">
         <v>1002</v>
       </c>
@@ -16144,6 +18397,12 @@
       <c r="C331" t="s">
         <v>1415</v>
       </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
       <c r="F331" t="s">
         <v>1002</v>
       </c>
@@ -16173,6 +18432,12 @@
       <c r="C332" t="s">
         <v>1415</v>
       </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
       <c r="F332" t="s">
         <v>1002</v>
       </c>
@@ -16202,6 +18467,12 @@
       <c r="C333" t="s">
         <v>1415</v>
       </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
       <c r="F333" t="s">
         <v>1002</v>
       </c>
@@ -16231,6 +18502,12 @@
       <c r="C334" t="s">
         <v>1415</v>
       </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
       <c r="F334" t="s">
         <v>1002</v>
       </c>
@@ -16260,6 +18537,12 @@
       <c r="C335" t="s">
         <v>1415</v>
       </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
       <c r="F335" t="s">
         <v>1002</v>
       </c>
@@ -16289,6 +18572,12 @@
       <c r="C336" t="s">
         <v>1415</v>
       </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
       <c r="F336" t="s">
         <v>1002</v>
       </c>
@@ -16318,6 +18607,12 @@
       <c r="C337" t="s">
         <v>1415</v>
       </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
       <c r="F337" t="s">
         <v>1002</v>
       </c>
@@ -16347,6 +18642,12 @@
       <c r="C338" t="s">
         <v>1415</v>
       </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
       <c r="F338" t="s">
         <v>1002</v>
       </c>
@@ -16376,6 +18677,12 @@
       <c r="C339" t="s">
         <v>1415</v>
       </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
       <c r="F339" t="s">
         <v>1002</v>
       </c>
@@ -16405,6 +18712,12 @@
       <c r="C340" t="s">
         <v>1415</v>
       </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
       <c r="F340" t="s">
         <v>1002</v>
       </c>
@@ -16434,6 +18747,12 @@
       <c r="C341" t="s">
         <v>1415</v>
       </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
       <c r="F341" t="s">
         <v>1002</v>
       </c>
@@ -16463,6 +18782,12 @@
       <c r="C342" t="s">
         <v>1415</v>
       </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
       <c r="F342" t="s">
         <v>1002</v>
       </c>
@@ -16492,6 +18817,12 @@
       <c r="C343" t="s">
         <v>1415</v>
       </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
       <c r="F343" t="s">
         <v>1002</v>
       </c>
@@ -16521,6 +18852,12 @@
       <c r="C344" t="s">
         <v>1415</v>
       </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
       <c r="F344" t="s">
         <v>1002</v>
       </c>
@@ -16550,6 +18887,12 @@
       <c r="C345" t="s">
         <v>1446</v>
       </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
       <c r="F345" t="s">
         <v>1002</v>
       </c>
@@ -16579,6 +18922,12 @@
       <c r="C346" t="s">
         <v>1446</v>
       </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
       <c r="F346" t="s">
         <v>1002</v>
       </c>
@@ -16608,6 +18957,12 @@
       <c r="C347" t="s">
         <v>1446</v>
       </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
       <c r="F347" t="s">
         <v>1002</v>
       </c>
@@ -16637,6 +18992,12 @@
       <c r="C348" t="s">
         <v>1446</v>
       </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
       <c r="F348" t="s">
         <v>1002</v>
       </c>
@@ -16666,6 +19027,12 @@
       <c r="C349" t="s">
         <v>1446</v>
       </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
       <c r="F349" t="s">
         <v>1002</v>
       </c>
@@ -16695,6 +19062,12 @@
       <c r="C350" t="s">
         <v>1446</v>
       </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
       <c r="F350" t="s">
         <v>1002</v>
       </c>
@@ -16724,6 +19097,12 @@
       <c r="C351" t="s">
         <v>1446</v>
       </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
       <c r="F351" t="s">
         <v>1002</v>
       </c>
@@ -16753,6 +19132,12 @@
       <c r="C352" t="s">
         <v>1446</v>
       </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
       <c r="F352" t="s">
         <v>1002</v>
       </c>
@@ -16782,6 +19167,12 @@
       <c r="C353" t="s">
         <v>1446</v>
       </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
       <c r="F353" t="s">
         <v>1002</v>
       </c>
@@ -16811,6 +19202,12 @@
       <c r="C354" t="s">
         <v>1446</v>
       </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
       <c r="F354" t="s">
         <v>1002</v>
       </c>
@@ -16840,6 +19237,12 @@
       <c r="C355" t="s">
         <v>1446</v>
       </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
       <c r="F355" t="s">
         <v>1002</v>
       </c>
@@ -16869,6 +19272,12 @@
       <c r="C356" t="s">
         <v>1446</v>
       </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
       <c r="F356" t="s">
         <v>1002</v>
       </c>
@@ -16898,6 +19307,12 @@
       <c r="C357" t="s">
         <v>1446</v>
       </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
       <c r="F357" t="s">
         <v>1002</v>
       </c>
@@ -16927,6 +19342,12 @@
       <c r="C358" t="s">
         <v>1446</v>
       </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
       <c r="F358" t="s">
         <v>1002</v>
       </c>
@@ -16956,6 +19377,12 @@
       <c r="C359" t="s">
         <v>1446</v>
       </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
       <c r="F359" t="s">
         <v>1002</v>
       </c>
@@ -16985,6 +19412,12 @@
       <c r="C360" t="s">
         <v>1477</v>
       </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
       <c r="F360" t="s">
         <v>1002</v>
       </c>
@@ -17014,6 +19447,12 @@
       <c r="C361" t="s">
         <v>1477</v>
       </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
       <c r="F361" t="s">
         <v>1002</v>
       </c>
@@ -17043,6 +19482,12 @@
       <c r="C362" t="s">
         <v>1477</v>
       </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
       <c r="F362" t="s">
         <v>1002</v>
       </c>
@@ -17072,6 +19517,12 @@
       <c r="C363" t="s">
         <v>1477</v>
       </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
       <c r="F363" t="s">
         <v>1002</v>
       </c>
@@ -17101,6 +19552,12 @@
       <c r="C364" t="s">
         <v>1477</v>
       </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
       <c r="F364" t="s">
         <v>1002</v>
       </c>
@@ -17130,6 +19587,12 @@
       <c r="C365" t="s">
         <v>1477</v>
       </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
       <c r="F365" t="s">
         <v>1002</v>
       </c>
@@ -17159,6 +19622,12 @@
       <c r="C366" t="s">
         <v>1477</v>
       </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
       <c r="F366" t="s">
         <v>1002</v>
       </c>
@@ -17188,6 +19657,12 @@
       <c r="C367" t="s">
         <v>1477</v>
       </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
       <c r="F367" t="s">
         <v>1002</v>
       </c>
@@ -17217,6 +19692,12 @@
       <c r="C368" t="s">
         <v>1477</v>
       </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
       <c r="F368" t="s">
         <v>1002</v>
       </c>
@@ -17246,6 +19727,12 @@
       <c r="C369" t="s">
         <v>1477</v>
       </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
       <c r="F369" t="s">
         <v>1002</v>
       </c>
@@ -17275,6 +19762,12 @@
       <c r="C370" t="s">
         <v>1477</v>
       </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
       <c r="F370" t="s">
         <v>1002</v>
       </c>
@@ -17304,6 +19797,12 @@
       <c r="C371" t="s">
         <v>1477</v>
       </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
       <c r="F371" t="s">
         <v>1002</v>
       </c>
@@ -17333,6 +19832,12 @@
       <c r="C372" t="s">
         <v>1477</v>
       </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
       <c r="F372" t="s">
         <v>1002</v>
       </c>
@@ -17362,6 +19867,12 @@
       <c r="C373" t="s">
         <v>1477</v>
       </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
       <c r="F373" t="s">
         <v>1002</v>
       </c>
@@ -17391,6 +19902,12 @@
       <c r="C374" t="s">
         <v>1477</v>
       </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
       <c r="F374" t="s">
         <v>1002</v>
       </c>
@@ -17420,6 +19937,12 @@
       <c r="C375" t="s">
         <v>1506</v>
       </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
       <c r="F375" t="s">
         <v>1002</v>
       </c>
@@ -17449,6 +19972,12 @@
       <c r="C376" t="s">
         <v>1506</v>
       </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
       <c r="F376" t="s">
         <v>1002</v>
       </c>
@@ -17478,6 +20007,9 @@
       <c r="C377" t="s">
         <v>1506</v>
       </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
       <c r="E377">
         <v>1</v>
       </c>
@@ -17510,6 +20042,12 @@
       <c r="C378" t="s">
         <v>1506</v>
       </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
       <c r="F378" t="s">
         <v>1002</v>
       </c>
@@ -17539,6 +20077,12 @@
       <c r="C379" t="s">
         <v>1506</v>
       </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
       <c r="F379" t="s">
         <v>1002</v>
       </c>
@@ -17568,6 +20112,12 @@
       <c r="C380" t="s">
         <v>1506</v>
       </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
       <c r="F380" t="s">
         <v>1002</v>
       </c>
@@ -17597,6 +20147,12 @@
       <c r="C381" t="s">
         <v>1506</v>
       </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
       <c r="F381" t="s">
         <v>1002</v>
       </c>
@@ -17626,6 +20182,12 @@
       <c r="C382" t="s">
         <v>1506</v>
       </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
       <c r="F382" t="s">
         <v>1002</v>
       </c>
@@ -17655,6 +20217,12 @@
       <c r="C383" t="s">
         <v>1506</v>
       </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
       <c r="F383" t="s">
         <v>1002</v>
       </c>
@@ -17684,6 +20252,12 @@
       <c r="C384" t="s">
         <v>1506</v>
       </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
       <c r="F384" t="s">
         <v>1002</v>
       </c>
@@ -17713,6 +20287,12 @@
       <c r="C385" t="s">
         <v>1506</v>
       </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
       <c r="F385" t="s">
         <v>1002</v>
       </c>
@@ -17742,6 +20322,12 @@
       <c r="C386" t="s">
         <v>1506</v>
       </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
       <c r="F386" t="s">
         <v>1002</v>
       </c>
@@ -17771,6 +20357,12 @@
       <c r="C387" t="s">
         <v>1506</v>
       </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
       <c r="F387" t="s">
         <v>1002</v>
       </c>
@@ -17800,6 +20392,12 @@
       <c r="C388" t="s">
         <v>1506</v>
       </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
       <c r="F388" t="s">
         <v>1002</v>
       </c>
@@ -17829,6 +20427,12 @@
       <c r="C389" t="s">
         <v>1506</v>
       </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
       <c r="F389" t="s">
         <v>1002</v>
       </c>
@@ -17858,6 +20462,12 @@
       <c r="C390" t="s">
         <v>1534</v>
       </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
       <c r="F390" t="s">
         <v>1002</v>
       </c>
@@ -17887,6 +20497,12 @@
       <c r="C391" t="s">
         <v>1534</v>
       </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
       <c r="F391" t="s">
         <v>1002</v>
       </c>
@@ -17916,6 +20532,12 @@
       <c r="C392" t="s">
         <v>1534</v>
       </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
       <c r="F392" t="s">
         <v>1002</v>
       </c>
@@ -17945,6 +20567,12 @@
       <c r="C393" t="s">
         <v>1534</v>
       </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
       <c r="F393" t="s">
         <v>1002</v>
       </c>
@@ -17974,6 +20602,12 @@
       <c r="C394" t="s">
         <v>1534</v>
       </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
       <c r="F394" t="s">
         <v>1002</v>
       </c>
@@ -18003,6 +20637,12 @@
       <c r="C395" t="s">
         <v>1534</v>
       </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
       <c r="F395" t="s">
         <v>1002</v>
       </c>
@@ -18032,6 +20672,12 @@
       <c r="C396" t="s">
         <v>1534</v>
       </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
       <c r="F396" t="s">
         <v>1002</v>
       </c>
@@ -18061,6 +20707,12 @@
       <c r="C397" t="s">
         <v>1534</v>
       </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
       <c r="F397" t="s">
         <v>1002</v>
       </c>
@@ -18090,6 +20742,12 @@
       <c r="C398" t="s">
         <v>1534</v>
       </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
       <c r="F398" t="s">
         <v>1002</v>
       </c>
@@ -18119,6 +20777,12 @@
       <c r="C399" t="s">
         <v>1534</v>
       </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
       <c r="F399" t="s">
         <v>1002</v>
       </c>
@@ -18148,6 +20812,12 @@
       <c r="C400" t="s">
         <v>1534</v>
       </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
       <c r="F400" t="s">
         <v>1002</v>
       </c>
@@ -18177,6 +20847,12 @@
       <c r="C401" t="s">
         <v>1534</v>
       </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
       <c r="F401" t="s">
         <v>1002</v>
       </c>
@@ -18206,6 +20882,12 @@
       <c r="C402" t="s">
         <v>1534</v>
       </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
       <c r="F402" t="s">
         <v>1002</v>
       </c>
@@ -18235,6 +20917,12 @@
       <c r="C403" t="s">
         <v>1534</v>
       </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
       <c r="F403" t="s">
         <v>1002</v>
       </c>
@@ -18264,6 +20952,12 @@
       <c r="C404" t="s">
         <v>1534</v>
       </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
       <c r="F404" t="s">
         <v>1002</v>
       </c>
@@ -18293,6 +20987,12 @@
       <c r="C405" t="s">
         <v>1565</v>
       </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
       <c r="F405" t="s">
         <v>1002</v>
       </c>
@@ -18322,6 +21022,12 @@
       <c r="C406" t="s">
         <v>1565</v>
       </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
       <c r="F406" t="s">
         <v>1002</v>
       </c>
@@ -18351,6 +21057,12 @@
       <c r="C407" t="s">
         <v>1565</v>
       </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
       <c r="F407" t="s">
         <v>1002</v>
       </c>
@@ -18380,6 +21092,12 @@
       <c r="C408" t="s">
         <v>1565</v>
       </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
       <c r="F408" t="s">
         <v>1002</v>
       </c>
@@ -18409,6 +21127,12 @@
       <c r="C409" t="s">
         <v>1565</v>
       </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
       <c r="F409" t="s">
         <v>1002</v>
       </c>
@@ -18438,6 +21162,12 @@
       <c r="C410" t="s">
         <v>1565</v>
       </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
       <c r="F410" t="s">
         <v>1002</v>
       </c>
@@ -18467,6 +21197,12 @@
       <c r="C411" t="s">
         <v>1565</v>
       </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
       <c r="F411" t="s">
         <v>1002</v>
       </c>
@@ -18496,6 +21232,12 @@
       <c r="C412" t="s">
         <v>1565</v>
       </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
       <c r="F412" t="s">
         <v>1002</v>
       </c>
@@ -18525,6 +21267,12 @@
       <c r="C413" t="s">
         <v>1565</v>
       </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
       <c r="F413" t="s">
         <v>1002</v>
       </c>
@@ -18554,6 +21302,12 @@
       <c r="C414" t="s">
         <v>1565</v>
       </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
       <c r="F414" t="s">
         <v>1002</v>
       </c>
@@ -18583,6 +21337,12 @@
       <c r="C415" t="s">
         <v>1565</v>
       </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
       <c r="F415" t="s">
         <v>1002</v>
       </c>
@@ -18612,6 +21372,12 @@
       <c r="C416" t="s">
         <v>1565</v>
       </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
       <c r="F416" t="s">
         <v>1002</v>
       </c>
@@ -18641,6 +21407,12 @@
       <c r="C417" t="s">
         <v>1565</v>
       </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
       <c r="F417" t="s">
         <v>1002</v>
       </c>
@@ -18670,6 +21442,12 @@
       <c r="C418" t="s">
         <v>1565</v>
       </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
       <c r="F418" t="s">
         <v>1002</v>
       </c>
@@ -18699,6 +21477,12 @@
       <c r="C419" t="s">
         <v>1565</v>
       </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
       <c r="F419" t="s">
         <v>1002</v>
       </c>
@@ -18728,6 +21512,12 @@
       <c r="C420" t="s">
         <v>1596</v>
       </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
       <c r="F420" t="s">
         <v>1002</v>
       </c>
@@ -18757,6 +21547,12 @@
       <c r="C421" t="s">
         <v>1596</v>
       </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
       <c r="F421" t="s">
         <v>1002</v>
       </c>
@@ -18786,6 +21582,12 @@
       <c r="C422" t="s">
         <v>1596</v>
       </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
       <c r="F422" t="s">
         <v>1002</v>
       </c>
@@ -18815,6 +21617,12 @@
       <c r="C423" t="s">
         <v>1596</v>
       </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
       <c r="F423" t="s">
         <v>1002</v>
       </c>
@@ -18844,6 +21652,12 @@
       <c r="C424" t="s">
         <v>1596</v>
       </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
       <c r="F424" t="s">
         <v>1002</v>
       </c>
@@ -18873,6 +21687,12 @@
       <c r="C425" t="s">
         <v>1596</v>
       </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
       <c r="F425" t="s">
         <v>1002</v>
       </c>
@@ -18902,6 +21722,12 @@
       <c r="C426" t="s">
         <v>1596</v>
       </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
       <c r="F426" t="s">
         <v>1002</v>
       </c>
@@ -18931,6 +21757,12 @@
       <c r="C427" t="s">
         <v>1596</v>
       </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
       <c r="F427" t="s">
         <v>1002</v>
       </c>
@@ -18960,6 +21792,12 @@
       <c r="C428" t="s">
         <v>1596</v>
       </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
       <c r="F428" t="s">
         <v>1002</v>
       </c>
@@ -18989,6 +21827,12 @@
       <c r="C429" t="s">
         <v>1596</v>
       </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
       <c r="F429" t="s">
         <v>1002</v>
       </c>
@@ -19018,6 +21862,12 @@
       <c r="C430" t="s">
         <v>1596</v>
       </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
       <c r="F430" t="s">
         <v>1002</v>
       </c>
@@ -19047,6 +21897,12 @@
       <c r="C431" t="s">
         <v>1596</v>
       </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
       <c r="F431" t="s">
         <v>1002</v>
       </c>
@@ -19076,6 +21932,12 @@
       <c r="C432" t="s">
         <v>1596</v>
       </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
       <c r="F432" t="s">
         <v>1002</v>
       </c>
@@ -19105,6 +21967,12 @@
       <c r="C433" t="s">
         <v>1596</v>
       </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>1</v>
+      </c>
       <c r="F433" t="s">
         <v>1002</v>
       </c>
@@ -19134,6 +22002,12 @@
       <c r="C434" t="s">
         <v>1596</v>
       </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
       <c r="F434" t="s">
         <v>1002</v>
       </c>
@@ -19163,6 +22037,12 @@
       <c r="C435" t="s">
         <v>1619</v>
       </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
       <c r="F435" t="s">
         <v>1002</v>
       </c>
@@ -19192,6 +22072,12 @@
       <c r="C436" t="s">
         <v>1619</v>
       </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
       <c r="F436" t="s">
         <v>1002</v>
       </c>
@@ -19221,6 +22107,12 @@
       <c r="C437" t="s">
         <v>1619</v>
       </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
       <c r="F437" t="s">
         <v>1002</v>
       </c>
@@ -19250,6 +22142,12 @@
       <c r="C438" t="s">
         <v>1619</v>
       </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
       <c r="F438" t="s">
         <v>1002</v>
       </c>
@@ -19279,6 +22177,12 @@
       <c r="C439" t="s">
         <v>1619</v>
       </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
       <c r="F439" t="s">
         <v>1002</v>
       </c>
@@ -19308,6 +22212,12 @@
       <c r="C440" t="s">
         <v>1619</v>
       </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
       <c r="F440" t="s">
         <v>1002</v>
       </c>
@@ -19337,6 +22247,12 @@
       <c r="C441" t="s">
         <v>1619</v>
       </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>1</v>
+      </c>
       <c r="F441" t="s">
         <v>1002</v>
       </c>
@@ -19366,6 +22282,12 @@
       <c r="C442" t="s">
         <v>1619</v>
       </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
       <c r="F442" t="s">
         <v>1002</v>
       </c>
@@ -19395,6 +22317,12 @@
       <c r="C443" t="s">
         <v>1619</v>
       </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>1</v>
+      </c>
       <c r="F443" t="s">
         <v>1002</v>
       </c>
@@ -19424,6 +22352,12 @@
       <c r="C444" t="s">
         <v>1619</v>
       </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
       <c r="F444" t="s">
         <v>1002</v>
       </c>
@@ -19453,6 +22387,12 @@
       <c r="C445" t="s">
         <v>1619</v>
       </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
       <c r="F445" t="s">
         <v>1002</v>
       </c>
@@ -19482,6 +22422,12 @@
       <c r="C446" t="s">
         <v>1619</v>
       </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
       <c r="F446" t="s">
         <v>1002</v>
       </c>
@@ -19511,6 +22457,12 @@
       <c r="C447" t="s">
         <v>1619</v>
       </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
       <c r="F447" t="s">
         <v>1002</v>
       </c>
@@ -19540,6 +22492,12 @@
       <c r="C448" t="s">
         <v>1619</v>
       </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
       <c r="F448" t="s">
         <v>1002</v>
       </c>
@@ -19569,6 +22527,12 @@
       <c r="C449" t="s">
         <v>1619</v>
       </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
       <c r="F449" t="s">
         <v>1002</v>
       </c>
@@ -19598,6 +22562,12 @@
       <c r="C450" t="s">
         <v>1650</v>
       </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
       <c r="F450" t="s">
         <v>1002</v>
       </c>
@@ -19627,6 +22597,12 @@
       <c r="C451" t="s">
         <v>1650</v>
       </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
       <c r="F451" t="s">
         <v>1002</v>
       </c>
@@ -19656,6 +22632,12 @@
       <c r="C452" t="s">
         <v>1650</v>
       </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
       <c r="F452" t="s">
         <v>1002</v>
       </c>
@@ -19685,6 +22667,12 @@
       <c r="C453" t="s">
         <v>1650</v>
       </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>1</v>
+      </c>
       <c r="F453" t="s">
         <v>1002</v>
       </c>
@@ -19714,6 +22702,12 @@
       <c r="C454" t="s">
         <v>1650</v>
       </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
       <c r="F454" t="s">
         <v>1002</v>
       </c>
@@ -19743,6 +22737,12 @@
       <c r="C455" t="s">
         <v>1650</v>
       </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>1</v>
+      </c>
       <c r="F455" t="s">
         <v>1002</v>
       </c>
@@ -19772,6 +22772,12 @@
       <c r="C456" t="s">
         <v>1650</v>
       </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
       <c r="F456" t="s">
         <v>1002</v>
       </c>
@@ -19801,6 +22807,12 @@
       <c r="C457" t="s">
         <v>1650</v>
       </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
       <c r="F457" t="s">
         <v>1002</v>
       </c>
@@ -19830,6 +22842,12 @@
       <c r="C458" t="s">
         <v>1650</v>
       </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
       <c r="F458" t="s">
         <v>1002</v>
       </c>
@@ -19859,6 +22877,12 @@
       <c r="C459" t="s">
         <v>1650</v>
       </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
       <c r="F459" t="s">
         <v>1002</v>
       </c>
@@ -19888,6 +22912,12 @@
       <c r="C460" t="s">
         <v>1650</v>
       </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
       <c r="F460" t="s">
         <v>1002</v>
       </c>
@@ -19917,6 +22947,12 @@
       <c r="C461" t="s">
         <v>1650</v>
       </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
       <c r="F461" t="s">
         <v>1002</v>
       </c>
@@ -19946,6 +22982,12 @@
       <c r="C462" t="s">
         <v>1650</v>
       </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
       <c r="F462" t="s">
         <v>1002</v>
       </c>
@@ -19975,6 +23017,12 @@
       <c r="C463" t="s">
         <v>1650</v>
       </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
       <c r="F463" t="s">
         <v>1002</v>
       </c>
@@ -20004,6 +23052,12 @@
       <c r="C464" t="s">
         <v>1650</v>
       </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
       <c r="F464" t="s">
         <v>1002</v>
       </c>
@@ -20033,6 +23087,12 @@
       <c r="C465" t="s">
         <v>1676</v>
       </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
       <c r="F465" t="s">
         <v>1002</v>
       </c>
@@ -20062,6 +23122,12 @@
       <c r="C466" t="s">
         <v>1676</v>
       </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
       <c r="F466" t="s">
         <v>1002</v>
       </c>
@@ -20091,6 +23157,12 @@
       <c r="C467" t="s">
         <v>1676</v>
       </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>1</v>
+      </c>
       <c r="F467" t="s">
         <v>1002</v>
       </c>
@@ -20120,6 +23192,12 @@
       <c r="C468" t="s">
         <v>1676</v>
       </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
       <c r="F468" t="s">
         <v>1002</v>
       </c>
@@ -20149,6 +23227,12 @@
       <c r="C469" t="s">
         <v>1676</v>
       </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
       <c r="F469" t="s">
         <v>1002</v>
       </c>
@@ -20178,6 +23262,12 @@
       <c r="C470" t="s">
         <v>1676</v>
       </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
       <c r="F470" t="s">
         <v>1002</v>
       </c>
@@ -20207,6 +23297,12 @@
       <c r="C471" t="s">
         <v>1676</v>
       </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>1</v>
+      </c>
       <c r="F471" t="s">
         <v>1002</v>
       </c>
@@ -20236,6 +23332,12 @@
       <c r="C472" t="s">
         <v>1676</v>
       </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
       <c r="F472" t="s">
         <v>1002</v>
       </c>
@@ -20265,6 +23367,12 @@
       <c r="C473" t="s">
         <v>1676</v>
       </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
       <c r="F473" t="s">
         <v>1002</v>
       </c>
@@ -20294,6 +23402,12 @@
       <c r="C474" t="s">
         <v>1676</v>
       </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
       <c r="F474" t="s">
         <v>1002</v>
       </c>
@@ -20323,6 +23437,12 @@
       <c r="C475" t="s">
         <v>1676</v>
       </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
       <c r="F475" t="s">
         <v>1002</v>
       </c>
@@ -20352,6 +23472,12 @@
       <c r="C476" t="s">
         <v>1676</v>
       </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
       <c r="F476" t="s">
         <v>1002</v>
       </c>
@@ -20381,6 +23507,12 @@
       <c r="C477" t="s">
         <v>1676</v>
       </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
       <c r="F477" t="s">
         <v>1002</v>
       </c>
@@ -20410,6 +23542,12 @@
       <c r="C478" t="s">
         <v>1676</v>
       </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
       <c r="F478" t="s">
         <v>1002</v>
       </c>
@@ -20439,6 +23577,12 @@
       <c r="C479" t="s">
         <v>1676</v>
       </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
       <c r="F479" t="s">
         <v>1002</v>
       </c>
@@ -20468,6 +23612,12 @@
       <c r="C480" t="s">
         <v>1676</v>
       </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
       <c r="F480" t="s">
         <v>1002</v>
       </c>
@@ -20497,6 +23647,12 @@
       <c r="C481" t="s">
         <v>1707</v>
       </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
       <c r="F481" t="s">
         <v>1002</v>
       </c>
@@ -20526,6 +23682,12 @@
       <c r="C482" t="s">
         <v>1707</v>
       </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
       <c r="F482" t="s">
         <v>1002</v>
       </c>
@@ -20555,6 +23717,12 @@
       <c r="C483" t="s">
         <v>1707</v>
       </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
       <c r="F483" t="s">
         <v>1002</v>
       </c>
@@ -20584,6 +23752,12 @@
       <c r="C484" t="s">
         <v>1707</v>
       </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
       <c r="F484" t="s">
         <v>1002</v>
       </c>
@@ -20613,6 +23787,12 @@
       <c r="C485" t="s">
         <v>1707</v>
       </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
       <c r="F485" t="s">
         <v>1002</v>
       </c>
@@ -20642,6 +23822,12 @@
       <c r="C486" t="s">
         <v>1707</v>
       </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
       <c r="F486" t="s">
         <v>1002</v>
       </c>
@@ -20671,6 +23857,12 @@
       <c r="C487" t="s">
         <v>1707</v>
       </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
       <c r="F487" t="s">
         <v>1002</v>
       </c>
@@ -20700,6 +23892,12 @@
       <c r="C488" t="s">
         <v>1707</v>
       </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
       <c r="F488" t="s">
         <v>1002</v>
       </c>
@@ -20729,6 +23927,12 @@
       <c r="C489" t="s">
         <v>1707</v>
       </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
       <c r="F489" t="s">
         <v>1002</v>
       </c>
@@ -20758,6 +23962,12 @@
       <c r="C490" t="s">
         <v>1707</v>
       </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
       <c r="F490" t="s">
         <v>1002</v>
       </c>
@@ -20787,6 +23997,12 @@
       <c r="C491" t="s">
         <v>1707</v>
       </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
       <c r="F491" t="s">
         <v>1002</v>
       </c>
@@ -20816,6 +24032,12 @@
       <c r="C492" t="s">
         <v>1707</v>
       </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
       <c r="F492" t="s">
         <v>1002</v>
       </c>
@@ -20845,6 +24067,12 @@
       <c r="C493" t="s">
         <v>1707</v>
       </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
       <c r="F493" t="s">
         <v>1002</v>
       </c>
@@ -20874,6 +24102,12 @@
       <c r="C494" t="s">
         <v>1707</v>
       </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
       <c r="F494" t="s">
         <v>1002</v>
       </c>
@@ -20903,6 +24137,12 @@
       <c r="C495" t="s">
         <v>1707</v>
       </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
       <c r="F495" t="s">
         <v>1002</v>
       </c>
@@ -20932,6 +24172,12 @@
       <c r="C496" t="s">
         <v>1732</v>
       </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
       <c r="F496" t="s">
         <v>1002</v>
       </c>
@@ -20961,6 +24207,12 @@
       <c r="C497" t="s">
         <v>1732</v>
       </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
       <c r="F497" t="s">
         <v>1002</v>
       </c>
@@ -20990,6 +24242,12 @@
       <c r="C498" t="s">
         <v>1732</v>
       </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
       <c r="F498" t="s">
         <v>1002</v>
       </c>
@@ -21019,6 +24277,12 @@
       <c r="C499" t="s">
         <v>1732</v>
       </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
       <c r="F499" t="s">
         <v>1002</v>
       </c>
@@ -21048,6 +24312,12 @@
       <c r="C500" t="s">
         <v>1732</v>
       </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
       <c r="F500" t="s">
         <v>1002</v>
       </c>
@@ -21077,6 +24347,12 @@
       <c r="C501" t="s">
         <v>1732</v>
       </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
       <c r="F501" t="s">
         <v>1002</v>
       </c>
@@ -21106,6 +24382,12 @@
       <c r="C502" t="s">
         <v>1732</v>
       </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
       <c r="F502" t="s">
         <v>1002</v>
       </c>
@@ -21135,6 +24417,12 @@
       <c r="C503" t="s">
         <v>1732</v>
       </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
       <c r="F503" t="s">
         <v>1002</v>
       </c>
@@ -21164,6 +24452,12 @@
       <c r="C504" t="s">
         <v>1732</v>
       </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
       <c r="F504" t="s">
         <v>1002</v>
       </c>
@@ -21193,6 +24487,12 @@
       <c r="C505" t="s">
         <v>1732</v>
       </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
       <c r="F505" t="s">
         <v>1002</v>
       </c>
@@ -21222,6 +24522,12 @@
       <c r="C506" t="s">
         <v>1732</v>
       </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
       <c r="F506" t="s">
         <v>1002</v>
       </c>
@@ -21251,6 +24557,12 @@
       <c r="C507" t="s">
         <v>1732</v>
       </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
       <c r="F507" t="s">
         <v>1002</v>
       </c>
@@ -21280,6 +24592,12 @@
       <c r="C508" t="s">
         <v>1732</v>
       </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
       <c r="F508" t="s">
         <v>1002</v>
       </c>
@@ -21309,6 +24627,12 @@
       <c r="C509" t="s">
         <v>1732</v>
       </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
       <c r="F509" t="s">
         <v>1002</v>
       </c>
@@ -21338,6 +24662,12 @@
       <c r="C510" t="s">
         <v>1732</v>
       </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
       <c r="F510" t="s">
         <v>1002</v>
       </c>
@@ -21367,8 +24697,14 @@
       <c r="C511" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
       <c r="F511" s="2" t="s">
-        <v>1778</v>
+        <v>1939</v>
       </c>
       <c r="G511" t="s">
         <v>1002</v>
@@ -21377,7 +24713,7 @@
         <v>1002</v>
       </c>
       <c r="I511" s="2" t="s">
-        <v>1788</v>
+        <v>2039</v>
       </c>
       <c r="J511" t="s">
         <v>1002</v>
@@ -21396,8 +24732,14 @@
       <c r="C512" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
       <c r="F512" s="2" t="s">
-        <v>1781</v>
+        <v>1940</v>
       </c>
       <c r="G512" t="s">
         <v>1002</v>
@@ -21406,7 +24748,7 @@
         <v>1002</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>1789</v>
+        <v>2040</v>
       </c>
       <c r="J512" t="s">
         <v>1002</v>
@@ -21425,8 +24767,14 @@
       <c r="C513" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
       <c r="F513" s="2" t="s">
-        <v>1782</v>
+        <v>1941</v>
       </c>
       <c r="G513" t="s">
         <v>1002</v>
@@ -21435,7 +24783,7 @@
         <v>1002</v>
       </c>
       <c r="I513" s="2" t="s">
-        <v>1790</v>
+        <v>2041</v>
       </c>
       <c r="J513" t="s">
         <v>1002</v>
@@ -21454,8 +24802,14 @@
       <c r="C514" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
       <c r="F514" s="2" t="s">
-        <v>1783</v>
+        <v>1942</v>
       </c>
       <c r="G514" t="s">
         <v>1002</v>
@@ -21464,7 +24818,7 @@
         <v>1002</v>
       </c>
       <c r="I514" s="2" t="s">
-        <v>1791</v>
+        <v>2042</v>
       </c>
       <c r="J514" t="s">
         <v>1002</v>
@@ -21483,8 +24837,14 @@
       <c r="C515" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
       <c r="F515" s="2" t="s">
-        <v>1779</v>
+        <v>1943</v>
       </c>
       <c r="G515" t="s">
         <v>1002</v>
@@ -21493,7 +24853,7 @@
         <v>1002</v>
       </c>
       <c r="I515" s="2" t="s">
-        <v>1792</v>
+        <v>2043</v>
       </c>
       <c r="J515" t="s">
         <v>1002</v>
@@ -21512,8 +24872,14 @@
       <c r="C516" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
       <c r="F516" s="2" t="s">
-        <v>1784</v>
+        <v>1944</v>
       </c>
       <c r="G516" t="s">
         <v>1002</v>
@@ -21522,7 +24888,7 @@
         <v>1002</v>
       </c>
       <c r="I516" s="2" t="s">
-        <v>1793</v>
+        <v>2044</v>
       </c>
       <c r="J516" t="s">
         <v>1002</v>
@@ -21541,8 +24907,14 @@
       <c r="C517" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
       <c r="F517" s="2" t="s">
-        <v>1780</v>
+        <v>1945</v>
       </c>
       <c r="G517" t="s">
         <v>1002</v>
@@ -21551,7 +24923,7 @@
         <v>1002</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>1794</v>
+        <v>2045</v>
       </c>
       <c r="J517" t="s">
         <v>1002</v>
@@ -21570,8 +24942,14 @@
       <c r="C518" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
       <c r="F518" s="2" t="s">
-        <v>1785</v>
+        <v>1946</v>
       </c>
       <c r="G518" t="s">
         <v>1002</v>
@@ -21580,7 +24958,7 @@
         <v>1002</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>1795</v>
+        <v>2046</v>
       </c>
       <c r="J518" t="s">
         <v>1002</v>
@@ -21599,8 +24977,14 @@
       <c r="C519" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
       <c r="F519" s="2" t="s">
-        <v>1786</v>
+        <v>1947</v>
       </c>
       <c r="G519" t="s">
         <v>1002</v>
@@ -21609,7 +24993,7 @@
         <v>1002</v>
       </c>
       <c r="I519" s="2" t="s">
-        <v>1796</v>
+        <v>2047</v>
       </c>
       <c r="J519" t="s">
         <v>1002</v>
@@ -21628,29 +25012,3179 @@
       <c r="C520" s="2" t="s">
         <v>1762</v>
       </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
       <c r="F520" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I520" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J520" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K520" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H521" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I521" t="s">
+        <v>2049</v>
+      </c>
+      <c r="J521" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K521" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G522" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H522" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I522" t="s">
+        <v>2050</v>
+      </c>
+      <c r="J522" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K522" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H523" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I523" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J523" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K523" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I524" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J524" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K524" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B525" t="s">
         <v>1787</v>
       </c>
-      <c r="G520" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H520" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I520" s="2" t="s">
+      <c r="C525" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I525" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J525" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K525" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I526" t="s">
+        <v>2054</v>
+      </c>
+      <c r="J526" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K526" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>1</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I527" t="s">
+        <v>2055</v>
+      </c>
+      <c r="J527" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K527" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H528" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I528" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K528" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G529" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H529" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I529" t="s">
+        <v>2057</v>
+      </c>
+      <c r="J529" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K529" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B530" t="s">
         <v>1797</v>
       </c>
-      <c r="J520" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K520" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="532" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I532" t="str">
-        <f t="shared" ref="I523:I533" si="0">LOWER(I521)</f>
-        <v/>
+      <c r="C530" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G530" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H530" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I530" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J530" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K530" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H531" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I531" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J531" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K531" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G532" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H532" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I532" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J532" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K532" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H533" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I533" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J533" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K533" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H534" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I534" t="s">
+        <v>2062</v>
+      </c>
+      <c r="J534" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K534" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H535" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I535" t="s">
+        <v>2063</v>
+      </c>
+      <c r="J535" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K535" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I536" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J536" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K536" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+      <c r="E537">
+        <v>1</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H537" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I537" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J537" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K537" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D538">
+        <v>1</v>
+      </c>
+      <c r="E538">
+        <v>1</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I538" t="s">
+        <v>2066</v>
+      </c>
+      <c r="J538" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K538" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>1</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H539" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I539" t="s">
+        <v>2067</v>
+      </c>
+      <c r="J539" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K539" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>1</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H540" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I540" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J540" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K540" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>1</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1969</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H541" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I541" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J541" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K541" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G542" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H542" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I542" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J542" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K542" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H543" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I543" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J543" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K543" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I544" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J544" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K544" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I545" t="s">
+        <v>2073</v>
+      </c>
+      <c r="J545" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K545" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G546" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I546" t="s">
+        <v>2074</v>
+      </c>
+      <c r="J546" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K546" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I547" t="s">
+        <v>2075</v>
+      </c>
+      <c r="J547" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K547" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>1</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H548" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I548" t="s">
+        <v>2076</v>
+      </c>
+      <c r="J548" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K548" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>1</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H549" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I549" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J549" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K549" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H550" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I550" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J550" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K550" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I551" t="s">
+        <v>2079</v>
+      </c>
+      <c r="J551" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K551" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H552" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I552" t="s">
+        <v>2080</v>
+      </c>
+      <c r="J552" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K552" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G553" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I553" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J553" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K553" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G554" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H554" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I554" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J554" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K554" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G555" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H555" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I555" t="s">
+        <v>2083</v>
+      </c>
+      <c r="J555" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I556" t="s">
+        <v>2084</v>
+      </c>
+      <c r="J556" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K556" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>1</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I557" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J557" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K557" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H558" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I558" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J558" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K558" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G559" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H559" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I559" t="s">
+        <v>2087</v>
+      </c>
+      <c r="J559" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K559" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I560" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J560" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K560" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>1</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G561" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H561" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I561" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J561" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K561" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G562" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H562" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I562" t="s">
+        <v>2090</v>
+      </c>
+      <c r="J562" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K562" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>1</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I563" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J563" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K563" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I564" t="s">
+        <v>2092</v>
+      </c>
+      <c r="J564" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K564" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I565" t="s">
+        <v>2093</v>
+      </c>
+      <c r="J565" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K565" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G566" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H566" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I566" t="s">
+        <v>2094</v>
+      </c>
+      <c r="J566" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K566" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H567" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I567" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J567" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K567" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G568" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H568" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I568" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J568" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K568" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G569" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I569" t="s">
+        <v>2097</v>
+      </c>
+      <c r="J569" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K569" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H570" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I570" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K570" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G571" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I571" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K571" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I572" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J572" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K572" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>1</v>
+      </c>
+      <c r="F573" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H573" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I573" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J573" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K573" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G574" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H574" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I574" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G575" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H575" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I575" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J575" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K575" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G576" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H576" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I576" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J576" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K576" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>1</v>
+      </c>
+      <c r="F577" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I577" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J577" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K577" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578">
+        <v>1</v>
+      </c>
+      <c r="F578" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G578" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H578" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I578" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+      <c r="E579">
+        <v>1</v>
+      </c>
+      <c r="F579" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H579" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I579" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J579" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K579" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
+      <c r="F580" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G580" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H580" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I580" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J580" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K580" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G581" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I581" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J581" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K581" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G582" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I582" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J582" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K582" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G583" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H583" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I583" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J583" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K583" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H584" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I584" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J584" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K584" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G585" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H585" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I585" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J585" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K585" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G586" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H586" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I586" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J586" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K586" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G587" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H587" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I587" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J587" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K587" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>1</v>
+      </c>
+      <c r="F588" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G588" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H588" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I588" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J588" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K588" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>1</v>
+      </c>
+      <c r="F589" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G589" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I589" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J589" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K589" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G590" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H590" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I590" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J590" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K590" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>1</v>
+      </c>
+      <c r="F591" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G591" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H591" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I591" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J591" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K591" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+      <c r="F592" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G592" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I592" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J592" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K592" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>1</v>
+      </c>
+      <c r="F593" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G593" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H593" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I593" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J593" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K593" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594">
+        <v>1</v>
+      </c>
+      <c r="F594" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G594" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I594" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J594" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K594" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>1</v>
+      </c>
+      <c r="F595" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G595" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I595" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J595" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K595" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G596" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H596" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I596" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J596" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K596" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G597" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H597" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I597" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K597" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G598" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H598" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I598" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J598" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K598" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>1</v>
+      </c>
+      <c r="F599" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G599" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H599" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I599" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J599" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K599" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+      <c r="F600" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G600" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H600" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I600" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J600" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K600" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601">
+        <v>1</v>
+      </c>
+      <c r="F601" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G601" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H601" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I601" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J601" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K601" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H602" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I602" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J602" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K602" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G603" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H603" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I603" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J603" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K603" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>992</v>
+      </c>
+      <c r="B604" t="s">
+        <v>993</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G604" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H604" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I604" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J604" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K604" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B605" t="s">
+        <v>165</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G605" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H605" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I605" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J605" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K605" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G606" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H606" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I606" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J606" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K606" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G607" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H607" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I607" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J607" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K607" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G608" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H608" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I608" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J608" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K608" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
+      <c r="F609" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G609" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H609" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I609" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J609" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K609" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G610" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H610" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I610" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J610" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K610" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S02887\vokabeltrainer_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6CA117-8BEE-48AC-967A-8D941ABCB710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D62C3D-3646-4EC7-8E07-C678D5D85858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6392" uniqueCount="2320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6896" uniqueCount="2429">
   <si>
     <t>Deutsch</t>
   </si>
@@ -6993,6 +6993,333 @@
   </si>
   <si>
     <t>would you like to discuss anything before we start?</t>
+  </si>
+  <si>
+    <t>Rettungspaket/Rettungsaktion</t>
+  </si>
+  <si>
+    <t>bailout</t>
+  </si>
+  <si>
+    <t>Gruppe 4</t>
+  </si>
+  <si>
+    <t>zu/in Richtung/gegenüber</t>
+  </si>
+  <si>
+    <t>towards</t>
+  </si>
+  <si>
+    <t>Hilfe/Unterstützung</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>anbieten/bereitstellen</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>Aktien/Bestände/Vorräte/Lagerbestände</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>Ausnahmen/Ausnahmeregelungen</t>
+  </si>
+  <si>
+    <t>derogations</t>
+  </si>
+  <si>
+    <t>legal/rechtlich/gesetzlich</t>
+  </si>
+  <si>
+    <t>legally</t>
+  </si>
+  <si>
+    <t>zu erreichen</t>
+  </si>
+  <si>
+    <t>to reach</t>
+  </si>
+  <si>
+    <t>Einspeicherbedarf</t>
+  </si>
+  <si>
+    <t>injection demand</t>
+  </si>
+  <si>
+    <t>verringern/abnehmen</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>zu führen/führt zu</t>
+  </si>
+  <si>
+    <t>beheben/lösen/beschließen</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>Anstieg</t>
+  </si>
+  <si>
+    <t>surge</t>
+  </si>
+  <si>
+    <t>erweitern/ausweiten</t>
+  </si>
+  <si>
+    <t>widen</t>
+  </si>
+  <si>
+    <t>erfassen</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>Speicherrenditen</t>
+  </si>
+  <si>
+    <t>storage returns</t>
+  </si>
+  <si>
+    <t>großer Stromausfall</t>
+  </si>
+  <si>
+    <t>huge power cut</t>
+  </si>
+  <si>
+    <t>widespread</t>
+  </si>
+  <si>
+    <t>weit verbreitet/weitläufig</t>
+  </si>
+  <si>
+    <t>aber diese werden weniger</t>
+  </si>
+  <si>
+    <t>but these become fewer</t>
+  </si>
+  <si>
+    <t>election</t>
+  </si>
+  <si>
+    <t>Wahl</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Wachstum/Entwicklung</t>
+  </si>
+  <si>
+    <t>Erhöhung</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>it depends</t>
+  </si>
+  <si>
+    <t>es kommt darauf an</t>
+  </si>
+  <si>
+    <t>Waffenstillstand</t>
+  </si>
+  <si>
+    <t>ceasefire</t>
+  </si>
+  <si>
+    <t>Ausfälle</t>
+  </si>
+  <si>
+    <t>outages</t>
+  </si>
+  <si>
+    <t>Defizit</t>
+  </si>
+  <si>
+    <t>shortfall</t>
+  </si>
+  <si>
+    <t>inländisch</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>Käufe</t>
+  </si>
+  <si>
+    <t>versuchen zu beschwichtigen</t>
+  </si>
+  <si>
+    <t>seek to appease</t>
+  </si>
+  <si>
+    <t>schwächer</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>Annahme</t>
+  </si>
+  <si>
+    <t>assumption</t>
+  </si>
+  <si>
+    <t>kürzlich</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>Schafe</t>
+  </si>
+  <si>
+    <t>Rinder</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>Politischer Grundsatz</t>
+  </si>
+  <si>
+    <t>policy principle</t>
+  </si>
+  <si>
+    <t>arise</t>
+  </si>
+  <si>
+    <t>entstehen/auftreten/aufkommen</t>
+  </si>
+  <si>
+    <t>Ausdruck</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>besondere Natur</t>
+  </si>
+  <si>
+    <t>distinct nature</t>
+  </si>
+  <si>
+    <t>ähnlich</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>breit</t>
+  </si>
+  <si>
+    <t>breiter</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>wider</t>
+  </si>
+  <si>
+    <t>Bereich</t>
+  </si>
+  <si>
+    <t>ranging</t>
+  </si>
+  <si>
+    <t>umfassendere</t>
+  </si>
+  <si>
+    <t>more wider ranging</t>
+  </si>
+  <si>
+    <t>Angelegenheiten</t>
+  </si>
+  <si>
+    <t>matters</t>
+  </si>
+  <si>
+    <t>jenseits von/über hinaus</t>
+  </si>
+  <si>
+    <t>bei der Durchführung/Ausführung</t>
+  </si>
+  <si>
+    <t>when performing</t>
+  </si>
+  <si>
+    <t>ganzheitlich</t>
+  </si>
+  <si>
+    <t>holistic</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>Ansatz</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>gelten/bestätigen</t>
+  </si>
+  <si>
+    <t>bestätigen</t>
+  </si>
+  <si>
+    <t>Tochterunternehmen</t>
+  </si>
+  <si>
+    <t>subsidiaries</t>
+  </si>
+  <si>
+    <t>Wechselkursrisiko</t>
+  </si>
+  <si>
+    <t>foreign exchange risk</t>
+  </si>
+  <si>
+    <t>falls zutreffend</t>
+  </si>
+  <si>
+    <t>if appropriate</t>
+  </si>
+  <si>
+    <t>geeignet</t>
+  </si>
+  <si>
+    <t>appropriate</t>
+  </si>
+  <si>
+    <t>in Verbindung</t>
+  </si>
+  <si>
+    <t>in conjunction</t>
+  </si>
+  <si>
+    <t>Gruppe 5</t>
   </si>
 </sst>
 </file>
@@ -7365,10 +7692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K710"/>
+  <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B743" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I769" sqref="I769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32230,6 +32557,1966 @@
         <v>997</v>
       </c>
     </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B711" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D711">
+        <v>1</v>
+      </c>
+      <c r="E711">
+        <v>1</v>
+      </c>
+      <c r="F711" t="s">
+        <v>997</v>
+      </c>
+      <c r="G711" t="s">
+        <v>997</v>
+      </c>
+      <c r="H711" t="s">
+        <v>997</v>
+      </c>
+      <c r="I711" t="s">
+        <v>997</v>
+      </c>
+      <c r="J711" t="s">
+        <v>997</v>
+      </c>
+      <c r="K711" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B712" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712" t="s">
+        <v>997</v>
+      </c>
+      <c r="G712" t="s">
+        <v>997</v>
+      </c>
+      <c r="H712" t="s">
+        <v>997</v>
+      </c>
+      <c r="I712" t="s">
+        <v>997</v>
+      </c>
+      <c r="J712" t="s">
+        <v>997</v>
+      </c>
+      <c r="K712" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B713" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D713">
+        <v>1</v>
+      </c>
+      <c r="E713">
+        <v>1</v>
+      </c>
+      <c r="F713" t="s">
+        <v>997</v>
+      </c>
+      <c r="G713" t="s">
+        <v>997</v>
+      </c>
+      <c r="H713" t="s">
+        <v>997</v>
+      </c>
+      <c r="I713" t="s">
+        <v>997</v>
+      </c>
+      <c r="J713" t="s">
+        <v>997</v>
+      </c>
+      <c r="K713" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B714" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D714">
+        <v>1</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+      <c r="F714" t="s">
+        <v>997</v>
+      </c>
+      <c r="G714" t="s">
+        <v>997</v>
+      </c>
+      <c r="H714" t="s">
+        <v>997</v>
+      </c>
+      <c r="I714" t="s">
+        <v>997</v>
+      </c>
+      <c r="J714" t="s">
+        <v>997</v>
+      </c>
+      <c r="K714" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B715" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+      <c r="F715" t="s">
+        <v>997</v>
+      </c>
+      <c r="G715" t="s">
+        <v>997</v>
+      </c>
+      <c r="H715" t="s">
+        <v>997</v>
+      </c>
+      <c r="I715" t="s">
+        <v>997</v>
+      </c>
+      <c r="J715" t="s">
+        <v>997</v>
+      </c>
+      <c r="K715" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B716" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D716">
+        <v>1</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+      <c r="F716" t="s">
+        <v>997</v>
+      </c>
+      <c r="G716" t="s">
+        <v>997</v>
+      </c>
+      <c r="H716" t="s">
+        <v>997</v>
+      </c>
+      <c r="I716" t="s">
+        <v>997</v>
+      </c>
+      <c r="J716" t="s">
+        <v>997</v>
+      </c>
+      <c r="K716" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B717" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="E717">
+        <v>1</v>
+      </c>
+      <c r="F717" t="s">
+        <v>997</v>
+      </c>
+      <c r="G717" t="s">
+        <v>997</v>
+      </c>
+      <c r="H717" t="s">
+        <v>997</v>
+      </c>
+      <c r="I717" t="s">
+        <v>997</v>
+      </c>
+      <c r="J717" t="s">
+        <v>997</v>
+      </c>
+      <c r="K717" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B718" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+      <c r="F718" t="s">
+        <v>997</v>
+      </c>
+      <c r="G718" t="s">
+        <v>997</v>
+      </c>
+      <c r="H718" t="s">
+        <v>997</v>
+      </c>
+      <c r="I718" t="s">
+        <v>997</v>
+      </c>
+      <c r="J718" t="s">
+        <v>997</v>
+      </c>
+      <c r="K718" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B719" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+      <c r="F719" t="s">
+        <v>997</v>
+      </c>
+      <c r="G719" t="s">
+        <v>997</v>
+      </c>
+      <c r="H719" t="s">
+        <v>997</v>
+      </c>
+      <c r="I719" t="s">
+        <v>997</v>
+      </c>
+      <c r="J719" t="s">
+        <v>997</v>
+      </c>
+      <c r="K719" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B720" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D720">
+        <v>1</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720" t="s">
+        <v>997</v>
+      </c>
+      <c r="G720" t="s">
+        <v>997</v>
+      </c>
+      <c r="H720" t="s">
+        <v>997</v>
+      </c>
+      <c r="I720" t="s">
+        <v>997</v>
+      </c>
+      <c r="J720" t="s">
+        <v>997</v>
+      </c>
+      <c r="K720" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B721" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+      <c r="E721">
+        <v>1</v>
+      </c>
+      <c r="F721" t="s">
+        <v>997</v>
+      </c>
+      <c r="G721" t="s">
+        <v>997</v>
+      </c>
+      <c r="H721" t="s">
+        <v>997</v>
+      </c>
+      <c r="I721" t="s">
+        <v>997</v>
+      </c>
+      <c r="J721" t="s">
+        <v>997</v>
+      </c>
+      <c r="K721" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B722" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+      <c r="F722" t="s">
+        <v>997</v>
+      </c>
+      <c r="G722" t="s">
+        <v>997</v>
+      </c>
+      <c r="H722" t="s">
+        <v>997</v>
+      </c>
+      <c r="I722" t="s">
+        <v>997</v>
+      </c>
+      <c r="J722" t="s">
+        <v>997</v>
+      </c>
+      <c r="K722" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B723" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+      <c r="F723" t="s">
+        <v>997</v>
+      </c>
+      <c r="G723" t="s">
+        <v>997</v>
+      </c>
+      <c r="H723" t="s">
+        <v>997</v>
+      </c>
+      <c r="I723" t="s">
+        <v>997</v>
+      </c>
+      <c r="J723" t="s">
+        <v>997</v>
+      </c>
+      <c r="K723" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B724" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D724">
+        <v>1</v>
+      </c>
+      <c r="E724">
+        <v>1</v>
+      </c>
+      <c r="F724" t="s">
+        <v>997</v>
+      </c>
+      <c r="G724" t="s">
+        <v>997</v>
+      </c>
+      <c r="H724" t="s">
+        <v>997</v>
+      </c>
+      <c r="I724" t="s">
+        <v>997</v>
+      </c>
+      <c r="J724" t="s">
+        <v>997</v>
+      </c>
+      <c r="K724" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B725" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+      <c r="E725">
+        <v>1</v>
+      </c>
+      <c r="F725" t="s">
+        <v>997</v>
+      </c>
+      <c r="G725" t="s">
+        <v>997</v>
+      </c>
+      <c r="H725" t="s">
+        <v>997</v>
+      </c>
+      <c r="I725" t="s">
+        <v>997</v>
+      </c>
+      <c r="J725" t="s">
+        <v>997</v>
+      </c>
+      <c r="K725" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D726">
+        <v>1</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+      <c r="F726" t="s">
+        <v>997</v>
+      </c>
+      <c r="G726" t="s">
+        <v>997</v>
+      </c>
+      <c r="H726" t="s">
+        <v>997</v>
+      </c>
+      <c r="I726" t="s">
+        <v>997</v>
+      </c>
+      <c r="J726" t="s">
+        <v>997</v>
+      </c>
+      <c r="K726" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B727" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727">
+        <v>1</v>
+      </c>
+      <c r="F727" t="s">
+        <v>997</v>
+      </c>
+      <c r="G727" t="s">
+        <v>997</v>
+      </c>
+      <c r="H727" t="s">
+        <v>997</v>
+      </c>
+      <c r="I727" t="s">
+        <v>997</v>
+      </c>
+      <c r="J727" t="s">
+        <v>997</v>
+      </c>
+      <c r="K727" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B728" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D728">
+        <v>1</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+      <c r="F728" t="s">
+        <v>997</v>
+      </c>
+      <c r="G728" t="s">
+        <v>997</v>
+      </c>
+      <c r="H728" t="s">
+        <v>997</v>
+      </c>
+      <c r="I728" t="s">
+        <v>997</v>
+      </c>
+      <c r="J728" t="s">
+        <v>997</v>
+      </c>
+      <c r="K728" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>1</v>
+      </c>
+      <c r="F729" t="s">
+        <v>997</v>
+      </c>
+      <c r="G729" t="s">
+        <v>997</v>
+      </c>
+      <c r="H729" t="s">
+        <v>997</v>
+      </c>
+      <c r="I729" t="s">
+        <v>997</v>
+      </c>
+      <c r="J729" t="s">
+        <v>997</v>
+      </c>
+      <c r="K729" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B730" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>1</v>
+      </c>
+      <c r="F730" t="s">
+        <v>997</v>
+      </c>
+      <c r="G730" t="s">
+        <v>997</v>
+      </c>
+      <c r="H730" t="s">
+        <v>997</v>
+      </c>
+      <c r="I730" t="s">
+        <v>997</v>
+      </c>
+      <c r="J730" t="s">
+        <v>997</v>
+      </c>
+      <c r="K730" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B731" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+      <c r="F731" t="s">
+        <v>997</v>
+      </c>
+      <c r="G731" t="s">
+        <v>997</v>
+      </c>
+      <c r="H731" t="s">
+        <v>997</v>
+      </c>
+      <c r="I731" t="s">
+        <v>997</v>
+      </c>
+      <c r="J731" t="s">
+        <v>997</v>
+      </c>
+      <c r="K731" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D732">
+        <v>1</v>
+      </c>
+      <c r="E732">
+        <v>1</v>
+      </c>
+      <c r="F732" t="s">
+        <v>997</v>
+      </c>
+      <c r="G732" t="s">
+        <v>997</v>
+      </c>
+      <c r="H732" t="s">
+        <v>997</v>
+      </c>
+      <c r="I732" t="s">
+        <v>997</v>
+      </c>
+      <c r="J732" t="s">
+        <v>997</v>
+      </c>
+      <c r="K732" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B733" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D733">
+        <v>1</v>
+      </c>
+      <c r="E733">
+        <v>1</v>
+      </c>
+      <c r="F733" t="s">
+        <v>997</v>
+      </c>
+      <c r="G733" t="s">
+        <v>997</v>
+      </c>
+      <c r="H733" t="s">
+        <v>997</v>
+      </c>
+      <c r="I733" t="s">
+        <v>997</v>
+      </c>
+      <c r="J733" t="s">
+        <v>997</v>
+      </c>
+      <c r="K733" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+      <c r="F734" t="s">
+        <v>997</v>
+      </c>
+      <c r="G734" t="s">
+        <v>997</v>
+      </c>
+      <c r="H734" t="s">
+        <v>997</v>
+      </c>
+      <c r="I734" t="s">
+        <v>997</v>
+      </c>
+      <c r="J734" t="s">
+        <v>997</v>
+      </c>
+      <c r="K734" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B735" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+      <c r="F735" t="s">
+        <v>997</v>
+      </c>
+      <c r="G735" t="s">
+        <v>997</v>
+      </c>
+      <c r="H735" t="s">
+        <v>997</v>
+      </c>
+      <c r="I735" t="s">
+        <v>997</v>
+      </c>
+      <c r="J735" t="s">
+        <v>997</v>
+      </c>
+      <c r="K735" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+      <c r="F736" t="s">
+        <v>997</v>
+      </c>
+      <c r="G736" t="s">
+        <v>997</v>
+      </c>
+      <c r="H736" t="s">
+        <v>997</v>
+      </c>
+      <c r="I736" t="s">
+        <v>997</v>
+      </c>
+      <c r="J736" t="s">
+        <v>997</v>
+      </c>
+      <c r="K736" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B737" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>1</v>
+      </c>
+      <c r="F737" t="s">
+        <v>997</v>
+      </c>
+      <c r="G737" t="s">
+        <v>997</v>
+      </c>
+      <c r="H737" t="s">
+        <v>997</v>
+      </c>
+      <c r="I737" t="s">
+        <v>997</v>
+      </c>
+      <c r="J737" t="s">
+        <v>997</v>
+      </c>
+      <c r="K737" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B738" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="F738" t="s">
+        <v>997</v>
+      </c>
+      <c r="G738" t="s">
+        <v>997</v>
+      </c>
+      <c r="H738" t="s">
+        <v>997</v>
+      </c>
+      <c r="I738" t="s">
+        <v>997</v>
+      </c>
+      <c r="J738" t="s">
+        <v>997</v>
+      </c>
+      <c r="K738" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B739" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D739">
+        <v>1</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+      <c r="F739" t="s">
+        <v>997</v>
+      </c>
+      <c r="G739" t="s">
+        <v>997</v>
+      </c>
+      <c r="H739" t="s">
+        <v>997</v>
+      </c>
+      <c r="I739" t="s">
+        <v>997</v>
+      </c>
+      <c r="J739" t="s">
+        <v>997</v>
+      </c>
+      <c r="K739" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740" t="s">
+        <v>997</v>
+      </c>
+      <c r="G740" t="s">
+        <v>997</v>
+      </c>
+      <c r="H740" t="s">
+        <v>997</v>
+      </c>
+      <c r="I740" t="s">
+        <v>997</v>
+      </c>
+      <c r="J740" t="s">
+        <v>997</v>
+      </c>
+      <c r="K740" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B741" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+      <c r="F741" t="s">
+        <v>997</v>
+      </c>
+      <c r="G741" t="s">
+        <v>997</v>
+      </c>
+      <c r="H741" t="s">
+        <v>997</v>
+      </c>
+      <c r="I741" t="s">
+        <v>997</v>
+      </c>
+      <c r="J741" t="s">
+        <v>997</v>
+      </c>
+      <c r="K741" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B742" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D742">
+        <v>1</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+      <c r="F742" t="s">
+        <v>997</v>
+      </c>
+      <c r="G742" t="s">
+        <v>997</v>
+      </c>
+      <c r="H742" t="s">
+        <v>997</v>
+      </c>
+      <c r="I742" t="s">
+        <v>997</v>
+      </c>
+      <c r="J742" t="s">
+        <v>997</v>
+      </c>
+      <c r="K742" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B743" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D743">
+        <v>1</v>
+      </c>
+      <c r="E743">
+        <v>1</v>
+      </c>
+      <c r="F743" t="s">
+        <v>997</v>
+      </c>
+      <c r="G743" t="s">
+        <v>997</v>
+      </c>
+      <c r="H743" t="s">
+        <v>997</v>
+      </c>
+      <c r="I743" t="s">
+        <v>997</v>
+      </c>
+      <c r="J743" t="s">
+        <v>997</v>
+      </c>
+      <c r="K743" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B744" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D744">
+        <v>1</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+      <c r="F744" t="s">
+        <v>997</v>
+      </c>
+      <c r="G744" t="s">
+        <v>997</v>
+      </c>
+      <c r="H744" t="s">
+        <v>997</v>
+      </c>
+      <c r="I744" t="s">
+        <v>997</v>
+      </c>
+      <c r="J744" t="s">
+        <v>997</v>
+      </c>
+      <c r="K744" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B745" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D745">
+        <v>1</v>
+      </c>
+      <c r="E745">
+        <v>1</v>
+      </c>
+      <c r="F745" t="s">
+        <v>997</v>
+      </c>
+      <c r="G745" t="s">
+        <v>997</v>
+      </c>
+      <c r="H745" t="s">
+        <v>997</v>
+      </c>
+      <c r="I745" t="s">
+        <v>997</v>
+      </c>
+      <c r="J745" t="s">
+        <v>997</v>
+      </c>
+      <c r="K745" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B746" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D746">
+        <v>1</v>
+      </c>
+      <c r="E746">
+        <v>1</v>
+      </c>
+      <c r="F746" t="s">
+        <v>997</v>
+      </c>
+      <c r="G746" t="s">
+        <v>997</v>
+      </c>
+      <c r="H746" t="s">
+        <v>997</v>
+      </c>
+      <c r="I746" t="s">
+        <v>997</v>
+      </c>
+      <c r="J746" t="s">
+        <v>997</v>
+      </c>
+      <c r="K746" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B747" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747">
+        <v>1</v>
+      </c>
+      <c r="F747" t="s">
+        <v>997</v>
+      </c>
+      <c r="G747" t="s">
+        <v>997</v>
+      </c>
+      <c r="H747" t="s">
+        <v>997</v>
+      </c>
+      <c r="I747" t="s">
+        <v>997</v>
+      </c>
+      <c r="J747" t="s">
+        <v>997</v>
+      </c>
+      <c r="K747" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B748" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D748">
+        <v>1</v>
+      </c>
+      <c r="E748">
+        <v>1</v>
+      </c>
+      <c r="F748" t="s">
+        <v>997</v>
+      </c>
+      <c r="G748" t="s">
+        <v>997</v>
+      </c>
+      <c r="H748" t="s">
+        <v>997</v>
+      </c>
+      <c r="I748" t="s">
+        <v>997</v>
+      </c>
+      <c r="J748" t="s">
+        <v>997</v>
+      </c>
+      <c r="K748" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B749" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D749">
+        <v>1</v>
+      </c>
+      <c r="E749">
+        <v>1</v>
+      </c>
+      <c r="F749" t="s">
+        <v>997</v>
+      </c>
+      <c r="G749" t="s">
+        <v>997</v>
+      </c>
+      <c r="H749" t="s">
+        <v>997</v>
+      </c>
+      <c r="I749" t="s">
+        <v>997</v>
+      </c>
+      <c r="J749" t="s">
+        <v>997</v>
+      </c>
+      <c r="K749" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B750" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750">
+        <v>1</v>
+      </c>
+      <c r="F750" t="s">
+        <v>997</v>
+      </c>
+      <c r="G750" t="s">
+        <v>997</v>
+      </c>
+      <c r="H750" t="s">
+        <v>997</v>
+      </c>
+      <c r="I750" t="s">
+        <v>997</v>
+      </c>
+      <c r="J750" t="s">
+        <v>997</v>
+      </c>
+      <c r="K750" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751">
+        <v>1</v>
+      </c>
+      <c r="F751" t="s">
+        <v>997</v>
+      </c>
+      <c r="G751" t="s">
+        <v>997</v>
+      </c>
+      <c r="H751" t="s">
+        <v>997</v>
+      </c>
+      <c r="I751" t="s">
+        <v>997</v>
+      </c>
+      <c r="J751" t="s">
+        <v>997</v>
+      </c>
+      <c r="K751" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B752" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D752">
+        <v>1</v>
+      </c>
+      <c r="E752">
+        <v>1</v>
+      </c>
+      <c r="F752" t="s">
+        <v>997</v>
+      </c>
+      <c r="G752" t="s">
+        <v>997</v>
+      </c>
+      <c r="H752" t="s">
+        <v>997</v>
+      </c>
+      <c r="I752" t="s">
+        <v>997</v>
+      </c>
+      <c r="J752" t="s">
+        <v>997</v>
+      </c>
+      <c r="K752" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B753" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+      <c r="E753">
+        <v>1</v>
+      </c>
+      <c r="F753" t="s">
+        <v>997</v>
+      </c>
+      <c r="G753" t="s">
+        <v>997</v>
+      </c>
+      <c r="H753" t="s">
+        <v>997</v>
+      </c>
+      <c r="I753" t="s">
+        <v>997</v>
+      </c>
+      <c r="J753" t="s">
+        <v>997</v>
+      </c>
+      <c r="K753" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+      <c r="E754">
+        <v>1</v>
+      </c>
+      <c r="F754" t="s">
+        <v>997</v>
+      </c>
+      <c r="G754" t="s">
+        <v>997</v>
+      </c>
+      <c r="H754" t="s">
+        <v>997</v>
+      </c>
+      <c r="I754" t="s">
+        <v>997</v>
+      </c>
+      <c r="J754" t="s">
+        <v>997</v>
+      </c>
+      <c r="K754" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+      <c r="F755" t="s">
+        <v>997</v>
+      </c>
+      <c r="G755" t="s">
+        <v>997</v>
+      </c>
+      <c r="H755" t="s">
+        <v>997</v>
+      </c>
+      <c r="I755" t="s">
+        <v>997</v>
+      </c>
+      <c r="J755" t="s">
+        <v>997</v>
+      </c>
+      <c r="K755" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D756">
+        <v>1</v>
+      </c>
+      <c r="E756">
+        <v>1</v>
+      </c>
+      <c r="F756" t="s">
+        <v>997</v>
+      </c>
+      <c r="G756" t="s">
+        <v>997</v>
+      </c>
+      <c r="H756" t="s">
+        <v>997</v>
+      </c>
+      <c r="I756" t="s">
+        <v>997</v>
+      </c>
+      <c r="J756" t="s">
+        <v>997</v>
+      </c>
+      <c r="K756" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D757">
+        <v>1</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+      <c r="F757" t="s">
+        <v>997</v>
+      </c>
+      <c r="G757" t="s">
+        <v>997</v>
+      </c>
+      <c r="H757" t="s">
+        <v>997</v>
+      </c>
+      <c r="I757" t="s">
+        <v>997</v>
+      </c>
+      <c r="J757" t="s">
+        <v>997</v>
+      </c>
+      <c r="K757" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B758" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D758">
+        <v>1</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+      <c r="F758" t="s">
+        <v>997</v>
+      </c>
+      <c r="G758" t="s">
+        <v>997</v>
+      </c>
+      <c r="H758" t="s">
+        <v>997</v>
+      </c>
+      <c r="I758" t="s">
+        <v>997</v>
+      </c>
+      <c r="J758" t="s">
+        <v>997</v>
+      </c>
+      <c r="K758" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+      <c r="F759" t="s">
+        <v>997</v>
+      </c>
+      <c r="G759" t="s">
+        <v>997</v>
+      </c>
+      <c r="H759" t="s">
+        <v>997</v>
+      </c>
+      <c r="I759" t="s">
+        <v>997</v>
+      </c>
+      <c r="J759" t="s">
+        <v>997</v>
+      </c>
+      <c r="K759" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D760">
+        <v>1</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+      <c r="F760" t="s">
+        <v>997</v>
+      </c>
+      <c r="G760" t="s">
+        <v>997</v>
+      </c>
+      <c r="H760" t="s">
+        <v>997</v>
+      </c>
+      <c r="I760" t="s">
+        <v>997</v>
+      </c>
+      <c r="J760" t="s">
+        <v>997</v>
+      </c>
+      <c r="K760" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
+      </c>
+      <c r="E761">
+        <v>1</v>
+      </c>
+      <c r="F761" t="s">
+        <v>997</v>
+      </c>
+      <c r="G761" t="s">
+        <v>997</v>
+      </c>
+      <c r="H761" t="s">
+        <v>997</v>
+      </c>
+      <c r="I761" t="s">
+        <v>997</v>
+      </c>
+      <c r="J761" t="s">
+        <v>997</v>
+      </c>
+      <c r="K761" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D762">
+        <v>1</v>
+      </c>
+      <c r="E762">
+        <v>1</v>
+      </c>
+      <c r="F762" t="s">
+        <v>997</v>
+      </c>
+      <c r="G762" t="s">
+        <v>997</v>
+      </c>
+      <c r="H762" t="s">
+        <v>997</v>
+      </c>
+      <c r="I762" t="s">
+        <v>997</v>
+      </c>
+      <c r="J762" t="s">
+        <v>997</v>
+      </c>
+      <c r="K762" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D763">
+        <v>1</v>
+      </c>
+      <c r="E763">
+        <v>1</v>
+      </c>
+      <c r="F763" t="s">
+        <v>997</v>
+      </c>
+      <c r="G763" t="s">
+        <v>997</v>
+      </c>
+      <c r="H763" t="s">
+        <v>997</v>
+      </c>
+      <c r="I763" t="s">
+        <v>997</v>
+      </c>
+      <c r="J763" t="s">
+        <v>997</v>
+      </c>
+      <c r="K763" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D764">
+        <v>1</v>
+      </c>
+      <c r="E764">
+        <v>1</v>
+      </c>
+      <c r="F764" t="s">
+        <v>997</v>
+      </c>
+      <c r="G764" t="s">
+        <v>997</v>
+      </c>
+      <c r="H764" t="s">
+        <v>997</v>
+      </c>
+      <c r="I764" t="s">
+        <v>997</v>
+      </c>
+      <c r="J764" t="s">
+        <v>997</v>
+      </c>
+      <c r="K764" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D765">
+        <v>1</v>
+      </c>
+      <c r="E765">
+        <v>1</v>
+      </c>
+      <c r="F765" t="s">
+        <v>997</v>
+      </c>
+      <c r="G765" t="s">
+        <v>997</v>
+      </c>
+      <c r="H765" t="s">
+        <v>997</v>
+      </c>
+      <c r="I765" t="s">
+        <v>997</v>
+      </c>
+      <c r="J765" t="s">
+        <v>997</v>
+      </c>
+      <c r="K765" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+      <c r="F766" t="s">
+        <v>997</v>
+      </c>
+      <c r="G766" t="s">
+        <v>997</v>
+      </c>
+      <c r="H766" t="s">
+        <v>997</v>
+      </c>
+      <c r="I766" t="s">
+        <v>997</v>
+      </c>
+      <c r="J766" t="s">
+        <v>997</v>
+      </c>
+      <c r="K766" t="s">
+        <v>997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S02887\vokabeltrainer_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1784642-C922-4E34-9EFD-FD14CC340FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613E7E4-D520-4A5F-ABE4-9F617ED2AE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="2094">
   <si>
     <t>Deutsch</t>
   </si>
@@ -6179,16 +6179,142 @@
     <t>Without precise subsidy application, the project cannot proceed.</t>
   </si>
   <si>
-    <t>E-Mail &amp; Geschäftskorrespondenz</t>
-  </si>
-  <si>
-    <t>Präsentieren &amp; Argumentieren</t>
-  </si>
-  <si>
-    <t>Bullshit Business English</t>
-  </si>
-  <si>
     <t>Gruppe 2</t>
+  </si>
+  <si>
+    <t>liegen in</t>
+  </si>
+  <si>
+    <t>lie in</t>
+  </si>
+  <si>
+    <t>Förderung</t>
+  </si>
+  <si>
+    <t>fostering</t>
+  </si>
+  <si>
+    <t>Identifikation</t>
+  </si>
+  <si>
+    <t>Identifying</t>
+  </si>
+  <si>
+    <t>ist entscheidend</t>
+  </si>
+  <si>
+    <t>is crucial</t>
+  </si>
+  <si>
+    <t>regelmäßig</t>
+  </si>
+  <si>
+    <t>regularly</t>
+  </si>
+  <si>
+    <t>überprüfen</t>
+  </si>
+  <si>
+    <t>assess/verify/check</t>
+  </si>
+  <si>
+    <t>Kaufgewohnheiten</t>
+  </si>
+  <si>
+    <t>purchasing habbits</t>
+  </si>
+  <si>
+    <t>Gruppe 3</t>
+  </si>
+  <si>
+    <t>Gruppe 4</t>
+  </si>
+  <si>
+    <t>Gruppe 5</t>
+  </si>
+  <si>
+    <t>Gruppe 6</t>
+  </si>
+  <si>
+    <t>Gruppe 7</t>
+  </si>
+  <si>
+    <t>Gruppe 8</t>
+  </si>
+  <si>
+    <t>Gruppe 9</t>
+  </si>
+  <si>
+    <t>Gruppe 10</t>
+  </si>
+  <si>
+    <t>Gruppe 11</t>
+  </si>
+  <si>
+    <t>Gruppe 12</t>
+  </si>
+  <si>
+    <t>Gruppe 13</t>
+  </si>
+  <si>
+    <t>Gruppe 14</t>
+  </si>
+  <si>
+    <t>Gruppe 15</t>
+  </si>
+  <si>
+    <t>Gruppe 16</t>
+  </si>
+  <si>
+    <t>Gruppe 17</t>
+  </si>
+  <si>
+    <t>Gruppe 18</t>
+  </si>
+  <si>
+    <t>Gruppe 19</t>
+  </si>
+  <si>
+    <t>Gruppe 20</t>
+  </si>
+  <si>
+    <t>Gruppe 21</t>
+  </si>
+  <si>
+    <t>Gruppe 22</t>
+  </si>
+  <si>
+    <t>Gruppe 23</t>
+  </si>
+  <si>
+    <t>Gruppe 24</t>
+  </si>
+  <si>
+    <t>Gruppe 25</t>
+  </si>
+  <si>
+    <t>Gruppe 26</t>
+  </si>
+  <si>
+    <t>Gruppe 27</t>
+  </si>
+  <si>
+    <t>Gruppe 28</t>
+  </si>
+  <si>
+    <t>Gruppe 29</t>
+  </si>
+  <si>
+    <t>Gruppe 30</t>
+  </si>
+  <si>
+    <t>Gruppe 31</t>
+  </si>
+  <si>
+    <t>Gruppe 32</t>
+  </si>
+  <si>
+    <t>Gruppe 33</t>
   </si>
 </sst>
 </file>
@@ -6563,7 +6689,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K636"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A565" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F595" sqref="F595"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7142,7 +7270,7 @@
         <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -7177,7 +7305,7 @@
         <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -7212,7 +7340,7 @@
         <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -7247,7 +7375,7 @@
         <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -7282,7 +7410,7 @@
         <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -7317,7 +7445,7 @@
         <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -7352,7 +7480,7 @@
         <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -7387,7 +7515,7 @@
         <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -7422,7 +7550,7 @@
         <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -7457,7 +7585,7 @@
         <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -7492,7 +7620,7 @@
         <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7527,7 +7655,7 @@
         <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7562,7 +7690,7 @@
         <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -7597,7 +7725,7 @@
         <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -7632,7 +7760,7 @@
         <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>2048</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -7667,7 +7795,7 @@
         <v>253</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -7702,7 +7830,7 @@
         <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -7737,7 +7865,7 @@
         <v>269</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -7772,7 +7900,7 @@
         <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -7807,7 +7935,7 @@
         <v>285</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -7842,7 +7970,7 @@
         <v>293</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -7877,7 +8005,7 @@
         <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -7912,7 +8040,7 @@
         <v>309</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -7947,7 +8075,7 @@
         <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -7982,7 +8110,7 @@
         <v>325</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -8017,7 +8145,7 @@
         <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -8052,7 +8180,7 @@
         <v>341</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -8087,7 +8215,7 @@
         <v>349</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -8122,7 +8250,7 @@
         <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -8157,7 +8285,7 @@
         <v>365</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>2063</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -8192,7 +8320,7 @@
         <v>373</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -8227,7 +8355,7 @@
         <v>381</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -8262,7 +8390,7 @@
         <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -8297,7 +8425,7 @@
         <v>397</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -8332,7 +8460,7 @@
         <v>405</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -8367,7 +8495,7 @@
         <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -8402,7 +8530,7 @@
         <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -8437,7 +8565,7 @@
         <v>429</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -8472,7 +8600,7 @@
         <v>437</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8507,7 +8635,7 @@
         <v>445</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -8542,7 +8670,7 @@
         <v>453</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -8577,7 +8705,7 @@
         <v>461</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8612,7 +8740,7 @@
         <v>469</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -8647,7 +8775,7 @@
         <v>477</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8682,7 +8810,7 @@
         <v>485</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>2064</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -8717,7 +8845,7 @@
         <v>493</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -8752,7 +8880,7 @@
         <v>501</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -8787,7 +8915,7 @@
         <v>509</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -8822,7 +8950,7 @@
         <v>517</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -8857,7 +8985,7 @@
         <v>525</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -8892,7 +9020,7 @@
         <v>533</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -8927,7 +9055,7 @@
         <v>541</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -8962,7 +9090,7 @@
         <v>549</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -8997,7 +9125,7 @@
         <v>557</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -9032,7 +9160,7 @@
         <v>565</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -9067,7 +9195,7 @@
         <v>573</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -9102,7 +9230,7 @@
         <v>581</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -9137,7 +9265,7 @@
         <v>589</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -9172,7 +9300,7 @@
         <v>597</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -9207,7 +9335,7 @@
         <v>605</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>2065</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -9242,7 +9370,7 @@
         <v>613</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -9277,7 +9405,7 @@
         <v>621</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -9312,7 +9440,7 @@
         <v>629</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -9347,7 +9475,7 @@
         <v>637</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -9382,7 +9510,7 @@
         <v>645</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -9417,7 +9545,7 @@
         <v>653</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -9452,7 +9580,7 @@
         <v>661</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -9487,7 +9615,7 @@
         <v>669</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -9522,7 +9650,7 @@
         <v>677</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -9557,7 +9685,7 @@
         <v>685</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -9592,7 +9720,7 @@
         <v>693</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -9627,7 +9755,7 @@
         <v>701</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -9662,7 +9790,7 @@
         <v>709</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -9697,7 +9825,7 @@
         <v>717</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -9732,7 +9860,7 @@
         <v>725</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>2066</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -9767,7 +9895,7 @@
         <v>733</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -9802,7 +9930,7 @@
         <v>741</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -9837,7 +9965,7 @@
         <v>749</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -9872,7 +10000,7 @@
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -9907,7 +10035,7 @@
         <v>763</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -9942,7 +10070,7 @@
         <v>771</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -9977,7 +10105,7 @@
         <v>779</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -10012,7 +10140,7 @@
         <v>787</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -10047,7 +10175,7 @@
         <v>795</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -10082,7 +10210,7 @@
         <v>803</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -10117,7 +10245,7 @@
         <v>811</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -10152,7 +10280,7 @@
         <v>819</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -10187,7 +10315,7 @@
         <v>827</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -10222,7 +10350,7 @@
         <v>835</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -10257,7 +10385,7 @@
         <v>843</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>2067</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -10292,7 +10420,7 @@
         <v>851</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -10327,7 +10455,7 @@
         <v>859</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -10362,7 +10490,7 @@
         <v>867</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -10397,7 +10525,7 @@
         <v>875</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -10432,7 +10560,7 @@
         <v>883</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -10467,7 +10595,7 @@
         <v>891</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -10502,7 +10630,7 @@
         <v>899</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -10537,7 +10665,7 @@
         <v>907</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -10572,7 +10700,7 @@
         <v>915</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -10607,7 +10735,7 @@
         <v>923</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -10642,7 +10770,7 @@
         <v>931</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -10677,7 +10805,7 @@
         <v>939</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -10712,7 +10840,7 @@
         <v>947</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -10747,7 +10875,7 @@
         <v>955</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>2068</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -10782,7 +10910,7 @@
         <v>963</v>
       </c>
       <c r="C121" t="s">
-        <v>2051</v>
+        <v>2068</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -10817,7 +10945,7 @@
         <v>971</v>
       </c>
       <c r="C122" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -10852,7 +10980,7 @@
         <v>979</v>
       </c>
       <c r="C123" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -10887,7 +11015,7 @@
         <v>987</v>
       </c>
       <c r="C124" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -10922,7 +11050,7 @@
         <v>995</v>
       </c>
       <c r="C125" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -10957,7 +11085,7 @@
         <v>998</v>
       </c>
       <c r="C126" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -10992,7 +11120,7 @@
         <v>1000</v>
       </c>
       <c r="C127" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -11027,7 +11155,7 @@
         <v>1002</v>
       </c>
       <c r="C128" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -11062,7 +11190,7 @@
         <v>1004</v>
       </c>
       <c r="C129" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -11097,7 +11225,7 @@
         <v>1006</v>
       </c>
       <c r="C130" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -11132,7 +11260,7 @@
         <v>1008</v>
       </c>
       <c r="C131" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -11167,7 +11295,7 @@
         <v>1010</v>
       </c>
       <c r="C132" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -11202,7 +11330,7 @@
         <v>1012</v>
       </c>
       <c r="C133" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -11237,7 +11365,7 @@
         <v>1014</v>
       </c>
       <c r="C134" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -11272,7 +11400,7 @@
         <v>1016</v>
       </c>
       <c r="C135" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -11307,7 +11435,7 @@
         <v>1018</v>
       </c>
       <c r="C136" t="s">
-        <v>2051</v>
+        <v>2069</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -11342,7 +11470,7 @@
         <v>1020</v>
       </c>
       <c r="C137" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -11377,7 +11505,7 @@
         <v>245</v>
       </c>
       <c r="C138" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -11412,7 +11540,7 @@
         <v>1023</v>
       </c>
       <c r="C139" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -11447,7 +11575,7 @@
         <v>1025</v>
       </c>
       <c r="C140" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -11482,7 +11610,7 @@
         <v>1027</v>
       </c>
       <c r="C141" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -11517,7 +11645,7 @@
         <v>1029</v>
       </c>
       <c r="C142" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -11552,7 +11680,7 @@
         <v>1031</v>
       </c>
       <c r="C143" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -11587,7 +11715,7 @@
         <v>1033</v>
       </c>
       <c r="C144" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -11622,7 +11750,7 @@
         <v>1035</v>
       </c>
       <c r="C145" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -11657,7 +11785,7 @@
         <v>1037</v>
       </c>
       <c r="C146" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -11692,7 +11820,7 @@
         <v>1039</v>
       </c>
       <c r="C147" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -11727,7 +11855,7 @@
         <v>1041</v>
       </c>
       <c r="C148" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -11762,7 +11890,7 @@
         <v>1043</v>
       </c>
       <c r="C149" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -11797,7 +11925,7 @@
         <v>1045</v>
       </c>
       <c r="C150" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -11832,7 +11960,7 @@
         <v>1047</v>
       </c>
       <c r="C151" t="s">
-        <v>2051</v>
+        <v>2070</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -11867,7 +11995,7 @@
         <v>1049</v>
       </c>
       <c r="C152" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -11902,7 +12030,7 @@
         <v>1051</v>
       </c>
       <c r="C153" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -11937,7 +12065,7 @@
         <v>1053</v>
       </c>
       <c r="C154" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -11972,7 +12100,7 @@
         <v>1055</v>
       </c>
       <c r="C155" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -12007,7 +12135,7 @@
         <v>1057</v>
       </c>
       <c r="C156" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -12042,7 +12170,7 @@
         <v>1059</v>
       </c>
       <c r="C157" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -12077,7 +12205,7 @@
         <v>1061</v>
       </c>
       <c r="C158" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -12112,7 +12240,7 @@
         <v>1063</v>
       </c>
       <c r="C159" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -12147,7 +12275,7 @@
         <v>1065</v>
       </c>
       <c r="C160" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -12182,7 +12310,7 @@
         <v>1067</v>
       </c>
       <c r="C161" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -12217,7 +12345,7 @@
         <v>1069</v>
       </c>
       <c r="C162" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -12252,7 +12380,7 @@
         <v>1071</v>
       </c>
       <c r="C163" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -12287,7 +12415,7 @@
         <v>1073</v>
       </c>
       <c r="C164" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -12322,7 +12450,7 @@
         <v>1075</v>
       </c>
       <c r="C165" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -12357,7 +12485,7 @@
         <v>1077</v>
       </c>
       <c r="C166" t="s">
-        <v>2051</v>
+        <v>2071</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -12392,7 +12520,7 @@
         <v>1079</v>
       </c>
       <c r="C167" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -12427,7 +12555,7 @@
         <v>1081</v>
       </c>
       <c r="C168" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -12462,7 +12590,7 @@
         <v>1083</v>
       </c>
       <c r="C169" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -12497,7 +12625,7 @@
         <v>1085</v>
       </c>
       <c r="C170" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -12532,7 +12660,7 @@
         <v>1087</v>
       </c>
       <c r="C171" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -12567,7 +12695,7 @@
         <v>1089</v>
       </c>
       <c r="C172" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -12602,7 +12730,7 @@
         <v>1091</v>
       </c>
       <c r="C173" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -12637,7 +12765,7 @@
         <v>1093</v>
       </c>
       <c r="C174" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -12672,7 +12800,7 @@
         <v>1095</v>
       </c>
       <c r="C175" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -12707,7 +12835,7 @@
         <v>1097</v>
       </c>
       <c r="C176" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -12742,7 +12870,7 @@
         <v>1099</v>
       </c>
       <c r="C177" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -12777,7 +12905,7 @@
         <v>1101</v>
       </c>
       <c r="C178" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -12812,7 +12940,7 @@
         <v>1103</v>
       </c>
       <c r="C179" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -12847,7 +12975,7 @@
         <v>1105</v>
       </c>
       <c r="C180" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -12882,7 +13010,7 @@
         <v>1107</v>
       </c>
       <c r="C181" t="s">
-        <v>2051</v>
+        <v>2072</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -12917,7 +13045,7 @@
         <v>1109</v>
       </c>
       <c r="C182" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -12952,7 +13080,7 @@
         <v>1111</v>
       </c>
       <c r="C183" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -12987,7 +13115,7 @@
         <v>1113</v>
       </c>
       <c r="C184" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -13022,7 +13150,7 @@
         <v>1115</v>
       </c>
       <c r="C185" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -13057,7 +13185,7 @@
         <v>1117</v>
       </c>
       <c r="C186" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -13092,7 +13220,7 @@
         <v>1118</v>
       </c>
       <c r="C187" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -13127,7 +13255,7 @@
         <v>1120</v>
       </c>
       <c r="C188" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -13162,7 +13290,7 @@
         <v>1122</v>
       </c>
       <c r="C189" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -13197,7 +13325,7 @@
         <v>165</v>
       </c>
       <c r="C190" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -13232,7 +13360,7 @@
         <v>1125</v>
       </c>
       <c r="C191" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -13267,7 +13395,7 @@
         <v>1127</v>
       </c>
       <c r="C192" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -13302,7 +13430,7 @@
         <v>1129</v>
       </c>
       <c r="C193" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -13337,7 +13465,7 @@
         <v>1131</v>
       </c>
       <c r="C194" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -13372,7 +13500,7 @@
         <v>1133</v>
       </c>
       <c r="C195" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -13407,7 +13535,7 @@
         <v>1135</v>
       </c>
       <c r="C196" t="s">
-        <v>2051</v>
+        <v>2073</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -13442,7 +13570,7 @@
         <v>1137</v>
       </c>
       <c r="C197" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -13477,7 +13605,7 @@
         <v>1139</v>
       </c>
       <c r="C198" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -13512,7 +13640,7 @@
         <v>1141</v>
       </c>
       <c r="C199" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -13547,7 +13675,7 @@
         <v>1143</v>
       </c>
       <c r="C200" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -13582,7 +13710,7 @@
         <v>1145</v>
       </c>
       <c r="C201" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -13617,7 +13745,7 @@
         <v>1147</v>
       </c>
       <c r="C202" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -13652,7 +13780,7 @@
         <v>1149</v>
       </c>
       <c r="C203" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -13687,7 +13815,7 @@
         <v>1010</v>
       </c>
       <c r="C204" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -13722,7 +13850,7 @@
         <v>1151</v>
       </c>
       <c r="C205" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -13757,7 +13885,7 @@
         <v>1153</v>
       </c>
       <c r="C206" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13792,7 +13920,7 @@
         <v>1155</v>
       </c>
       <c r="C207" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -13827,7 +13955,7 @@
         <v>1157</v>
       </c>
       <c r="C208" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -13862,7 +13990,7 @@
         <v>795</v>
       </c>
       <c r="C209" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -13897,7 +14025,7 @@
         <v>1160</v>
       </c>
       <c r="C210" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -13932,7 +14060,7 @@
         <v>1162</v>
       </c>
       <c r="C211" t="s">
-        <v>2051</v>
+        <v>2074</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -13967,7 +14095,7 @@
         <v>1164</v>
       </c>
       <c r="C212" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -14002,7 +14130,7 @@
         <v>1166</v>
       </c>
       <c r="C213" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -14037,7 +14165,7 @@
         <v>1168</v>
       </c>
       <c r="C214" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -14072,7 +14200,7 @@
         <v>1170</v>
       </c>
       <c r="C215" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -14107,7 +14235,7 @@
         <v>1172</v>
       </c>
       <c r="C216" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -14142,7 +14270,7 @@
         <v>1174</v>
       </c>
       <c r="C217" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -14177,7 +14305,7 @@
         <v>1176</v>
       </c>
       <c r="C218" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -14212,7 +14340,7 @@
         <v>1178</v>
       </c>
       <c r="C219" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -14247,7 +14375,7 @@
         <v>1180</v>
       </c>
       <c r="C220" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -14282,7 +14410,7 @@
         <v>1182</v>
       </c>
       <c r="C221" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -14317,7 +14445,7 @@
         <v>1184</v>
       </c>
       <c r="C222" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -14352,7 +14480,7 @@
         <v>1186</v>
       </c>
       <c r="C223" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -14387,7 +14515,7 @@
         <v>1188</v>
       </c>
       <c r="C224" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -14422,7 +14550,7 @@
         <v>1189</v>
       </c>
       <c r="C225" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -14457,7 +14585,7 @@
         <v>1191</v>
       </c>
       <c r="C226" t="s">
-        <v>2051</v>
+        <v>2075</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -14492,7 +14620,7 @@
         <v>1012</v>
       </c>
       <c r="C227" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -14527,7 +14655,7 @@
         <v>1193</v>
       </c>
       <c r="C228" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -14562,7 +14690,7 @@
         <v>1195</v>
       </c>
       <c r="C229" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -14597,7 +14725,7 @@
         <v>1197</v>
       </c>
       <c r="C230" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -14632,7 +14760,7 @@
         <v>1199</v>
       </c>
       <c r="C231" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -14667,7 +14795,7 @@
         <v>1201</v>
       </c>
       <c r="C232" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -14702,7 +14830,7 @@
         <v>445</v>
       </c>
       <c r="C233" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -14737,7 +14865,7 @@
         <v>1203</v>
       </c>
       <c r="C234" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -14772,7 +14900,7 @@
         <v>1205</v>
       </c>
       <c r="C235" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -14807,7 +14935,7 @@
         <v>1207</v>
       </c>
       <c r="C236" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -14842,7 +14970,7 @@
         <v>1209</v>
       </c>
       <c r="C237" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -14877,7 +15005,7 @@
         <v>1211</v>
       </c>
       <c r="C238" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -14912,7 +15040,7 @@
         <v>1213</v>
       </c>
       <c r="C239" t="s">
-        <v>2051</v>
+        <v>2076</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -14947,7 +15075,7 @@
         <v>1215</v>
       </c>
       <c r="C240" t="s">
-        <v>2048</v>
+        <v>2076</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -14982,7 +15110,7 @@
         <v>1217</v>
       </c>
       <c r="C241" t="s">
-        <v>2048</v>
+        <v>2076</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -15017,7 +15145,7 @@
         <v>1219</v>
       </c>
       <c r="C242" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -15052,7 +15180,7 @@
         <v>1221</v>
       </c>
       <c r="C243" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -15087,7 +15215,7 @@
         <v>1223</v>
       </c>
       <c r="C244" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -15122,7 +15250,7 @@
         <v>1225</v>
       </c>
       <c r="C245" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -15157,7 +15285,7 @@
         <v>1227</v>
       </c>
       <c r="C246" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -15192,7 +15320,7 @@
         <v>1229</v>
       </c>
       <c r="C247" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -15227,7 +15355,7 @@
         <v>1231</v>
       </c>
       <c r="C248" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -15262,7 +15390,7 @@
         <v>1233</v>
       </c>
       <c r="C249" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -15297,7 +15425,7 @@
         <v>1235</v>
       </c>
       <c r="C250" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -15332,7 +15460,7 @@
         <v>1237</v>
       </c>
       <c r="C251" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -15367,7 +15495,7 @@
         <v>1239</v>
       </c>
       <c r="C252" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -15402,7 +15530,7 @@
         <v>1241</v>
       </c>
       <c r="C253" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -15437,7 +15565,7 @@
         <v>1243</v>
       </c>
       <c r="C254" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -15472,7 +15600,7 @@
         <v>1245</v>
       </c>
       <c r="C255" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -15507,7 +15635,7 @@
         <v>1247</v>
       </c>
       <c r="C256" t="s">
-        <v>2048</v>
+        <v>2077</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -15542,7 +15670,7 @@
         <v>1249</v>
       </c>
       <c r="C257" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -15577,7 +15705,7 @@
         <v>1251</v>
       </c>
       <c r="C258" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -15612,7 +15740,7 @@
         <v>1253</v>
       </c>
       <c r="C259" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -15647,7 +15775,7 @@
         <v>1255</v>
       </c>
       <c r="C260" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -15682,7 +15810,7 @@
         <v>1257</v>
       </c>
       <c r="C261" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -15717,7 +15845,7 @@
         <v>1259</v>
       </c>
       <c r="C262" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -15752,7 +15880,7 @@
         <v>1261</v>
       </c>
       <c r="C263" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -15787,7 +15915,7 @@
         <v>1263</v>
       </c>
       <c r="C264" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -15822,7 +15950,7 @@
         <v>1265</v>
       </c>
       <c r="C265" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -15857,7 +15985,7 @@
         <v>1267</v>
       </c>
       <c r="C266" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -15892,7 +16020,7 @@
         <v>1269</v>
       </c>
       <c r="C267" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -15927,7 +16055,7 @@
         <v>1271</v>
       </c>
       <c r="C268" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -15962,7 +16090,7 @@
         <v>1273</v>
       </c>
       <c r="C269" t="s">
-        <v>2048</v>
+        <v>2078</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -15997,7 +16125,7 @@
         <v>1275</v>
       </c>
       <c r="C270" t="s">
-        <v>2049</v>
+        <v>2078</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -16032,7 +16160,7 @@
         <v>1277</v>
       </c>
       <c r="C271" t="s">
-        <v>2049</v>
+        <v>2078</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -16067,7 +16195,7 @@
         <v>1279</v>
       </c>
       <c r="C272" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -16102,7 +16230,7 @@
         <v>1281</v>
       </c>
       <c r="C273" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -16137,7 +16265,7 @@
         <v>1283</v>
       </c>
       <c r="C274" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -16172,7 +16300,7 @@
         <v>1285</v>
       </c>
       <c r="C275" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -16207,7 +16335,7 @@
         <v>1287</v>
       </c>
       <c r="C276" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -16242,7 +16370,7 @@
         <v>1289</v>
       </c>
       <c r="C277" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -16277,7 +16405,7 @@
         <v>1291</v>
       </c>
       <c r="C278" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -16312,7 +16440,7 @@
         <v>1293</v>
       </c>
       <c r="C279" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -16347,7 +16475,7 @@
         <v>1295</v>
       </c>
       <c r="C280" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -16382,7 +16510,7 @@
         <v>1297</v>
       </c>
       <c r="C281" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -16417,7 +16545,7 @@
         <v>1299</v>
       </c>
       <c r="C282" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -16452,7 +16580,7 @@
         <v>1301</v>
       </c>
       <c r="C283" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -16487,7 +16615,7 @@
         <v>1303</v>
       </c>
       <c r="C284" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -16522,7 +16650,7 @@
         <v>1305</v>
       </c>
       <c r="C285" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -16557,7 +16685,7 @@
         <v>1307</v>
       </c>
       <c r="C286" t="s">
-        <v>2049</v>
+        <v>2079</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -16592,7 +16720,7 @@
         <v>1309</v>
       </c>
       <c r="C287" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -16627,7 +16755,7 @@
         <v>1311</v>
       </c>
       <c r="C288" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -16662,7 +16790,7 @@
         <v>1313</v>
       </c>
       <c r="C289" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -16697,7 +16825,7 @@
         <v>1315</v>
       </c>
       <c r="C290" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -16732,7 +16860,7 @@
         <v>1317</v>
       </c>
       <c r="C291" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -16767,7 +16895,7 @@
         <v>1319</v>
       </c>
       <c r="C292" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -16802,7 +16930,7 @@
         <v>1321</v>
       </c>
       <c r="C293" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -16837,7 +16965,7 @@
         <v>1323</v>
       </c>
       <c r="C294" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -16872,7 +17000,7 @@
         <v>1325</v>
       </c>
       <c r="C295" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -16907,7 +17035,7 @@
         <v>1327</v>
       </c>
       <c r="C296" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -16942,7 +17070,7 @@
         <v>1329</v>
       </c>
       <c r="C297" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -16977,7 +17105,7 @@
         <v>1331</v>
       </c>
       <c r="C298" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -17012,7 +17140,7 @@
         <v>1333</v>
       </c>
       <c r="C299" t="s">
-        <v>2049</v>
+        <v>2080</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -17047,7 +17175,7 @@
         <v>1335</v>
       </c>
       <c r="C300" t="s">
-        <v>2050</v>
+        <v>2080</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -17082,7 +17210,7 @@
         <v>1337</v>
       </c>
       <c r="C301" t="s">
-        <v>2050</v>
+        <v>2080</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -17117,7 +17245,7 @@
         <v>1339</v>
       </c>
       <c r="C302" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -17152,7 +17280,7 @@
         <v>1341</v>
       </c>
       <c r="C303" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -17187,7 +17315,7 @@
         <v>1343</v>
       </c>
       <c r="C304" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -17222,7 +17350,7 @@
         <v>1345</v>
       </c>
       <c r="C305" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -17257,7 +17385,7 @@
         <v>1347</v>
       </c>
       <c r="C306" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -17292,7 +17420,7 @@
         <v>1349</v>
       </c>
       <c r="C307" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -17327,7 +17455,7 @@
         <v>1351</v>
       </c>
       <c r="C308" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -17362,7 +17490,7 @@
         <v>1353</v>
       </c>
       <c r="C309" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -17397,7 +17525,7 @@
         <v>1355</v>
       </c>
       <c r="C310" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -17432,7 +17560,7 @@
         <v>1357</v>
       </c>
       <c r="C311" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -17467,7 +17595,7 @@
         <v>1359</v>
       </c>
       <c r="C312" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -17502,7 +17630,7 @@
         <v>1361</v>
       </c>
       <c r="C313" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -17537,7 +17665,7 @@
         <v>1363</v>
       </c>
       <c r="C314" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -17572,7 +17700,7 @@
         <v>1365</v>
       </c>
       <c r="C315" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -17607,7 +17735,7 @@
         <v>1367</v>
       </c>
       <c r="C316" t="s">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -17642,7 +17770,7 @@
         <v>1369</v>
       </c>
       <c r="C317" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -17677,7 +17805,7 @@
         <v>1371</v>
       </c>
       <c r="C318" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -17712,7 +17840,7 @@
         <v>1373</v>
       </c>
       <c r="C319" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -17747,7 +17875,7 @@
         <v>1375</v>
       </c>
       <c r="C320" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D320">
         <v>1</v>
@@ -17782,7 +17910,7 @@
         <v>1377</v>
       </c>
       <c r="C321" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -17817,7 +17945,7 @@
         <v>1379</v>
       </c>
       <c r="C322" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -17852,7 +17980,7 @@
         <v>1381</v>
       </c>
       <c r="C323" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -17887,7 +18015,7 @@
         <v>1383</v>
       </c>
       <c r="C324" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -17922,7 +18050,7 @@
         <v>1385</v>
       </c>
       <c r="C325" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -17957,7 +18085,7 @@
         <v>1387</v>
       </c>
       <c r="C326" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -17992,7 +18120,7 @@
         <v>1389</v>
       </c>
       <c r="C327" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -18027,7 +18155,7 @@
         <v>1391</v>
       </c>
       <c r="C328" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -18062,7 +18190,7 @@
         <v>1393</v>
       </c>
       <c r="C329" t="s">
-        <v>2050</v>
+        <v>2082</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -18097,7 +18225,7 @@
         <v>1395</v>
       </c>
       <c r="C330" t="s">
-        <v>2051</v>
+        <v>2082</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -18132,7 +18260,7 @@
         <v>1397</v>
       </c>
       <c r="C331" t="s">
-        <v>2051</v>
+        <v>2082</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -18167,7 +18295,7 @@
         <v>1399</v>
       </c>
       <c r="C332" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -18202,7 +18330,7 @@
         <v>1401</v>
       </c>
       <c r="C333" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -18237,7 +18365,7 @@
         <v>1403</v>
       </c>
       <c r="C334" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -18272,7 +18400,7 @@
         <v>1405</v>
       </c>
       <c r="C335" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -18307,7 +18435,7 @@
         <v>1407</v>
       </c>
       <c r="C336" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -18342,7 +18470,7 @@
         <v>1409</v>
       </c>
       <c r="C337" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -18377,7 +18505,7 @@
         <v>1411</v>
       </c>
       <c r="C338" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -18412,7 +18540,7 @@
         <v>1413</v>
       </c>
       <c r="C339" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -18447,7 +18575,7 @@
         <v>1415</v>
       </c>
       <c r="C340" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -18482,7 +18610,7 @@
         <v>1417</v>
       </c>
       <c r="C341" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -18517,7 +18645,7 @@
         <v>1419</v>
       </c>
       <c r="C342" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -18552,7 +18680,7 @@
         <v>1111</v>
       </c>
       <c r="C343" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -18587,7 +18715,7 @@
         <v>1421</v>
       </c>
       <c r="C344" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -18622,7 +18750,7 @@
         <v>1423</v>
       </c>
       <c r="C345" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -18657,7 +18785,7 @@
         <v>1425</v>
       </c>
       <c r="C346" t="s">
-        <v>2051</v>
+        <v>2083</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -18692,7 +18820,7 @@
         <v>1427</v>
       </c>
       <c r="C347" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -18727,7 +18855,7 @@
         <v>1429</v>
       </c>
       <c r="C348" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -18762,7 +18890,7 @@
         <v>1113</v>
       </c>
       <c r="C349" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -18797,7 +18925,7 @@
         <v>1432</v>
       </c>
       <c r="C350" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -18832,7 +18960,7 @@
         <v>1434</v>
       </c>
       <c r="C351" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -18867,7 +18995,7 @@
         <v>1436</v>
       </c>
       <c r="C352" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -18902,7 +19030,7 @@
         <v>1438</v>
       </c>
       <c r="C353" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -18937,7 +19065,7 @@
         <v>1107</v>
       </c>
       <c r="C354" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -18972,7 +19100,7 @@
         <v>1440</v>
       </c>
       <c r="C355" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -19007,7 +19135,7 @@
         <v>1442</v>
       </c>
       <c r="C356" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -19042,7 +19170,7 @@
         <v>1444</v>
       </c>
       <c r="C357" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -19077,7 +19205,7 @@
         <v>1446</v>
       </c>
       <c r="C358" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -19112,7 +19240,7 @@
         <v>1448</v>
       </c>
       <c r="C359" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -19147,7 +19275,7 @@
         <v>1450</v>
       </c>
       <c r="C360" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -19182,7 +19310,7 @@
         <v>1452</v>
       </c>
       <c r="C361" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -19217,7 +19345,7 @@
         <v>1454</v>
       </c>
       <c r="C362" t="s">
-        <v>2051</v>
+        <v>2084</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -19252,7 +19380,7 @@
         <v>1456</v>
       </c>
       <c r="C363" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -19287,7 +19415,7 @@
         <v>1458</v>
       </c>
       <c r="C364" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -19322,7 +19450,7 @@
         <v>1460</v>
       </c>
       <c r="C365" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -19357,7 +19485,7 @@
         <v>1462</v>
       </c>
       <c r="C366" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -19392,7 +19520,7 @@
         <v>1464</v>
       </c>
       <c r="C367" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D367">
         <v>1</v>
@@ -19427,7 +19555,7 @@
         <v>1466</v>
       </c>
       <c r="C368" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -19462,7 +19590,7 @@
         <v>1468</v>
       </c>
       <c r="C369" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -19497,7 +19625,7 @@
         <v>1470</v>
       </c>
       <c r="C370" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -19532,7 +19660,7 @@
         <v>1472</v>
       </c>
       <c r="C371" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -19567,7 +19695,7 @@
         <v>1474</v>
       </c>
       <c r="C372" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -19602,7 +19730,7 @@
         <v>1476</v>
       </c>
       <c r="C373" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -19637,7 +19765,7 @@
         <v>1478</v>
       </c>
       <c r="C374" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -19672,7 +19800,7 @@
         <v>1480</v>
       </c>
       <c r="C375" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -19707,7 +19835,7 @@
         <v>1482</v>
       </c>
       <c r="C376" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -19742,7 +19870,7 @@
         <v>1484</v>
       </c>
       <c r="C377" t="s">
-        <v>2051</v>
+        <v>2085</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -19777,7 +19905,7 @@
         <v>1486</v>
       </c>
       <c r="C378" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -19812,7 +19940,7 @@
         <v>1488</v>
       </c>
       <c r="C379" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -19847,7 +19975,7 @@
         <v>1490</v>
       </c>
       <c r="C380" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -19882,7 +20010,7 @@
         <v>1492</v>
       </c>
       <c r="C381" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -19917,7 +20045,7 @@
         <v>1494</v>
       </c>
       <c r="C382" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -19952,7 +20080,7 @@
         <v>1496</v>
       </c>
       <c r="C383" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -19987,7 +20115,7 @@
         <v>1498</v>
       </c>
       <c r="C384" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -20022,7 +20150,7 @@
         <v>1500</v>
       </c>
       <c r="C385" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -20057,7 +20185,7 @@
         <v>1502</v>
       </c>
       <c r="C386" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -20092,7 +20220,7 @@
         <v>1504</v>
       </c>
       <c r="C387" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -20127,7 +20255,7 @@
         <v>1506</v>
       </c>
       <c r="C388" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -20162,7 +20290,7 @@
         <v>1508</v>
       </c>
       <c r="C389" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -20197,7 +20325,7 @@
         <v>1510</v>
       </c>
       <c r="C390" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -20232,7 +20360,7 @@
         <v>1061</v>
       </c>
       <c r="C391" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -20267,7 +20395,7 @@
         <v>1512</v>
       </c>
       <c r="C392" t="s">
-        <v>2051</v>
+        <v>2086</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -20302,7 +20430,7 @@
         <v>1514</v>
       </c>
       <c r="C393" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -20337,7 +20465,7 @@
         <v>1120</v>
       </c>
       <c r="C394" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -20372,7 +20500,7 @@
         <v>1516</v>
       </c>
       <c r="C395" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -20407,7 +20535,7 @@
         <v>573</v>
       </c>
       <c r="C396" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -20442,7 +20570,7 @@
         <v>565</v>
       </c>
       <c r="C397" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -20477,7 +20605,7 @@
         <v>1518</v>
       </c>
       <c r="C398" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -20512,7 +20640,7 @@
         <v>1520</v>
       </c>
       <c r="C399" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -20547,7 +20675,7 @@
         <v>1522</v>
       </c>
       <c r="C400" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -20582,7 +20710,7 @@
         <v>1524</v>
       </c>
       <c r="C401" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -20617,7 +20745,7 @@
         <v>1526</v>
       </c>
       <c r="C402" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -20652,7 +20780,7 @@
         <v>1528</v>
       </c>
       <c r="C403" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -20687,7 +20815,7 @@
         <v>1530</v>
       </c>
       <c r="C404" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -20722,7 +20850,7 @@
         <v>1532</v>
       </c>
       <c r="C405" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -20757,7 +20885,7 @@
         <v>1534</v>
       </c>
       <c r="C406" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -20792,7 +20920,7 @@
         <v>1536</v>
       </c>
       <c r="C407" t="s">
-        <v>2051</v>
+        <v>2087</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -20827,7 +20955,7 @@
         <v>1538</v>
       </c>
       <c r="C408" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -20862,7 +20990,7 @@
         <v>1540</v>
       </c>
       <c r="C409" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -20897,7 +21025,7 @@
         <v>1542</v>
       </c>
       <c r="C410" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -20932,7 +21060,7 @@
         <v>1544</v>
       </c>
       <c r="C411" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -20967,7 +21095,7 @@
         <v>1546</v>
       </c>
       <c r="C412" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -21002,7 +21130,7 @@
         <v>1548</v>
       </c>
       <c r="C413" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -21037,7 +21165,7 @@
         <v>1550</v>
       </c>
       <c r="C414" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -21072,7 +21200,7 @@
         <v>1552</v>
       </c>
       <c r="C415" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -21107,7 +21235,7 @@
         <v>1554</v>
       </c>
       <c r="C416" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -21142,7 +21270,7 @@
         <v>1556</v>
       </c>
       <c r="C417" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -21177,7 +21305,7 @@
         <v>1558</v>
       </c>
       <c r="C418" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -21212,7 +21340,7 @@
         <v>1560</v>
       </c>
       <c r="C419" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -21247,7 +21375,7 @@
         <v>1562</v>
       </c>
       <c r="C420" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -21282,7 +21410,7 @@
         <v>1564</v>
       </c>
       <c r="C421" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -21317,7 +21445,7 @@
         <v>1115</v>
       </c>
       <c r="C422" t="s">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -21352,7 +21480,7 @@
         <v>1566</v>
       </c>
       <c r="C423" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -21387,7 +21515,7 @@
         <v>1568</v>
       </c>
       <c r="C424" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -21422,7 +21550,7 @@
         <v>1440</v>
       </c>
       <c r="C425" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -21457,7 +21585,7 @@
         <v>1570</v>
       </c>
       <c r="C426" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -21492,7 +21620,7 @@
         <v>1490</v>
       </c>
       <c r="C427" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -21527,7 +21655,7 @@
         <v>1573</v>
       </c>
       <c r="C428" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -21562,7 +21690,7 @@
         <v>1575</v>
       </c>
       <c r="C429" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -21597,7 +21725,7 @@
         <v>1577</v>
       </c>
       <c r="C430" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -21632,7 +21760,7 @@
         <v>1579</v>
       </c>
       <c r="C431" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -21667,7 +21795,7 @@
         <v>1581</v>
       </c>
       <c r="C432" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -21702,7 +21830,7 @@
         <v>1583</v>
       </c>
       <c r="C433" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -21737,7 +21865,7 @@
         <v>1585</v>
       </c>
       <c r="C434" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -21772,7 +21900,7 @@
         <v>1587</v>
       </c>
       <c r="C435" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -21807,7 +21935,7 @@
         <v>1589</v>
       </c>
       <c r="C436" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -21842,7 +21970,7 @@
         <v>1591</v>
       </c>
       <c r="C437" t="s">
-        <v>2051</v>
+        <v>2089</v>
       </c>
       <c r="D437">
         <v>1</v>
@@ -21877,7 +22005,7 @@
         <v>1593</v>
       </c>
       <c r="C438" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -21912,7 +22040,7 @@
         <v>1595</v>
       </c>
       <c r="C439" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -21947,7 +22075,7 @@
         <v>1597</v>
       </c>
       <c r="C440" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -21982,7 +22110,7 @@
         <v>1599</v>
       </c>
       <c r="C441" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -22017,7 +22145,7 @@
         <v>1601</v>
       </c>
       <c r="C442" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -22052,7 +22180,7 @@
         <v>1603</v>
       </c>
       <c r="C443" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -22087,7 +22215,7 @@
         <v>1605</v>
       </c>
       <c r="C444" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -22122,7 +22250,7 @@
         <v>1607</v>
       </c>
       <c r="C445" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -22157,7 +22285,7 @@
         <v>1609</v>
       </c>
       <c r="C446" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -22192,7 +22320,7 @@
         <v>1611</v>
       </c>
       <c r="C447" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -22227,7 +22355,7 @@
         <v>1613</v>
       </c>
       <c r="C448" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -22262,7 +22390,7 @@
         <v>1615</v>
       </c>
       <c r="C449" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -22297,7 +22425,7 @@
         <v>1617</v>
       </c>
       <c r="C450" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -22332,7 +22460,7 @@
         <v>1107</v>
       </c>
       <c r="C451" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -22367,7 +22495,7 @@
         <v>1619</v>
       </c>
       <c r="C452" t="s">
-        <v>2051</v>
+        <v>2090</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -22402,7 +22530,7 @@
         <v>1113</v>
       </c>
       <c r="C453" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -22437,7 +22565,7 @@
         <v>1621</v>
       </c>
       <c r="C454" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -22472,7 +22600,7 @@
         <v>1470</v>
       </c>
       <c r="C455" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -22507,7 +22635,7 @@
         <v>1623</v>
       </c>
       <c r="C456" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D456">
         <v>1</v>
@@ -22542,7 +22670,7 @@
         <v>1131</v>
       </c>
       <c r="C457" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -22577,7 +22705,7 @@
         <v>1625</v>
       </c>
       <c r="C458" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -22612,7 +22740,7 @@
         <v>1627</v>
       </c>
       <c r="C459" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D459">
         <v>1</v>
@@ -22647,7 +22775,7 @@
         <v>1629</v>
       </c>
       <c r="C460" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -22682,7 +22810,7 @@
         <v>1631</v>
       </c>
       <c r="C461" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -22717,7 +22845,7 @@
         <v>1633</v>
       </c>
       <c r="C462" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -22752,7 +22880,7 @@
         <v>1635</v>
       </c>
       <c r="C463" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -22787,7 +22915,7 @@
         <v>1637</v>
       </c>
       <c r="C464" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -22822,7 +22950,7 @@
         <v>1639</v>
       </c>
       <c r="C465" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -22857,7 +22985,7 @@
         <v>1641</v>
       </c>
       <c r="C466" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -22892,7 +23020,7 @@
         <v>1643</v>
       </c>
       <c r="C467" t="s">
-        <v>2051</v>
+        <v>2091</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -22927,7 +23055,7 @@
         <v>1645</v>
       </c>
       <c r="C468" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -22962,7 +23090,7 @@
         <v>1647</v>
       </c>
       <c r="C469" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -22997,7 +23125,7 @@
         <v>1649</v>
       </c>
       <c r="C470" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -23032,7 +23160,7 @@
         <v>1651</v>
       </c>
       <c r="C471" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -23067,7 +23195,7 @@
         <v>1653</v>
       </c>
       <c r="C472" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -23102,7 +23230,7 @@
         <v>1655</v>
       </c>
       <c r="C473" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -23137,7 +23265,7 @@
         <v>1657</v>
       </c>
       <c r="C474" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -23172,7 +23300,7 @@
         <v>1659</v>
       </c>
       <c r="C475" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -23207,7 +23335,7 @@
         <v>1661</v>
       </c>
       <c r="C476" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -23242,7 +23370,7 @@
         <v>1663</v>
       </c>
       <c r="C477" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -23277,7 +23405,7 @@
         <v>1665</v>
       </c>
       <c r="C478" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -23312,7 +23440,7 @@
         <v>1133</v>
       </c>
       <c r="C479" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -23347,7 +23475,7 @@
         <v>1668</v>
       </c>
       <c r="C480" t="s">
-        <v>2051</v>
+        <v>2092</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -26875,25 +27003,249 @@
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C581" s="2"/>
+      <c r="A581" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B581" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>1</v>
+      </c>
+      <c r="F581" t="s">
+        <v>996</v>
+      </c>
+      <c r="G581" t="s">
+        <v>996</v>
+      </c>
+      <c r="H581" t="s">
+        <v>996</v>
+      </c>
+      <c r="I581" t="s">
+        <v>996</v>
+      </c>
+      <c r="J581" t="s">
+        <v>996</v>
+      </c>
+      <c r="K581" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C582" s="2"/>
+      <c r="A582" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B582" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582" t="s">
+        <v>996</v>
+      </c>
+      <c r="G582" t="s">
+        <v>996</v>
+      </c>
+      <c r="H582" t="s">
+        <v>996</v>
+      </c>
+      <c r="I582" t="s">
+        <v>996</v>
+      </c>
+      <c r="J582" t="s">
+        <v>996</v>
+      </c>
+      <c r="K582" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C583" s="2"/>
+      <c r="A583" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B583" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+      <c r="E583">
+        <v>1</v>
+      </c>
+      <c r="F583" t="s">
+        <v>996</v>
+      </c>
+      <c r="G583" t="s">
+        <v>996</v>
+      </c>
+      <c r="H583" t="s">
+        <v>996</v>
+      </c>
+      <c r="I583" t="s">
+        <v>996</v>
+      </c>
+      <c r="J583" t="s">
+        <v>996</v>
+      </c>
+      <c r="K583" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C584" s="2"/>
+      <c r="A584" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B584" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>996</v>
+      </c>
+      <c r="G584" t="s">
+        <v>996</v>
+      </c>
+      <c r="H584" t="s">
+        <v>996</v>
+      </c>
+      <c r="I584" t="s">
+        <v>996</v>
+      </c>
+      <c r="J584" t="s">
+        <v>996</v>
+      </c>
+      <c r="K584" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C585" s="2"/>
+      <c r="A585" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
+        <v>1</v>
+      </c>
+      <c r="F585" t="s">
+        <v>996</v>
+      </c>
+      <c r="G585" t="s">
+        <v>996</v>
+      </c>
+      <c r="H585" t="s">
+        <v>996</v>
+      </c>
+      <c r="I585" t="s">
+        <v>996</v>
+      </c>
+      <c r="J585" t="s">
+        <v>996</v>
+      </c>
+      <c r="K585" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C586" s="2"/>
+      <c r="A586" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B586" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>996</v>
+      </c>
+      <c r="G586" t="s">
+        <v>996</v>
+      </c>
+      <c r="H586" t="s">
+        <v>996</v>
+      </c>
+      <c r="I586" t="s">
+        <v>996</v>
+      </c>
+      <c r="J586" t="s">
+        <v>996</v>
+      </c>
+      <c r="K586" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C587" s="2"/>
+      <c r="A587" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B587" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>996</v>
+      </c>
+      <c r="G587" t="s">
+        <v>996</v>
+      </c>
+      <c r="H587" t="s">
+        <v>996</v>
+      </c>
+      <c r="I587" t="s">
+        <v>996</v>
+      </c>
+      <c r="J587" t="s">
+        <v>996</v>
+      </c>
+      <c r="K587" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C588" s="2"/>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S02887\vokabeltrainer_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE12381-B8B6-48DC-BF7B-4F3B4C68C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611166EF-86E8-45D5-BD73-8BB2D683B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="2096">
   <si>
     <t>Deutsch</t>
   </si>
@@ -6317,7 +6317,10 @@
     <t>required/necessary/essential</t>
   </si>
   <si>
-    <t>Gruppe 1-16</t>
+    <t>Gruppe 1-8</t>
+  </si>
+  <si>
+    <t>Gruppe 9-16</t>
   </si>
 </sst>
 </file>
@@ -6692,8 +6695,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A761" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C601" sqref="C601"/>
+    <sheetView tabSelected="1" topLeftCell="A687" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C716" sqref="C716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31388,7 +31391,7 @@
         <v>953</v>
       </c>
       <c r="C706" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -31423,7 +31426,7 @@
         <v>961</v>
       </c>
       <c r="C707" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D707">
         <v>1</v>
@@ -31458,7 +31461,7 @@
         <v>969</v>
       </c>
       <c r="C708" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D708">
         <v>1</v>
@@ -31493,7 +31496,7 @@
         <v>977</v>
       </c>
       <c r="C709" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -31528,7 +31531,7 @@
         <v>985</v>
       </c>
       <c r="C710" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D710">
         <v>1</v>
@@ -31563,7 +31566,7 @@
         <v>993</v>
       </c>
       <c r="C711" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D711">
         <v>1</v>
@@ -31598,7 +31601,7 @@
         <v>996</v>
       </c>
       <c r="C712" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D712">
         <v>1</v>
@@ -31633,7 +31636,7 @@
         <v>998</v>
       </c>
       <c r="C713" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D713">
         <v>1</v>
@@ -31668,7 +31671,7 @@
         <v>1000</v>
       </c>
       <c r="C714" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D714">
         <v>1</v>
@@ -31703,7 +31706,7 @@
         <v>1002</v>
       </c>
       <c r="C715" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D715">
         <v>1</v>
@@ -31738,7 +31741,7 @@
         <v>1004</v>
       </c>
       <c r="C716" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -31773,7 +31776,7 @@
         <v>1006</v>
       </c>
       <c r="C717" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -31808,7 +31811,7 @@
         <v>1008</v>
       </c>
       <c r="C718" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D718">
         <v>1</v>
@@ -31843,7 +31846,7 @@
         <v>1010</v>
       </c>
       <c r="C719" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -31878,7 +31881,7 @@
         <v>1012</v>
       </c>
       <c r="C720" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D720">
         <v>1</v>
@@ -31913,7 +31916,7 @@
         <v>1014</v>
       </c>
       <c r="C721" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -31948,7 +31951,7 @@
         <v>1016</v>
       </c>
       <c r="C722" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -31983,7 +31986,7 @@
         <v>1018</v>
       </c>
       <c r="C723" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D723">
         <v>1</v>
@@ -32018,7 +32021,7 @@
         <v>245</v>
       </c>
       <c r="C724" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D724">
         <v>1</v>
@@ -32053,7 +32056,7 @@
         <v>1021</v>
       </c>
       <c r="C725" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D725">
         <v>1</v>
@@ -32088,7 +32091,7 @@
         <v>1023</v>
       </c>
       <c r="C726" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D726">
         <v>1</v>
@@ -32123,7 +32126,7 @@
         <v>1025</v>
       </c>
       <c r="C727" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -32158,7 +32161,7 @@
         <v>1027</v>
       </c>
       <c r="C728" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D728">
         <v>1</v>
@@ -32193,7 +32196,7 @@
         <v>1029</v>
       </c>
       <c r="C729" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D729">
         <v>1</v>
@@ -32228,7 +32231,7 @@
         <v>1031</v>
       </c>
       <c r="C730" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D730">
         <v>1</v>
@@ -32263,7 +32266,7 @@
         <v>1033</v>
       </c>
       <c r="C731" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D731">
         <v>1</v>
@@ -32298,7 +32301,7 @@
         <v>1035</v>
       </c>
       <c r="C732" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D732">
         <v>1</v>
@@ -32333,7 +32336,7 @@
         <v>1037</v>
       </c>
       <c r="C733" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D733">
         <v>1</v>
@@ -32368,7 +32371,7 @@
         <v>1039</v>
       </c>
       <c r="C734" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D734">
         <v>1</v>
@@ -32403,7 +32406,7 @@
         <v>1041</v>
       </c>
       <c r="C735" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D735">
         <v>1</v>
@@ -32438,7 +32441,7 @@
         <v>1043</v>
       </c>
       <c r="C736" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D736">
         <v>1</v>
@@ -32473,7 +32476,7 @@
         <v>1045</v>
       </c>
       <c r="C737" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D737">
         <v>1</v>
@@ -32508,7 +32511,7 @@
         <v>1047</v>
       </c>
       <c r="C738" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D738">
         <v>1</v>
@@ -32543,7 +32546,7 @@
         <v>1049</v>
       </c>
       <c r="C739" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D739">
         <v>1</v>
@@ -32578,7 +32581,7 @@
         <v>1051</v>
       </c>
       <c r="C740" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D740">
         <v>1</v>
@@ -32613,7 +32616,7 @@
         <v>1053</v>
       </c>
       <c r="C741" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D741">
         <v>1</v>
@@ -32648,7 +32651,7 @@
         <v>1055</v>
       </c>
       <c r="C742" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D742">
         <v>1</v>
@@ -32683,7 +32686,7 @@
         <v>1057</v>
       </c>
       <c r="C743" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D743">
         <v>1</v>
@@ -32718,7 +32721,7 @@
         <v>1059</v>
       </c>
       <c r="C744" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D744">
         <v>1</v>
@@ -32753,7 +32756,7 @@
         <v>1061</v>
       </c>
       <c r="C745" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D745">
         <v>1</v>
@@ -32788,7 +32791,7 @@
         <v>1063</v>
       </c>
       <c r="C746" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D746">
         <v>1</v>
@@ -32823,7 +32826,7 @@
         <v>1065</v>
       </c>
       <c r="C747" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D747">
         <v>1</v>
@@ -32858,7 +32861,7 @@
         <v>1067</v>
       </c>
       <c r="C748" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D748">
         <v>1</v>
@@ -32893,7 +32896,7 @@
         <v>1069</v>
       </c>
       <c r="C749" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D749">
         <v>1</v>
@@ -32928,7 +32931,7 @@
         <v>1071</v>
       </c>
       <c r="C750" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D750">
         <v>1</v>
@@ -32963,7 +32966,7 @@
         <v>1073</v>
       </c>
       <c r="C751" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D751">
         <v>1</v>
@@ -32998,7 +33001,7 @@
         <v>1075</v>
       </c>
       <c r="C752" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D752">
         <v>1</v>
@@ -33033,7 +33036,7 @@
         <v>1077</v>
       </c>
       <c r="C753" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D753">
         <v>1</v>
@@ -33068,7 +33071,7 @@
         <v>1079</v>
       </c>
       <c r="C754" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D754">
         <v>1</v>
@@ -33103,7 +33106,7 @@
         <v>1081</v>
       </c>
       <c r="C755" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D755">
         <v>1</v>
@@ -33138,7 +33141,7 @@
         <v>1083</v>
       </c>
       <c r="C756" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D756">
         <v>1</v>
@@ -33173,7 +33176,7 @@
         <v>1085</v>
       </c>
       <c r="C757" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D757">
         <v>1</v>
@@ -33208,7 +33211,7 @@
         <v>1087</v>
       </c>
       <c r="C758" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D758">
         <v>1</v>
@@ -33243,7 +33246,7 @@
         <v>1089</v>
       </c>
       <c r="C759" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D759">
         <v>1</v>
@@ -33278,7 +33281,7 @@
         <v>1091</v>
       </c>
       <c r="C760" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D760">
         <v>1</v>
@@ -33313,7 +33316,7 @@
         <v>1093</v>
       </c>
       <c r="C761" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D761">
         <v>1</v>
@@ -33348,7 +33351,7 @@
         <v>1095</v>
       </c>
       <c r="C762" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D762">
         <v>1</v>
@@ -33383,7 +33386,7 @@
         <v>1097</v>
       </c>
       <c r="C763" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D763">
         <v>1</v>
@@ -33418,7 +33421,7 @@
         <v>1099</v>
       </c>
       <c r="C764" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D764">
         <v>1</v>
@@ -33453,7 +33456,7 @@
         <v>1101</v>
       </c>
       <c r="C765" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D765">
         <v>1</v>
@@ -33488,7 +33491,7 @@
         <v>1103</v>
       </c>
       <c r="C766" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -33523,7 +33526,7 @@
         <v>1105</v>
       </c>
       <c r="C767" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D767">
         <v>1</v>
@@ -33558,7 +33561,7 @@
         <v>1107</v>
       </c>
       <c r="C768" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D768">
         <v>1</v>
@@ -33593,7 +33596,7 @@
         <v>1109</v>
       </c>
       <c r="C769" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D769">
         <v>1</v>
@@ -33628,7 +33631,7 @@
         <v>1111</v>
       </c>
       <c r="C770" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D770">
         <v>1</v>
@@ -33663,7 +33666,7 @@
         <v>1113</v>
       </c>
       <c r="C771" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -33698,7 +33701,7 @@
         <v>1115</v>
       </c>
       <c r="C772" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D772">
         <v>1</v>
@@ -33733,7 +33736,7 @@
         <v>1116</v>
       </c>
       <c r="C773" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D773">
         <v>1</v>
@@ -33768,7 +33771,7 @@
         <v>1118</v>
       </c>
       <c r="C774" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -33803,7 +33806,7 @@
         <v>1120</v>
       </c>
       <c r="C775" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D775">
         <v>1</v>
@@ -33838,7 +33841,7 @@
         <v>165</v>
       </c>
       <c r="C776" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D776">
         <v>1</v>
@@ -33873,7 +33876,7 @@
         <v>1123</v>
       </c>
       <c r="C777" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D777">
         <v>1</v>
@@ -33908,7 +33911,7 @@
         <v>1125</v>
       </c>
       <c r="C778" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D778">
         <v>1</v>
@@ -33943,7 +33946,7 @@
         <v>1127</v>
       </c>
       <c r="C779" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D779">
         <v>1</v>
@@ -33978,7 +33981,7 @@
         <v>1129</v>
       </c>
       <c r="C780" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D780">
         <v>1</v>
@@ -34013,7 +34016,7 @@
         <v>1131</v>
       </c>
       <c r="C781" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D781">
         <v>1</v>
@@ -34048,7 +34051,7 @@
         <v>1133</v>
       </c>
       <c r="C782" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D782">
         <v>1</v>
@@ -34083,7 +34086,7 @@
         <v>1135</v>
       </c>
       <c r="C783" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D783">
         <v>1</v>
@@ -34118,7 +34121,7 @@
         <v>1137</v>
       </c>
       <c r="C784" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D784">
         <v>1</v>
@@ -34153,7 +34156,7 @@
         <v>1139</v>
       </c>
       <c r="C785" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D785">
         <v>1</v>
@@ -34188,7 +34191,7 @@
         <v>1141</v>
       </c>
       <c r="C786" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D786">
         <v>1</v>
@@ -34223,7 +34226,7 @@
         <v>1143</v>
       </c>
       <c r="C787" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D787">
         <v>1</v>
@@ -34258,7 +34261,7 @@
         <v>1145</v>
       </c>
       <c r="C788" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D788">
         <v>1</v>
@@ -34293,7 +34296,7 @@
         <v>1147</v>
       </c>
       <c r="C789" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D789">
         <v>1</v>
@@ -34328,7 +34331,7 @@
         <v>1008</v>
       </c>
       <c r="C790" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D790">
         <v>1</v>
@@ -34363,7 +34366,7 @@
         <v>1149</v>
       </c>
       <c r="C791" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D791">
         <v>1</v>
@@ -34398,7 +34401,7 @@
         <v>1151</v>
       </c>
       <c r="C792" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D792">
         <v>1</v>
@@ -34433,7 +34436,7 @@
         <v>1153</v>
       </c>
       <c r="C793" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D793">
         <v>1</v>
@@ -34468,7 +34471,7 @@
         <v>1155</v>
       </c>
       <c r="C794" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D794">
         <v>1</v>
@@ -34503,7 +34506,7 @@
         <v>793</v>
       </c>
       <c r="C795" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D795">
         <v>1</v>
@@ -34538,7 +34541,7 @@
         <v>1158</v>
       </c>
       <c r="C796" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D796">
         <v>1</v>
@@ -34573,7 +34576,7 @@
         <v>1160</v>
       </c>
       <c r="C797" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D797">
         <v>1</v>
@@ -34608,7 +34611,7 @@
         <v>1162</v>
       </c>
       <c r="C798" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -34643,7 +34646,7 @@
         <v>1164</v>
       </c>
       <c r="C799" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D799">
         <v>1</v>
@@ -34678,7 +34681,7 @@
         <v>1166</v>
       </c>
       <c r="C800" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D800">
         <v>1</v>
@@ -34713,7 +34716,7 @@
         <v>1168</v>
       </c>
       <c r="C801" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D801">
         <v>1</v>
@@ -34748,7 +34751,7 @@
         <v>1170</v>
       </c>
       <c r="C802" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D802">
         <v>1</v>
@@ -34783,7 +34786,7 @@
         <v>1172</v>
       </c>
       <c r="C803" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D803">
         <v>1</v>
@@ -34818,7 +34821,7 @@
         <v>1174</v>
       </c>
       <c r="C804" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D804">
         <v>1</v>
@@ -34853,7 +34856,7 @@
         <v>1176</v>
       </c>
       <c r="C805" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D805">
         <v>1</v>
@@ -34888,7 +34891,7 @@
         <v>1178</v>
       </c>
       <c r="C806" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D806">
         <v>1</v>
@@ -34923,7 +34926,7 @@
         <v>1180</v>
       </c>
       <c r="C807" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D807">
         <v>1</v>
@@ -34958,7 +34961,7 @@
         <v>1182</v>
       </c>
       <c r="C808" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D808">
         <v>1</v>
@@ -34993,7 +34996,7 @@
         <v>1184</v>
       </c>
       <c r="C809" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D809">
         <v>1</v>
@@ -35028,7 +35031,7 @@
         <v>1186</v>
       </c>
       <c r="C810" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D810">
         <v>1</v>
@@ -35063,7 +35066,7 @@
         <v>1187</v>
       </c>
       <c r="C811" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D811">
         <v>1</v>
@@ -35098,7 +35101,7 @@
         <v>1189</v>
       </c>
       <c r="C812" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D812">
         <v>1</v>
@@ -35133,7 +35136,7 @@
         <v>1010</v>
       </c>
       <c r="C813" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D813">
         <v>1</v>
@@ -35168,7 +35171,7 @@
         <v>1191</v>
       </c>
       <c r="C814" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D814">
         <v>1</v>
@@ -35203,7 +35206,7 @@
         <v>1193</v>
       </c>
       <c r="C815" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D815">
         <v>1</v>
@@ -35238,7 +35241,7 @@
         <v>1195</v>
       </c>
       <c r="C816" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D816">
         <v>1</v>
@@ -35273,7 +35276,7 @@
         <v>1197</v>
       </c>
       <c r="C817" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D817">
         <v>1</v>
@@ -35308,7 +35311,7 @@
         <v>1199</v>
       </c>
       <c r="C818" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D818">
         <v>1</v>
@@ -35343,7 +35346,7 @@
         <v>444</v>
       </c>
       <c r="C819" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D819">
         <v>1</v>
@@ -35378,7 +35381,7 @@
         <v>1201</v>
       </c>
       <c r="C820" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D820">
         <v>1</v>
@@ -35413,7 +35416,7 @@
         <v>1203</v>
       </c>
       <c r="C821" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D821">
         <v>1</v>
@@ -35448,7 +35451,7 @@
         <v>1205</v>
       </c>
       <c r="C822" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D822">
         <v>1</v>
@@ -35483,7 +35486,7 @@
         <v>1207</v>
       </c>
       <c r="C823" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D823">
         <v>1</v>
@@ -35518,7 +35521,7 @@
         <v>1209</v>
       </c>
       <c r="C824" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D824">
         <v>1</v>

--- a/vokabeln.xlsx
+++ b/vokabeln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S02887\vokabeltrainer_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611166EF-86E8-45D5-BD73-8BB2D683B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11688BC7-1035-4B86-8A73-AC099264E21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="2096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="2098">
   <si>
     <t>Deutsch</t>
   </si>
@@ -6317,10 +6317,16 @@
     <t>required/necessary/essential</t>
   </si>
   <si>
-    <t>Gruppe 1-8</t>
-  </si>
-  <si>
-    <t>Gruppe 9-16</t>
+    <t>Gruppe 1-4</t>
+  </si>
+  <si>
+    <t>Gruppe 5-8</t>
+  </si>
+  <si>
+    <t>Gruppe 13-16</t>
+  </si>
+  <si>
+    <t>Gruppe9-12</t>
   </si>
 </sst>
 </file>
@@ -6695,8 +6701,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C716" sqref="C716"/>
+    <sheetView tabSelected="1" topLeftCell="A698" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C711" sqref="C711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29361,7 +29367,7 @@
         <v>492</v>
       </c>
       <c r="C648" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D648">
         <v>1</v>
@@ -29396,7 +29402,7 @@
         <v>500</v>
       </c>
       <c r="C649" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -29431,7 +29437,7 @@
         <v>508</v>
       </c>
       <c r="C650" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D650">
         <v>1</v>
@@ -29466,7 +29472,7 @@
         <v>516</v>
       </c>
       <c r="C651" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D651">
         <v>1</v>
@@ -29501,7 +29507,7 @@
         <v>524</v>
       </c>
       <c r="C652" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D652">
         <v>1</v>
@@ -29536,7 +29542,7 @@
         <v>532</v>
       </c>
       <c r="C653" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -29571,7 +29577,7 @@
         <v>540</v>
       </c>
       <c r="C654" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -29606,7 +29612,7 @@
         <v>548</v>
       </c>
       <c r="C655" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D655">
         <v>1</v>
@@ -29641,7 +29647,7 @@
         <v>556</v>
       </c>
       <c r="C656" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -29676,7 +29682,7 @@
         <v>564</v>
       </c>
       <c r="C657" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -29711,7 +29717,7 @@
         <v>572</v>
       </c>
       <c r="C658" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D658">
         <v>1</v>
@@ -29746,7 +29752,7 @@
         <v>580</v>
       </c>
       <c r="C659" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D659">
         <v>1</v>
@@ -29781,7 +29787,7 @@
         <v>588</v>
       </c>
       <c r="C660" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D660">
         <v>1</v>
@@ -29816,7 +29822,7 @@
         <v>596</v>
       </c>
       <c r="C661" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D661">
         <v>1</v>
@@ -29851,7 +29857,7 @@
         <v>2093</v>
       </c>
       <c r="C662" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D662">
         <v>1</v>
@@ -29886,7 +29892,7 @@
         <v>611</v>
       </c>
       <c r="C663" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D663">
         <v>1</v>
@@ -29921,7 +29927,7 @@
         <v>619</v>
       </c>
       <c r="C664" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D664">
         <v>1</v>
@@ -29956,7 +29962,7 @@
         <v>627</v>
       </c>
       <c r="C665" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -29991,7 +29997,7 @@
         <v>635</v>
       </c>
       <c r="C666" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D666">
         <v>1</v>
@@ -30026,7 +30032,7 @@
         <v>643</v>
       </c>
       <c r="C667" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D667">
         <v>1</v>
@@ -30061,7 +30067,7 @@
         <v>651</v>
       </c>
       <c r="C668" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D668">
         <v>1</v>
@@ -30096,7 +30102,7 @@
         <v>659</v>
       </c>
       <c r="C669" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D669">
         <v>1</v>
@@ -30131,7 +30137,7 @@
         <v>667</v>
       </c>
       <c r="C670" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D670">
         <v>1</v>
@@ -30166,7 +30172,7 @@
         <v>675</v>
       </c>
       <c r="C671" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D671">
         <v>1</v>
@@ -30201,7 +30207,7 @@
         <v>683</v>
       </c>
       <c r="C672" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -30236,7 +30242,7 @@
         <v>691</v>
       </c>
       <c r="C673" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D673">
         <v>1</v>
@@ -30271,7 +30277,7 @@
         <v>699</v>
       </c>
       <c r="C674" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D674">
         <v>1</v>
@@ -30306,7 +30312,7 @@
         <v>707</v>
       </c>
       <c r="C675" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D675">
         <v>1</v>
@@ -30341,7 +30347,7 @@
         <v>715</v>
       </c>
       <c r="C676" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D676">
         <v>1</v>
@@ -30376,7 +30382,7 @@
         <v>723</v>
       </c>
       <c r="C677" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D677">
         <v>1</v>
@@ -30411,7 +30417,7 @@
         <v>731</v>
       </c>
       <c r="C678" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D678">
         <v>1</v>
@@ -30446,7 +30452,7 @@
         <v>739</v>
       </c>
       <c r="C679" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D679">
         <v>1</v>
@@ -30481,7 +30487,7 @@
         <v>747</v>
       </c>
       <c r="C680" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D680">
         <v>1</v>
@@ -30516,7 +30522,7 @@
         <v>133</v>
       </c>
       <c r="C681" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D681">
         <v>1</v>
@@ -30551,7 +30557,7 @@
         <v>761</v>
       </c>
       <c r="C682" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -30586,7 +30592,7 @@
         <v>769</v>
       </c>
       <c r="C683" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D683">
         <v>1</v>
@@ -30621,7 +30627,7 @@
         <v>777</v>
       </c>
       <c r="C684" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D684">
         <v>1</v>
@@ -30656,7 +30662,7 @@
         <v>785</v>
       </c>
       <c r="C685" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D685">
         <v>1</v>
@@ -30691,7 +30697,7 @@
         <v>793</v>
       </c>
       <c r="C686" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -30726,7 +30732,7 @@
         <v>801</v>
       </c>
       <c r="C687" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D687">
         <v>1</v>
@@ -30761,7 +30767,7 @@
         <v>809</v>
       </c>
       <c r="C688" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D688">
         <v>1</v>
@@ -30796,7 +30802,7 @@
         <v>817</v>
       </c>
       <c r="C689" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D689">
         <v>1</v>
@@ -30831,7 +30837,7 @@
         <v>825</v>
       </c>
       <c r="C690" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D690">
         <v>1</v>
@@ -30866,7 +30872,7 @@
         <v>833</v>
       </c>
       <c r="C691" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D691">
         <v>1</v>
@@ -30901,7 +30907,7 @@
         <v>841</v>
       </c>
       <c r="C692" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D692">
         <v>1</v>
@@ -30936,7 +30942,7 @@
         <v>849</v>
       </c>
       <c r="C693" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D693">
         <v>1</v>
@@ -30971,7 +30977,7 @@
         <v>857</v>
       </c>
       <c r="C694" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -31006,7 +31012,7 @@
         <v>865</v>
       </c>
       <c r="C695" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D695">
         <v>1</v>
@@ -31041,7 +31047,7 @@
         <v>873</v>
       </c>
       <c r="C696" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -31076,7 +31082,7 @@
         <v>881</v>
       </c>
       <c r="C697" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D697">
         <v>1</v>
@@ -31111,7 +31117,7 @@
         <v>889</v>
       </c>
       <c r="C698" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D698">
         <v>1</v>
@@ -31146,7 +31152,7 @@
         <v>897</v>
       </c>
       <c r="C699" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D699">
         <v>1</v>
@@ -31181,7 +31187,7 @@
         <v>905</v>
       </c>
       <c r="C700" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D700">
         <v>1</v>
@@ -31216,7 +31222,7 @@
         <v>913</v>
       </c>
       <c r="C701" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D701">
         <v>1</v>
@@ -31251,7 +31257,7 @@
         <v>921</v>
       </c>
       <c r="C702" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -31286,7 +31292,7 @@
         <v>929</v>
       </c>
       <c r="C703" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -31321,7 +31327,7 @@
         <v>937</v>
       </c>
       <c r="C704" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D704">
         <v>1</v>
@@ -31356,7 +31362,7 @@
         <v>945</v>
       </c>
       <c r="C705" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="D705">
         <v>1</v>
@@ -31391,7 +31397,7 @@
         <v>953</v>
       </c>
       <c r="C706" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D706">
         <v>1</v>
@@ -31426,7 +31432,7 @@
         <v>961</v>
       </c>
       <c r="C707" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D707">
         <v>1</v>
@@ -31461,7 +31467,7 @@
         <v>969</v>
       </c>
       <c r="C708" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D708">
         <v>1</v>
@@ -31496,7 +31502,7 @@
         <v>977</v>
       </c>
       <c r="C709" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D709">
         <v>1</v>
@@ -31531,7 +31537,7 @@
         <v>985</v>
       </c>
       <c r="C710" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D710">
         <v>1</v>
@@ -31566,7 +31572,7 @@
         <v>993</v>
       </c>
       <c r="C711" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D711">
         <v>1</v>
@@ -31601,7 +31607,7 @@
         <v>996</v>
       </c>
       <c r="C712" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D712">
         <v>1</v>
@@ -31636,7 +31642,7 @@
         <v>998</v>
       </c>
       <c r="C713" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D713">
         <v>1</v>
@@ -31671,7 +31677,7 @@
         <v>1000</v>
       </c>
       <c r="C714" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D714">
         <v>1</v>
@@ -31706,7 +31712,7 @@
         <v>1002</v>
       </c>
       <c r="C715" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D715">
         <v>1</v>
@@ -31741,7 +31747,7 @@
         <v>1004</v>
       </c>
       <c r="C716" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -31776,7 +31782,7 @@
         <v>1006</v>
       </c>
       <c r="C717" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D717">
         <v>1</v>
@@ -31811,7 +31817,7 @@
         <v>1008</v>
       </c>
       <c r="C718" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D718">
         <v>1</v>
@@ -31846,7 +31852,7 @@
         <v>1010</v>
       </c>
       <c r="C719" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D719">
         <v>1</v>
@@ -31881,7 +31887,7 @@
         <v>1012</v>
       </c>
       <c r="C720" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D720">
         <v>1</v>
@@ -31916,7 +31922,7 @@
         <v>1014</v>
       </c>
       <c r="C721" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D721">
         <v>1</v>
@@ -31951,7 +31957,7 @@
         <v>1016</v>
       </c>
       <c r="C722" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D722">
         <v>1</v>
@@ -31986,7 +31992,7 @@
         <v>1018</v>
       </c>
       <c r="C723" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D723">
         <v>1</v>
@@ -32021,7 +32027,7 @@
         <v>245</v>
       </c>
       <c r="C724" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D724">
         <v>1</v>
@@ -32056,7 +32062,7 @@
         <v>1021</v>
       </c>
       <c r="C725" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D725">
         <v>1</v>
@@ -32091,7 +32097,7 @@
         <v>1023</v>
       </c>
       <c r="C726" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D726">
         <v>1</v>
@@ -32126,7 +32132,7 @@
         <v>1025</v>
       </c>
       <c r="C727" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -32161,7 +32167,7 @@
         <v>1027</v>
       </c>
       <c r="C728" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D728">
         <v>1</v>
@@ -32196,7 +32202,7 @@
         <v>1029</v>
       </c>
       <c r="C729" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D729">
         <v>1</v>
@@ -32231,7 +32237,7 @@
         <v>1031</v>
       </c>
       <c r="C730" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D730">
         <v>1</v>
@@ -32266,7 +32272,7 @@
         <v>1033</v>
       </c>
       <c r="C731" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D731">
         <v>1</v>
@@ -32301,7 +32307,7 @@
         <v>1035</v>
       </c>
       <c r="C732" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D732">
         <v>1</v>
@@ -32336,7 +32342,7 @@
         <v>1037</v>
       </c>
       <c r="C733" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D733">
         <v>1</v>
@@ -32371,7 +32377,7 @@
         <v>1039</v>
       </c>
       <c r="C734" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D734">
         <v>1</v>
@@ -32406,7 +32412,7 @@
         <v>1041</v>
       </c>
       <c r="C735" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D735">
         <v>1</v>
@@ -32441,7 +32447,7 @@
         <v>1043</v>
       </c>
       <c r="C736" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D736">
         <v>1</v>
@@ -32476,7 +32482,7 @@
         <v>1045</v>
       </c>
       <c r="C737" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D737">
         <v>1</v>
@@ -32511,7 +32517,7 @@
         <v>1047</v>
       </c>
       <c r="C738" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D738">
         <v>1</v>
@@ -32546,7 +32552,7 @@
         <v>1049</v>
       </c>
       <c r="C739" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D739">
         <v>1</v>
@@ -32581,7 +32587,7 @@
         <v>1051</v>
       </c>
       <c r="C740" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D740">
         <v>1</v>
@@ -32616,7 +32622,7 @@
         <v>1053</v>
       </c>
       <c r="C741" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D741">
         <v>1</v>
@@ -32651,7 +32657,7 @@
         <v>1055</v>
       </c>
       <c r="C742" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D742">
         <v>1</v>
@@ -32686,7 +32692,7 @@
         <v>1057</v>
       </c>
       <c r="C743" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D743">
         <v>1</v>
@@ -32721,7 +32727,7 @@
         <v>1059</v>
       </c>
       <c r="C744" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D744">
         <v>1</v>
@@ -32756,7 +32762,7 @@
         <v>1061</v>
       </c>
       <c r="C745" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D745">
         <v>1</v>
@@ -32791,7 +32797,7 @@
         <v>1063</v>
       </c>
       <c r="C746" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D746">
         <v>1</v>
@@ -32826,7 +32832,7 @@
         <v>1065</v>
       </c>
       <c r="C747" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D747">
         <v>1</v>
@@ -32861,7 +32867,7 @@
         <v>1067</v>
       </c>
       <c r="C748" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D748">
         <v>1</v>
@@ -32896,7 +32902,7 @@
         <v>1069</v>
       </c>
       <c r="C749" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D749">
         <v>1</v>
@@ -32931,7 +32937,7 @@
         <v>1071</v>
       </c>
       <c r="C750" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D750">
         <v>1</v>
@@ -32966,7 +32972,7 @@
         <v>1073</v>
       </c>
       <c r="C751" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D751">
         <v>1</v>
@@ -33001,7 +33007,7 @@
         <v>1075</v>
       </c>
       <c r="C752" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D752">
         <v>1</v>
@@ -33036,7 +33042,7 @@
         <v>1077</v>
       </c>
       <c r="C753" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D753">
         <v>1</v>
@@ -33071,7 +33077,7 @@
         <v>1079</v>
       </c>
       <c r="C754" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D754">
         <v>1</v>
@@ -33106,7 +33112,7 @@
         <v>1081</v>
       </c>
       <c r="C755" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D755">
         <v>1</v>
@@ -33141,7 +33147,7 @@
         <v>1083</v>
       </c>
       <c r="C756" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D756">
         <v>1</v>
@@ -33176,7 +33182,7 @@
         <v>1085</v>
       </c>
       <c r="C757" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D757">
         <v>1</v>
@@ -33211,7 +33217,7 @@
         <v>1087</v>
       </c>
       <c r="C758" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D758">
         <v>1</v>
@@ -33246,7 +33252,7 @@
         <v>1089</v>
       </c>
       <c r="C759" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D759">
         <v>1</v>
@@ -33281,7 +33287,7 @@
         <v>1091</v>
       </c>
       <c r="C760" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D760">
         <v>1</v>
@@ -33316,7 +33322,7 @@
         <v>1093</v>
       </c>
       <c r="C761" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D761">
         <v>1</v>
@@ -33351,7 +33357,7 @@
         <v>1095</v>
       </c>
       <c r="C762" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D762">
         <v>1</v>
@@ -33386,7 +33392,7 @@
         <v>1097</v>
       </c>
       <c r="C763" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D763">
         <v>1</v>
@@ -33421,7 +33427,7 @@
         <v>1099</v>
       </c>
       <c r="C764" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D764">
         <v>1</v>
@@ -33456,7 +33462,7 @@
         <v>1101</v>
       </c>
       <c r="C765" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="D765">
         <v>1</v>
@@ -33491,7 +33497,7 @@
         <v>1103</v>
       </c>
       <c r="C766" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D766">
         <v>1</v>
@@ -33526,7 +33532,7 @@
         <v>1105</v>
       </c>
       <c r="C767" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D767">
         <v>1</v>
@@ -33561,7 +33567,7 @@
         <v>1107</v>
       </c>
       <c r="C768" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D768">
         <v>1</v>
@@ -33596,7 +33602,7 @@
         <v>1109</v>
       </c>
       <c r="C769" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D769">
         <v>1</v>
@@ -33631,7 +33637,7 @@
         <v>1111</v>
       </c>
       <c r="C770" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D770">
         <v>1</v>
@@ -33666,7 +33672,7 @@
         <v>1113</v>
       </c>
       <c r="C771" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -33701,7 +33707,7 @@
         <v>1115</v>
       </c>
       <c r="C772" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D772">
         <v>1</v>
@@ -33736,7 +33742,7 @@
         <v>1116</v>
       </c>
       <c r="C773" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D773">
         <v>1</v>
@@ -33771,7 +33777,7 @@
         <v>1118</v>
       </c>
       <c r="C774" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D774">
         <v>1</v>
@@ -33806,7 +33812,7 @@
         <v>1120</v>
       </c>
       <c r="C775" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D775">
         <v>1</v>
@@ -33841,7 +33847,7 @@
         <v>165</v>
       </c>
       <c r="C776" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D776">
         <v>1</v>
@@ -33876,7 +33882,7 @@
         <v>1123</v>
       </c>
       <c r="C777" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D777">
         <v>1</v>
@@ -33911,7 +33917,7 @@
         <v>1125</v>
       </c>
       <c r="C778" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D778">
         <v>1</v>
@@ -33946,7 +33952,7 @@
         <v>1127</v>
       </c>
       <c r="C779" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D779">
         <v>1</v>
@@ -33981,7 +33987,7 @@
         <v>1129</v>
       </c>
       <c r="C780" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D780">
         <v>1</v>
@@ -34016,7 +34022,7 @@
         <v>1131</v>
       </c>
       <c r="C781" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D781">
         <v>1</v>
@@ -34051,7 +34057,7 @@
         <v>1133</v>
       </c>
       <c r="C782" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D782">
         <v>1</v>
@@ -34086,7 +34092,7 @@
         <v>1135</v>
       </c>
       <c r="C783" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D783">
         <v>1</v>
@@ -34121,7 +34127,7 @@
         <v>1137</v>
       </c>
       <c r="C784" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D784">
         <v>1</v>
@@ -34156,7 +34162,7 @@
         <v>1139</v>
       </c>
       <c r="C785" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D785">
         <v>1</v>
@@ -34191,7 +34197,7 @@
         <v>1141</v>
       </c>
       <c r="C786" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D786">
         <v>1</v>
@@ -34226,7 +34232,7 @@
         <v>1143</v>
       </c>
       <c r="C787" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D787">
         <v>1</v>
@@ -34261,7 +34267,7 @@
         <v>1145</v>
       </c>
       <c r="C788" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D788">
         <v>1</v>
@@ -34296,7 +34302,7 @@
         <v>1147</v>
       </c>
       <c r="C789" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D789">
         <v>1</v>
@@ -34331,7 +34337,7 @@
         <v>1008</v>
       </c>
       <c r="C790" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D790">
         <v>1</v>
@@ -34366,7 +34372,7 @@
         <v>1149</v>
       </c>
       <c r="C791" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D791">
         <v>1</v>
@@ -34401,7 +34407,7 @@
         <v>1151</v>
       </c>
       <c r="C792" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D792">
         <v>1</v>
@@ -34436,7 +34442,7 @@
         <v>1153</v>
       </c>
       <c r="C793" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D793">
         <v>1</v>
@@ -34471,7 +34477,7 @@
         <v>1155</v>
       </c>
       <c r="C794" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D794">
         <v>1</v>
@@ -34506,7 +34512,7 @@
         <v>793</v>
       </c>
       <c r="C795" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D795">
         <v>1</v>
@@ -34541,7 +34547,7 @@
         <v>1158</v>
       </c>
       <c r="C796" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D796">
         <v>1</v>
@@ -34576,7 +34582,7 @@
         <v>1160</v>
       </c>
       <c r="C797" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D797">
         <v>1</v>
@@ -34611,7 +34617,7 @@
         <v>1162</v>
       </c>
       <c r="C798" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -34646,7 +34652,7 @@
         <v>1164</v>
       </c>
       <c r="C799" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D799">
         <v>1</v>
@@ -34681,7 +34687,7 @@
         <v>1166</v>
       </c>
       <c r="C800" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D800">
         <v>1</v>
@@ -34716,7 +34722,7 @@
         <v>1168</v>
       </c>
       <c r="C801" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D801">
         <v>1</v>
@@ -34751,7 +34757,7 @@
         <v>1170</v>
       </c>
       <c r="C802" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D802">
         <v>1</v>
@@ -34786,7 +34792,7 @@
         <v>1172</v>
       </c>
       <c r="C803" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D803">
         <v>1</v>
@@ -34821,7 +34827,7 @@
         <v>1174</v>
       </c>
       <c r="C804" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D804">
         <v>1</v>
@@ -34856,7 +34862,7 @@
         <v>1176</v>
       </c>
       <c r="C805" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D805">
         <v>1</v>
@@ -34891,7 +34897,7 @@
         <v>1178</v>
       </c>
       <c r="C806" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D806">
         <v>1</v>
@@ -34926,7 +34932,7 @@
         <v>1180</v>
       </c>
       <c r="C807" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D807">
         <v>1</v>
@@ -34961,7 +34967,7 @@
         <v>1182</v>
       </c>
       <c r="C808" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D808">
         <v>1</v>
@@ -34996,7 +35002,7 @@
         <v>1184</v>
       </c>
       <c r="C809" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D809">
         <v>1</v>
@@ -35031,7 +35037,7 @@
         <v>1186</v>
       </c>
       <c r="C810" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D810">
         <v>1</v>
@@ -35066,7 +35072,7 @@
         <v>1187</v>
       </c>
       <c r="C811" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D811">
         <v>1</v>
@@ -35101,7 +35107,7 @@
         <v>1189</v>
       </c>
       <c r="C812" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D812">
         <v>1</v>
@@ -35136,7 +35142,7 @@
         <v>1010</v>
       </c>
       <c r="C813" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D813">
         <v>1</v>
@@ -35171,7 +35177,7 @@
         <v>1191</v>
       </c>
       <c r="C814" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D814">
         <v>1</v>
@@ -35206,7 +35212,7 @@
         <v>1193</v>
       </c>
       <c r="C815" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D815">
         <v>1</v>
@@ -35241,7 +35247,7 @@
         <v>1195</v>
       </c>
       <c r="C816" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D816">
         <v>1</v>
@@ -35276,7 +35282,7 @@
         <v>1197</v>
       </c>
       <c r="C817" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D817">
         <v>1</v>
@@ -35311,7 +35317,7 @@
         <v>1199</v>
       </c>
       <c r="C818" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D818">
         <v>1</v>
@@ -35346,7 +35352,7 @@
         <v>444</v>
       </c>
       <c r="C819" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D819">
         <v>1</v>
@@ -35381,7 +35387,7 @@
         <v>1201</v>
       </c>
       <c r="C820" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D820">
         <v>1</v>
@@ -35416,7 +35422,7 @@
         <v>1203</v>
       </c>
       <c r="C821" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D821">
         <v>1</v>
@@ -35451,7 +35457,7 @@
         <v>1205</v>
       </c>
       <c r="C822" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D822">
         <v>1</v>
@@ -35486,7 +35492,7 @@
         <v>1207</v>
       </c>
       <c r="C823" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D823">
         <v>1</v>
@@ -35521,7 +35527,7 @@
         <v>1209</v>
       </c>
       <c r="C824" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D824">
         <v>1</v>
